--- a/pract1/scraped/LaRepubblica.xlsx
+++ b/pract1/scraped/LaRepubblica.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C426"/>
+  <dimension ref="A1:C429"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,10 +415,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Metropolis Extra, Lillo: "Da bambino obeso e bullizzato sognavo grazie ai supereroi. Oggi sono Posaman"</v>
+        <v>No Meloni Day: studenti in piazza a Roma e Milano - la diretta</v>
       </c>
       <c r="B2" t="str">
-        <v>https://www.repubblica.it/rubriche/metropolis/2024/09/19/video/metropolis_extra_lillo_da_bambino_obeso_e_bullizzato_sognavo_grazie_ai_supereroi_il_politicamente_corretto_non_ha_senso-423509985/</v>
+        <v>https://www.repubblica.it/cronaca/2024/11/15/video/no_meloni_day_studenti_in_piazza_a_roma_e_milano_-_la_diretta-423629196/</v>
       </c>
       <c r="C2" t="str">
         <v>Не найден</v>
@@ -426,32 +426,32 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Spari contro la folla in Alabama: 4 morti e decine feriti</v>
+        <v>La giornata La mancata Autonomia</v>
       </c>
       <c r="B3" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/news/alabama_sparatoria_morti_feriti_news-423514532/</v>
+        <v>https://www.repubblica.it/rubriche/la-giornata/</v>
       </c>
       <c r="C3" t="str">
-        <v>Не найден</v>
+        <v>di Laura Pertici</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v/>
+        <v>ASCOLTA</v>
       </c>
       <c r="B4" t="str">
-        <v>https://bologna.repubblica.it/cronaca/2024/09/21/video/emilia-romagna_lelicottero_dellaeronautica_salva_una_bambina_di_7_anni_il_soccorso_piu_emozionante-423513405/</v>
+        <v>https://www.repubblica.it/rubriche/la-giornata/</v>
       </c>
       <c r="C4" t="str">
-        <v>Не найден</v>
+        <v>di Laura Pertici</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Emilia-Romagna, l'elicottero salva una bambina di 7 anni: "Il soccorso più emozionante"</v>
+        <v/>
       </c>
       <c r="B5" t="str">
-        <v>https://bologna.repubblica.it/cronaca/2024/09/21/video/emilia-romagna_lelicottero_dellaeronautica_salva_una_bambina_di_7_anni_il_soccorso_piu_emozionante-423513405/</v>
+        <v>https://www.repubblica.it/dossier/esteri/elezioni-presidenziali-usa-2024-video/2024/11/14/video/elon_musk_donald_trump_ovazione-423621937/</v>
       </c>
       <c r="C5" t="str">
         <v>Не найден</v>
@@ -459,10 +459,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v/>
+        <v>Musk al fianco di Trump a Washington: l'ovazione dei deputati repubblicani</v>
       </c>
       <c r="B6" t="str">
-        <v>https://www.repubblica.it/tecnologia/dossier/techtest/2024/09/19/video/iphone_16_pro_max_e_iphone_16_plus_la_prova_tutte_le_novita_dei_nuovi_smartphone_apple-423510442/</v>
+        <v>https://www.repubblica.it/dossier/esteri/elezioni-presidenziali-usa-2024-video/2024/11/14/video/elon_musk_donald_trump_ovazione-423621937/</v>
       </c>
       <c r="C6" t="str">
         <v>Не найден</v>
@@ -470,10 +470,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>iPhone 16, la prova: tutte le novità dei nuovi smartphone Apple</v>
+        <v/>
       </c>
       <c r="B7" t="str">
-        <v>https://www.repubblica.it/tecnologia/dossier/techtest/2024/09/19/video/iphone_16_pro_max_e_iphone_16_plus_la_prova_tutte_le_novita_dei_nuovi_smartphone_apple-423510442/</v>
+        <v>https://parma.repubblica.it/cronaca/2024/11/14/video/mega_rissa_in_strada_alla_fermata_del_bus_e_caos_sul_lungoparma-423622327/</v>
       </c>
       <c r="C7" t="str">
         <v>Не найден</v>
@@ -481,10 +481,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v/>
+        <v>Mega rissa in strada alla fermata del bus</v>
       </c>
       <c r="B8" t="str">
-        <v>https://www.repubblica.it/cronaca/2024/09/21/video/ferrara_poliziotto_salva_una_donna_appesa_al_cornicione_dellospedale_il_video-423512983/</v>
+        <v>https://parma.repubblica.it/cronaca/2024/11/14/video/mega_rissa_in_strada_alla_fermata_del_bus_e_caos_sul_lungoparma-423622327/</v>
       </c>
       <c r="C8" t="str">
         <v>Не найден</v>
@@ -492,10 +492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Poliziotto salva una donna appesa al cornicione dell'ospedale</v>
+        <v>L'articolo</v>
       </c>
       <c r="B9" t="str">
-        <v>https://www.repubblica.it/cronaca/2024/09/21/video/ferrara_poliziotto_salva_una_donna_appesa_al_cornicione_dellospedale_il_video-423512983/</v>
+        <v>https://parma.repubblica.it/cronaca/2024/11/14/news/conducente_aggredito_tep_episodio_di_estrema_gravita_impegnati_per_la_sicurezza_sui_mezzi-423624254/</v>
       </c>
       <c r="C9" t="str">
         <v>Не найден</v>
@@ -506,7 +506,7 @@
         <v/>
       </c>
       <c r="B10" t="str">
-        <v>https://www.repubblica.it/il-gusto/video/2024/09/21/video/e_stappato_a_monaco_di_baviera_parte_lo_spettacolo_delloktoberfest-423513530/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/14/video/esplosioni_a_brasilia_davanti_alla_corte_suprema_massima_allerta_in_vista_del_g20_a_rio-423622415/</v>
       </c>
       <c r="C10" t="str">
         <v>Не найден</v>
@@ -514,10 +514,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>"È stappato": a Monaco di Baviera parte lo spettacolo dell'Oktoberfest</v>
+        <v>Esplosioni a Brasilia davanti alla Corte Suprema: massima allerta in vista del G20 a Rio</v>
       </c>
       <c r="B11" t="str">
-        <v>https://www.repubblica.it/il-gusto/video/2024/09/21/video/e_stappato_a_monaco_di_baviera_parte_lo_spettacolo_delloktoberfest-423513530/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/14/video/esplosioni_a_brasilia_davanti_alla_corte_suprema_massima_allerta_in_vista_del_g20_a_rio-423622415/</v>
       </c>
       <c r="C11" t="str">
         <v>Не найден</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Spari in un locale di Molfetta, muore una ragazza di 19 anni colpita da un proiettile</v>
+        <v>L'articolo</v>
       </c>
       <c r="B12" t="str">
-        <v>https://bari.repubblica.it/cronaca/2024/09/22/news/lite_in_un_locale_notturno_a_molfetta_muore_una_ragazza_di_19_anni-423514397/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/14/news/attentato_a_brasilia_allerta_per_il_vertice_dei_leader_del_g20-423622269/?ref=RHLF-BG-P15-S1-T1</v>
       </c>
       <c r="C12" t="str">
         <v>Не найден</v>
@@ -539,131 +539,131 @@
         <v/>
       </c>
       <c r="B13" t="str">
-        <v>https://napoli.repubblica.it/cronaca/2024/09/22/news/saviano_esplosione_crollo_vittime_bombola_gas-423514297/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/15/video/spagna_incendio_in_una_casa_di_riposo_a_saragozza_10_vittime-423629169/</v>
       </c>
       <c r="C13" t="str">
-        <v>di Dario Del Porto</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Crolla palazzina dopo un’esplosione: morti bimba di 4 anni e il fratellino di 6, estratti vivi il papà e l'altro figlio di 2. Disperse mamma e vicina |</v>
+        <v>Incendio in una casa di riposo a Saragozza: 10 vittime</v>
       </c>
       <c r="B14" t="str">
-        <v>https://napoli.repubblica.it/cronaca/2024/09/22/news/saviano_esplosione_crollo_vittime_bombola_gas-423514297/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/15/video/spagna_incendio_in_una_casa_di_riposo_a_saragozza_10_vittime-423629169/</v>
       </c>
       <c r="C14" t="str">
-        <v>di Dario Del Porto</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>video</v>
+        <v/>
       </c>
       <c r="B15" t="str">
-        <v>https://napoli.repubblica.it/cronaca/2024/09/22/video/crollo_di_una_palazzina_a_saviano_morti_due_bambini_si_cercano_dispersi-423514535/</v>
+        <v>https://www.repubblica.it/economia/2024/11/15/news/la_commissione_ue_taglia_le_stime_sul_pil_italiano_obiettivi_del_governo_fuori_portata-423629218/</v>
       </c>
       <c r="C15" t="str">
-        <v>di Dario Del Porto</v>
+        <v>dal nostro corrispondente Claudio Tito</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v/>
+        <v>La Commissione Ue taglia le stime sul Pil italiano: obiettivi del governo fuori portata</v>
       </c>
       <c r="B16" t="str">
-        <v>https://napoli.repubblica.it/cronaca/2024/09/22/video/crollo_a_saviano_un_vicino_il_papa_si_e_salvato_perche_doveva_andare_a_lavoro-423514510/</v>
+        <v>https://www.repubblica.it/economia/2024/11/15/news/la_commissione_ue_taglia_le_stime_sul_pil_italiano_obiettivi_del_governo_fuori_portata-423629218/</v>
       </c>
       <c r="C16" t="str">
-        <v>dal nostro inviato Dario del Porto</v>
+        <v>dal nostro corrispondente Claudio Tito</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>La testimonianza di un vicino: "Il papà si è salvato perché doveva andare a lavoro"</v>
+        <v/>
       </c>
       <c r="B17" t="str">
-        <v>https://napoli.repubblica.it/cronaca/2024/09/22/video/crollo_a_saviano_un_vicino_il_papa_si_e_salvato_perche_doveva_andare_a_lavoro-423514510/</v>
+        <v>https://www.repubblica.it/economia/2024/11/15/news/manovra_governo_meloni_altre_misure-423628530/</v>
       </c>
       <c r="C17" t="str">
-        <v>dal nostro inviato Dario del Porto</v>
+        <v>di    Giuseppe Colombo, Antonio Fraschilla</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v/>
+        <v>Mutui casa agli under 30 ma solo se si sposano.Tre miliardi in più al Ponte. Le opzioni sul Tfr</v>
       </c>
       <c r="B18" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/diretta/guerra_israele_hezbollah_hamas_notizie_oggi-423514166/</v>
+        <v>https://www.repubblica.it/economia/2024/11/15/news/manovra_governo_meloni_altre_misure-423628530/</v>
       </c>
       <c r="C18" t="str">
-        <v>Не найден</v>
+        <v>di    Giuseppe Colombo, Antonio Fraschilla</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Diretta Notte di guerra. Israele colpisce 290 obiettivi in Libano, da Hebzollah pioggia di missili sul nord. Razzi anche su Haifa |</v>
+        <v/>
       </c>
       <c r="B19" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/diretta/guerra_israele_hezbollah_hamas_notizie_oggi-423514166/</v>
+        <v>https://palermo.repubblica.it/cronaca/2024/11/15/news/depistaggio_borsellino_nuovo_processo_caltanissetta-423629262/</v>
       </c>
       <c r="C19" t="str">
-        <v>Не найден</v>
+        <v>di Salvo Palazzolo</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Video Le esplosioni</v>
+        <v>Depistaggio per la strage Borsellino, rinviati a giudizio altri 4 poliziotti. “Hanno detto il falso”</v>
       </c>
       <c r="B20" t="str">
-        <v>https://www.repubblica.it/dossier/esteri/guerra-israele-hamas-gaza-medio-oriente/2024/09/22/video/notte_di_guerra_nel_nord_di_israele_attaccato_da_hezbollah-423514291/</v>
+        <v>https://palermo.repubblica.it/cronaca/2024/11/15/news/depistaggio_borsellino_nuovo_processo_caltanissetta-423629262/</v>
       </c>
       <c r="C20" t="str">
-        <v>Не найден</v>
+        <v>di Salvo Palazzolo</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Pioggia di missili su Israele, razzo intercettato e distrutto</v>
+        <v/>
       </c>
       <c r="B21" t="str">
-        <v>https://www.repubblica.it/dossier/esteri/guerra-israele-hamas-gaza-medio-oriente/2024/09/22/video/pioggia_di_missili_su_israele_razzo_intercettato_e_distrutto-423514299/</v>
+        <v>https://www.repubblica.it/scuola/2024/11/15/news/scuola_valditara_lettera_terza_media_tecnici_e_professionali-423629241/</v>
       </c>
       <c r="C21" t="str">
-        <v>Не найден</v>
+        <v>di Corrado Zunino</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v/>
+        <v>Valditara: “Scriverò agli alunni di terza media per promuovere tecnici e professionali”</v>
       </c>
       <c r="B22" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/news/hezbollah_israele_libano_attacco-423513914/</v>
+        <v>https://www.repubblica.it/scuola/2024/11/15/news/scuola_valditara_lettera_terza_media_tecnici_e_professionali-423629241/</v>
       </c>
       <c r="C22" t="str">
-        <v>Не найден</v>
+        <v>di Corrado Zunino</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Nel quartiere di Beirut feudo di Hezbollah. “E se Israele arriva a colpire Nasrallah?”</v>
+        <v/>
       </c>
       <c r="B23" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/news/hezbollah_israele_libano_attacco-423513914/</v>
+        <v>https://www.repubblica.it/italia/2024/11/15/news/aborto_relazione_dati_2022_ministero-423629179/</v>
       </c>
       <c r="C23" t="str">
-        <v>Не найден</v>
+        <v>di Michele Bocci</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Gli Usa: “Evitare l’escalation”</v>
+        <v>La relazione del ministero sui dati dell’aborto è scomparsa. “Quella del 2022 non è mai arrivata”</v>
       </c>
       <c r="B24" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/news/sullivan_israele_usa_bombardamenti-423514003/</v>
+        <v>https://www.repubblica.it/italia/2024/11/15/news/aborto_relazione_dati_2022_ministero-423629179/</v>
       </c>
       <c r="C24" t="str">
-        <v>dal nostro corrispondente Paolo Mastrolilli</v>
+        <v>di Michele Bocci</v>
       </c>
     </row>
     <row r="25">
@@ -671,21 +671,21 @@
         <v/>
       </c>
       <c r="B25" t="str">
-        <v>https://roma.repubblica.it/cronaca/2024/09/22/news/crollo_ponte_cavalcavia_a1_torrenova_roma_sud_grande_raccordo_anulare_traffico_anas_giubileo-423514375/</v>
+        <v>https://www.repubblica.it/politica/2024/11/15/news/autonomia_differenziata_consulta_decisione-423628727/</v>
       </c>
       <c r="C25" t="str">
-        <v>a cura della redazione di Roma</v>
+        <v>di Conchita Sannino</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Crolla un cavalcavia sulla A1 durante i lavori per il Giubileo: chiuso lo svincolo verso Roma Sud</v>
+        <v>Perché la Consulta ha smontato l’autonomia: “Incostituzionale in sette punti”</v>
       </c>
       <c r="B26" t="str">
-        <v>https://roma.repubblica.it/cronaca/2024/09/22/news/crollo_ponte_cavalcavia_a1_torrenova_roma_sud_grande_raccordo_anulare_traffico_anas_giubileo-423514375/</v>
+        <v>https://www.repubblica.it/politica/2024/11/15/news/autonomia_differenziata_consulta_decisione-423628727/</v>
       </c>
       <c r="C26" t="str">
-        <v>a cura della redazione di Roma</v>
+        <v>di Conchita Sannino</v>
       </c>
     </row>
     <row r="27">
@@ -693,21 +693,21 @@
         <v/>
       </c>
       <c r="B27" t="str">
-        <v>https://roma.repubblica.it/cronaca/2024/09/22/video/crolla_un_cavalcavia_della1_a_tor_vergata_le_immagini_dellincidente-423514393/</v>
+        <v>https://www.repubblica.it/politica/2024/11/15/news/lega_legge_autonomia_intervista_azzariti-423628680/</v>
       </c>
       <c r="C27" t="str">
-        <v>Не найден</v>
+        <v>di Gabriella Cerami</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Le immagini del crollo: il momento in cui il cavalcavia collassa mentre i mezzi dell'Anas sono al lavoro</v>
+        <v>Azzariti: “È stata bocciata la competizione tra Regioni. Una legge inapplicabile”</v>
       </c>
       <c r="B28" t="str">
-        <v>https://roma.repubblica.it/cronaca/2024/09/22/video/crolla_un_cavalcavia_della1_a_tor_vergata_le_immagini_dellincidente-423514393/</v>
+        <v>https://www.repubblica.it/politica/2024/11/15/news/lega_legge_autonomia_intervista_azzariti-423628680/</v>
       </c>
       <c r="C28" t="str">
-        <v>Не найден</v>
+        <v>di Gabriella Cerami</v>
       </c>
     </row>
     <row r="29">
@@ -715,21 +715,21 @@
         <v/>
       </c>
       <c r="B29" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/giovani_stipendi_bassi_italia-423513893/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/15/news/elon_musk_qi_alto_lavorare_gratis_nuovo_dipartimento-423628774/</v>
       </c>
       <c r="C29" t="str">
-        <v>di Giulia D’Aleo</v>
+        <v>di Massimo Basile</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Il lavoro che non paga tra stipendi da fame e contratti precari: centomila giovani via dall’Italia</v>
+        <v>Musk cerca lavoratori con QI alto per il nuovo dipartimento: “Niente paga e 80 ore alla settimana”</v>
       </c>
       <c r="B30" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/giovani_stipendi_bassi_italia-423513893/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/15/news/elon_musk_qi_alto_lavorare_gratis_nuovo_dipartimento-423628774/</v>
       </c>
       <c r="C30" t="str">
-        <v>di Giulia D’Aleo</v>
+        <v>di Massimo Basile</v>
       </c>
     </row>
     <row r="31">
@@ -737,21 +737,21 @@
         <v/>
       </c>
       <c r="B31" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/giovani_con_stipendi_bassi_parla_il_geometra-423513949/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/15/news/nomine_governo_trump_florida-423628505/</v>
       </c>
       <c r="C31" t="str">
-        <v>di Giulia D'Aleo</v>
+        <v>dal nostro corrispondente Paolo Mastrolilli</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Il geometra: “L’ultima proposta è la più indecente: 300 euro al mese e pulizie a fine turno”</v>
+        <v>Libri al macero e negazionismo: il vento della Florida trumpiana ora soffia fino a Washington</v>
       </c>
       <c r="B32" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/giovani_con_stipendi_bassi_parla_il_geometra-423513949/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/15/news/nomine_governo_trump_florida-423628505/</v>
       </c>
       <c r="C32" t="str">
-        <v>di Giulia D'Aleo</v>
+        <v>dal nostro corrispondente Paolo Mastrolilli</v>
       </c>
     </row>
     <row r="33">
@@ -759,21 +759,21 @@
         <v/>
       </c>
       <c r="B33" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/giovani_stipendi_bassi_italia_la_laureata_che_fa_la_cassiera-423513934/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/14/news/robert_kennedy_jr_governo_trump_responsabile_salute-423628648/</v>
       </c>
       <c r="C33" t="str">
-        <v>di Giulia D'Aleo</v>
+        <v>dalla nostra inviata Anna Lombardi</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>La laureata: “Faccio la cassiera ma il contratto scade a fine settembre, poi sarò cacciata”</v>
+        <v>Trump ha scelto il no vax Robert F. Kennedy Jr. come ministro della Salute</v>
       </c>
       <c r="B34" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/giovani_stipendi_bassi_italia_la_laureata_che_fa_la_cassiera-423513934/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/14/news/robert_kennedy_jr_governo_trump_responsabile_salute-423628648/</v>
       </c>
       <c r="C34" t="str">
-        <v>di Giulia D'Aleo</v>
+        <v>dalla nostra inviata Anna Lombardi</v>
       </c>
     </row>
     <row r="35">
@@ -781,21 +781,21 @@
         <v/>
       </c>
       <c r="B35" t="str">
-        <v>https://roma.repubblica.it/cronaca/2024/09/22/news/boccia_sangiuliano_violenza_contro_governo_minacce-423514072/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/14/news/governo_trump_musk_noem_nomine_usa-423624473/</v>
       </c>
       <c r="C35" t="str">
-        <v>di Andrea Ossino, Giuseppe Scarpa</v>
+        <v>di Massimo Basile, dalla nostra inviata Anna Lombardi e dal nostro corrispondente Paolo Mastrolilli. A cura di Stefania Di Lellis e Visual Lab</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>“Violenza contro il Governo”. Dopo la perquisizione in casa, Maria Rosaria Boccia rischia fino a 7 anni di carcere</v>
+        <v>Tutte le nomine del Presidente: le scelte di Trump per la svolta a destra dell’America</v>
       </c>
       <c r="B36" t="str">
-        <v>https://roma.repubblica.it/cronaca/2024/09/22/news/boccia_sangiuliano_violenza_contro_governo_minacce-423514072/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/14/news/governo_trump_musk_noem_nomine_usa-423624473/</v>
       </c>
       <c r="C36" t="str">
-        <v>di Andrea Ossino, Giuseppe Scarpa</v>
+        <v>di Massimo Basile, dalla nostra inviata Anna Lombardi e dal nostro corrispondente Paolo Mastrolilli. A cura di Stefania Di Lellis e Visual Lab</v>
       </c>
     </row>
     <row r="37">
@@ -803,21 +803,21 @@
         <v/>
       </c>
       <c r="B37" t="str">
-        <v>https://roma.repubblica.it/cronaca/2024/09/22/news/maria_rosaria_boccia_sangiuliano_sequestro_imane_khelif-423514514/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/15/news/elon_musk_ambasciatore_iraniano_onu_incontro-423628834/</v>
       </c>
       <c r="C37" t="str">
-        <v>Не найден</v>
+        <v>dal nostro corrispondente Paolo Mastrolilli</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Boccia torna “online” dopo il maxi sequestro. E si paragona a Imane Khelif</v>
+        <v>Musk incontra (a sorpresa) l’ambasciatore iraniano all’Onu: il nuovo ruolo da diplomatico</v>
       </c>
       <c r="B38" t="str">
-        <v>https://roma.repubblica.it/cronaca/2024/09/22/news/maria_rosaria_boccia_sangiuliano_sequestro_imane_khelif-423514514/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/15/news/elon_musk_ambasciatore_iraniano_onu_incontro-423628834/</v>
       </c>
       <c r="C38" t="str">
-        <v>Не найден</v>
+        <v>dal nostro corrispondente Paolo Mastrolilli</v>
       </c>
     </row>
     <row r="39">
@@ -825,21 +825,21 @@
         <v/>
       </c>
       <c r="B39" t="str">
-        <v>https://www.repubblica.it/economia/2024/09/21/news/bonus_tredicesima_requisiti_come_riceverlo-423512665/</v>
+        <v>https://www.repubblica.it/spettacoli/people/2024/11/14/news/eva_longoria_lascia_america_trump-423626755/</v>
       </c>
       <c r="C39" t="str">
-        <v>di    Giuseppe Colombo</v>
+        <v>a cura della redazione Spettacoli</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Bonus tredicesima solo per un milione di lavoratori. Tetto al reddito e non sarà automatico</v>
+        <v>Eva Longoria lascia gli Usa dopo l’elezione di Trump: “L’America sarà un luogo da paura”</v>
       </c>
       <c r="B40" t="str">
-        <v>https://www.repubblica.it/economia/2024/09/21/news/bonus_tredicesima_requisiti_come_riceverlo-423512665/</v>
+        <v>https://www.repubblica.it/spettacoli/people/2024/11/14/news/eva_longoria_lascia_america_trump-423626755/</v>
       </c>
       <c r="C40" t="str">
-        <v>di    Giuseppe Colombo</v>
+        <v>a cura della redazione Spettacoli</v>
       </c>
     </row>
     <row r="41">
@@ -847,370 +847,370 @@
         <v/>
       </c>
       <c r="B41" t="str">
-        <v>https://www.repubblica.it/economia/2024/09/22/news/manovra_finanziaria_2024_pensioni_diligenza-423514096/</v>
+        <v>https://www.repubblica.it/italia/2024/11/15/news/matilde_lorenzi_sciatrice_morta_valgioie-423628591/</v>
       </c>
       <c r="C41" t="str">
-        <v>di     Giuseppe Colombo</v>
+        <v>dal nostro inviato Franco Vanni</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Sci, cavalli e Rinascimento. La destra va all’assalto con gli emendamenti-mancia</v>
+        <v>A casa di Matilde Lorenzi: "Oggi avrebbe compiuto 20 anni. Lei per noi è ancora il sole"</v>
       </c>
       <c r="B42" t="str">
-        <v>https://www.repubblica.it/economia/2024/09/22/news/manovra_finanziaria_2024_pensioni_diligenza-423514096/</v>
+        <v>https://www.repubblica.it/italia/2024/11/15/news/matilde_lorenzi_sciatrice_morta_valgioie-423628591/</v>
       </c>
       <c r="C42" t="str">
-        <v>di     Giuseppe Colombo</v>
+        <v>dal nostro inviato Franco Vanni</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v/>
+        <v>video</v>
       </c>
       <c r="B43" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/22/news/g7_agricoltura_siracusa_lollobrigida_meloni-423514085/</v>
+        <v>https://www.repubblica.it/cronaca/2024/11/15/video/i_genitori_di_matilde_lorenzi_lei_e_ancora_il_nostro_sole_in_suo_nome_lavoriamo_alla_sicurezza_sugli_sci-423629202/?ref=RHRT-BG-P2-S1-T1</v>
       </c>
       <c r="C43" t="str">
-        <v>dal nostro inviato Antonio Fraschilla</v>
+        <v>dal nostro inviato Franco Vanni</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Blitz di Meloni al G7 di Ortigia e Lollobrigida finisce sotto esame</v>
+        <v/>
       </c>
       <c r="B44" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/22/news/g7_agricoltura_siracusa_lollobrigida_meloni-423514085/</v>
+        <v>https://www.repubblica.it/cronaca/2024/11/14/news/fondaco_tedeschi_venezia_chiusura_licenziamenti_dipendenti-423627539/</v>
       </c>
       <c r="C44" t="str">
-        <v>dal nostro inviato Antonio Fraschilla</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v/>
+        <v>Il Fondaco dei Tedeschi chiude: per il mall extralusso rosso da 100 milioni e 226 licenziamenti</v>
       </c>
       <c r="B45" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/22/news/tajani_marina_berlusconi_intervista-423514105/</v>
+        <v>https://www.repubblica.it/cronaca/2024/11/14/news/fondaco_tedeschi_venezia_chiusura_licenziamenti_dipendenti-423627539/</v>
       </c>
       <c r="C45" t="str">
-        <v>dal nostro inviato Tommaso Ciriaco</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Antonio Tajani: “FI è autonoma, con Marina siamo amici, io strumento di nessuno”</v>
+        <v/>
       </c>
       <c r="B46" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/22/news/tajani_marina_berlusconi_intervista-423514105/</v>
+        <v>https://roma.repubblica.it/cronaca/2024/11/15/news/margaret_spada_rinoplastica_morta_inchiesta-423628620/</v>
       </c>
       <c r="C46" t="str">
-        <v>dal nostro inviato Tommaso Ciriaco</v>
+        <v>di Lorenzo d'Albergo e Giuseppe Scarpa</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v/>
+        <v>Margaret Spada morta per la rinoplastica, nei video spuntano altre due persone</v>
       </c>
       <c r="B47" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/22/news/salvini_draghi_debito_unione_europea-423514124/</v>
+        <v>https://roma.repubblica.it/cronaca/2024/11/15/news/margaret_spada_rinoplastica_morta_inchiesta-423628620/</v>
       </c>
       <c r="C47" t="str">
-        <v>di Lorenzo De Cicco</v>
+        <v>di Lorenzo d'Albergo e Giuseppe Scarpa</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>“No al debito comune europeo”: Salvini sfida Draghi e Meloni</v>
+        <v/>
       </c>
       <c r="B48" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/22/news/salvini_draghi_debito_unione_europea-423514124/</v>
+        <v>https://www.repubblica.it/italia/2024/11/15/news/marco_antonio_procopio_medici_centro_roma_morte_agata_spada-423628661/</v>
       </c>
       <c r="C48" t="str">
-        <v>di Lorenzo De Cicco</v>
+        <v>di Viola Giannoli</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v/>
+        <v>Le pazienti dei Procopio: “Mani d’oro, i migliori”. “Io a casa col sangue, tutto fatto al volo”</v>
       </c>
       <c r="B49" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/22/news/rita_dalla_chiesa_padre_andreotti_morte-423514118/</v>
+        <v>https://www.repubblica.it/italia/2024/11/15/news/marco_antonio_procopio_medici_centro_roma_morte_agata_spada-423628661/</v>
       </c>
       <c r="C49" t="str">
-        <v>di Lirio Abbate</v>
+        <v>di Viola Giannoli</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>“So chi è il politico che voleva papà morto”, Rita Dalla Chiesa choc punta il dito su Andreotti</v>
+        <v/>
       </c>
       <c r="B50" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/22/news/rita_dalla_chiesa_padre_andreotti_morte-423514118/</v>
+        <v>https://bari.repubblica.it/cronaca/2024/11/15/news/leporano_uccisa_silvana_la_rocca_73_anni_indagini-423629227/</v>
       </c>
       <c r="C50" t="str">
-        <v>di Lirio Abbate</v>
+        <v>di Pierfrancesco Albanese e Francesco Oliva</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v/>
+        <v>Leporano, uccisa Silvana La Rocca: insegnante in pensione, il marito era morto all’Ilva</v>
       </c>
       <c r="B51" t="str">
-        <v>https://www.repubblica.it/cronaca/2024/09/21/video/lombra_di_andreotti_sulla_morte_di_dalla_chiesa_la_figlia_rita_ucciso_per_un_favore_a_un_politico-423513710/</v>
+        <v>https://bari.repubblica.it/cronaca/2024/11/15/news/leporano_uccisa_silvana_la_rocca_73_anni_indagini-423629227/</v>
       </c>
       <c r="C51" t="str">
-        <v>Не найден</v>
+        <v>di Pierfrancesco Albanese e Francesco Oliva</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Le parole di Rita Dalla Chiesa in tv</v>
+        <v/>
       </c>
       <c r="B52" t="str">
-        <v>https://www.repubblica.it/cronaca/2024/09/21/video/lombra_di_andreotti_sulla_morte_di_dalla_chiesa_la_figlia_rita_ucciso_per_un_favore_a_un_politico-423513710/</v>
+        <v>https://bari.repubblica.it/cronaca/2024/11/15/news/quadro_odio_antisemita_giovanni_gasparro_processo_bari-423628455/</v>
       </c>
       <c r="C52" t="str">
-        <v>Не найден</v>
+        <v>di Benedetta De Falco</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v/>
+        <v>“Il quadro è antisemita, istiga all’odio con un falso storico”: processo blindato per Gasparro</v>
       </c>
       <c r="B53" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/22/news/di_maio_scontro_di_potere_dentro_m5s-423514079/</v>
+        <v>https://bari.repubblica.it/cronaca/2024/11/15/news/quadro_odio_antisemita_giovanni_gasparro_processo_bari-423628455/</v>
       </c>
       <c r="C53" t="str">
-        <v>di Gabriella Cerami</v>
+        <v>di Benedetta De Falco</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>I tormenti grillini visti da Di Maio: “La sfida tra i leader non è politica, ma solo uno scontro di potere”</v>
+        <v/>
       </c>
       <c r="B54" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/22/news/di_maio_scontro_di_potere_dentro_m5s-423514079/</v>
+        <v>https://www.repubblica.it/cronaca/2024/11/14/news/turisti_israeliani_selva_di_cadore-423628657/</v>
       </c>
       <c r="C54" t="str">
-        <v>di Gabriella Cerami</v>
+        <v>di Enrico Ferro</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v/>
+        <v>Hotel rifiuta turisti israeliani. “Qui non siete ospiti graditi”</v>
       </c>
       <c r="B55" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/22/news/costituente_m5s_2024_iscrizioni-423514058/</v>
+        <v>https://www.repubblica.it/cronaca/2024/11/14/news/turisti_israeliani_selva_di_cadore-423628657/</v>
       </c>
       <c r="C55" t="str">
-        <v>Gabriella Cerami</v>
+        <v>di Enrico Ferro</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Grillo e Conte schierano i militanti. “Garante inutile”. “Torniamo alle origini”</v>
+        <v/>
       </c>
       <c r="B56" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/22/news/costituente_m5s_2024_iscrizioni-423514058/</v>
+        <v>https://palermo.repubblica.it/cronaca/2024/11/14/news/larimar_annaloro_suicida_piazza_armerina_aggredito_quindicenne-423623794/</v>
       </c>
       <c r="C56" t="str">
-        <v>Gabriella Cerami</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v/>
+        <v>Larimar, picchiato il 15enne accusato di aver girato il video intimo che l'ha portata al suicidio</v>
       </c>
       <c r="B57" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/mistero_famiglia_di_chiara_neonati_sepolti-423514148/</v>
+        <v>https://palermo.repubblica.it/cronaca/2024/11/14/news/larimar_annaloro_suicida_piazza_armerina_aggredito_quindicenne-423623794/</v>
       </c>
       <c r="C57" t="str">
-        <v>dalle nostre inviate Ilaria Carra e Romina Marceca</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Neonati sepolti, le tracce di sangue lavate e il no al taglio della siepe: le reazioni anomale della famiglia di Chiara</v>
+        <v/>
       </c>
       <c r="B58" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/mistero_famiglia_di_chiara_neonati_sepolti-423514148/</v>
+        <v>https://bari.repubblica.it/cronaca/2024/11/15/news/intercettazione_firma_tu_per_me_se_mi_ritrovo_in_galera_pazienza_asl_bari-423628251/</v>
       </c>
       <c r="C58" t="str">
-        <v>dalle nostre inviate Ilaria Carra e Romina Marceca</v>
+        <v>di Chiara Spagnolo</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v/>
+        <v>La signora delle tangenti e la perizia: “Firma tu per me, se mi ritrovo in galera pazienza”</v>
       </c>
       <c r="B59" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/21/news/giulia_cecchettin_filippo_turetta_interrogatorio-423513048/</v>
+        <v>https://bari.repubblica.it/cronaca/2024/11/15/news/intercettazione_firma_tu_per_me_se_mi_ritrovo_in_galera_pazienza_asl_bari-423628251/</v>
       </c>
       <c r="C59" t="str">
-        <v>di Rosario Di Raimondo</v>
+        <v>di Chiara Spagnolo</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Turetta, confessione senza lacrime: “Lei urlava aiuto e parava i colpi, io continuavo ad accoltellarla”</v>
+        <v/>
       </c>
       <c r="B60" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/21/news/giulia_cecchettin_filippo_turetta_interrogatorio-423513048/</v>
+        <v>https://milano.repubblica.it/cronaca/2024/11/14/news/andrea_beretta_pentito_ultras_curva_inter_boiocchi_omicidio_bellocco-423628515/</v>
       </c>
       <c r="C60" t="str">
-        <v>di Rosario Di Raimondo</v>
+        <v>di Sandro De Riccardis, Massimo Pisa</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v/>
+        <v>Si pente Beretta, il capo ultrà della curva interista in carcere per l’omicidio Bellocco</v>
       </c>
       <c r="B61" t="str">
-        <v>https://www.repubblica.it/cronaca/2024/09/21/news/verona_giallo_alessandra_spiazzi_sparato_al_figlio_suicidata-423513296/</v>
+        <v>https://milano.repubblica.it/cronaca/2024/11/14/news/andrea_beretta_pentito_ultras_curva_inter_boiocchi_omicidio_bellocco-423628515/</v>
       </c>
       <c r="C61" t="str">
-        <v>di Enrico Ferro</v>
+        <v>di Sandro De Riccardis, Massimo Pisa</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Alessandra Spiazzi ha sparato al figlio di 15 anni e si è tolta la vita. Il ragazzo è in condizioni disperate</v>
+        <v/>
       </c>
       <c r="B62" t="str">
-        <v>https://www.repubblica.it/cronaca/2024/09/21/news/verona_giallo_alessandra_spiazzi_sparato_al_figlio_suicidata-423513296/</v>
+        <v>https://firenze.repubblica.it/cronaca/2024/11/15/news/firenze_aggressione_tunisino_arrestato_figlia_stile_vita_occidentale-423628036/</v>
       </c>
       <c r="C62" t="str">
-        <v>di Enrico Ferro</v>
+        <v>di Luca Serranò</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v/>
+        <v>Pugni e calci alla figlia perché il suo stile di vita è troppo “occidentale”</v>
       </c>
       <c r="B63" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/giacomo_gobbato_morto_accoltellamento_mestre_venezia-423514090/</v>
+        <v>https://firenze.repubblica.it/cronaca/2024/11/15/news/firenze_aggressione_tunisino_arrestato_figlia_stile_vita_occidentale-423628036/</v>
       </c>
       <c r="C63" t="str">
-        <v>di Francesco Furlan -</v>
+        <v>di Luca Serranò</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Giacomo Gobbato ucciso per difendere una donna rapinata: la sua morte commuove Mestre</v>
+        <v/>
       </c>
       <c r="B64" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/giacomo_gobbato_morto_accoltellamento_mestre_venezia-423514090/</v>
+        <v>https://www.repubblica.it/spettacoli/people/2024/11/15/news/p_diddy_l_accusa_dell_ex_produttore_abuso_di_justin_bieber_sedicenne-423628577/</v>
       </c>
       <c r="C64" t="str">
-        <v>di Francesco Furlan -</v>
+        <v>di Massimo Basile</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v/>
+        <v>P. Diddy, l’accusa dell’ex produttore: “Abusò di Justin Bieber sedicenne”</v>
       </c>
       <c r="B65" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/news/usa_2024_trump_kamala_harris_silicon_valley-423511387/</v>
+        <v>https://www.repubblica.it/spettacoli/people/2024/11/15/news/p_diddy_l_accusa_dell_ex_produttore_abuso_di_justin_bieber_sedicenne-423628577/</v>
       </c>
       <c r="C65" t="str">
-        <v>di Carlo Bonini (coordinamento editoriale), Gianni Riotta. Coordinamento multimediale Laura Pertici. Produzione Gedi Visual</v>
+        <v>di Massimo Basile</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Una nuova generazione di imprenditori digitali capitanata da Musk predica il superamento della democrazia. E, nell’attesa, si mette al servizio di Donald Trump</v>
+        <v/>
       </c>
       <c r="B66" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/news/usa_2024_trump_kamala_harris_silicon_valley-423511387/</v>
+        <v>https://www.repubblica.it/politica/2024/11/15/news/musk_giudici_migranti_meloni_mattarella_atreju-423628676/</v>
       </c>
       <c r="C66" t="str">
-        <v>di Carlo Bonini (coordinamento editoriale), Gianni Riotta. Coordinamento multimediale Laura Pertici. Produzione Gedi Visual</v>
+        <v>di Tommaso Ciriaco</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v/>
+        <v>La frenata di Musk dopo gli attacchi: “Non volevo ledere la vostra sovranità”</v>
       </c>
       <c r="B67" t="str">
-        <v>https://www.repubblica.it/spettacoli/2024/09/21/news/morta_paola_marella_conduttrice_tv_architetto_e_star_di_real_time-423514121/</v>
+        <v>https://www.repubblica.it/politica/2024/11/15/news/musk_giudici_migranti_meloni_mattarella_atreju-423628676/</v>
       </c>
       <c r="C67" t="str">
-        <v>a cura della redazione Spettacoli</v>
+        <v>di Tommaso Ciriaco</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>È morta Paola Marella, conduttrice tv, architetta e star di Real Time</v>
+        <v/>
       </c>
       <c r="B68" t="str">
-        <v>https://www.repubblica.it/spettacoli/2024/09/21/news/morta_paola_marella_conduttrice_tv_architetto_e_star_di_real_time-423514121/</v>
+        <v>https://www.repubblica.it/politica/2024/11/15/news/jim_waterson_intervista_fuga_x_social_musk-423628665/</v>
       </c>
       <c r="C68" t="str">
-        <v>a cura della redazione Spettacoli</v>
+        <v>dal nostro corrispondente Antonello Guerrera</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v/>
+        <v>L’esperto di social media: “Bene i giornali fuori da X, ormai è solo odio e violenza”</v>
       </c>
       <c r="B69" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/news/elezioni_germania_brandeburgo_manifestazione_potsdam-423513974/</v>
+        <v>https://www.repubblica.it/politica/2024/11/15/news/jim_waterson_intervista_fuga_x_social_musk-423628665/</v>
       </c>
       <c r="C69" t="str">
-        <v>dalla nostra corrispondente Tonia Mastrobuoni</v>
+        <v>dal nostro corrispondente Antonello Guerrera</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Scholz, il bivio Brandeburgo e le voci sull’emissario a Mosca per sondare i russi</v>
+        <v/>
       </c>
       <c r="B70" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/news/elezioni_germania_brandeburgo_manifestazione_potsdam-423513974/</v>
+        <v>https://www.repubblica.it/vaticano/2024/11/14/news/mariana_mazzucato_economista_incontro_papa_lasciare_x_mi_farebbe_sentire_meglio_ma_non_risolve_gli_squilibri_dei_social-423628538/</v>
       </c>
       <c r="C70" t="str">
-        <v>dalla nostra corrispondente Tonia Mastrobuoni</v>
+        <v>di Iacopo Scaramuzzi</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v/>
+        <v>Mazzucato: “Lasciare X mi farebbe sentire meglio ma non risolve gli squilibri”</v>
       </c>
       <c r="B71" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/news/attacco_ucraina_depositi_russia_piano_zelensky-423513833/</v>
+        <v>https://www.repubblica.it/vaticano/2024/11/14/news/mariana_mazzucato_economista_incontro_papa_lasciare_x_mi_farebbe_sentire_meglio_ma_non_risolve_gli_squilibri_dei_social-423628538/</v>
       </c>
       <c r="C71" t="str">
-        <v>dal nostro corrispondente Paolo Mastrolilli</v>
+        <v>di Iacopo Scaramuzzi</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Zelensky spinge gli Usa: “Se colpiamo la Russia, Putin tratterà la pace”</v>
+        <v/>
       </c>
       <c r="B72" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/news/attacco_ucraina_depositi_russia_piano_zelensky-423513833/</v>
+        <v>https://www.repubblica.it/rubriche/l-amaca/2024/11/14/news/l_amaca_del_15_novembre_2024-423627801/</v>
       </c>
       <c r="C72" t="str">
-        <v>dal nostro corrispondente Paolo Mastrolilli</v>
+        <v>di Michele Serra</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v/>
+        <v>Se la realtà abita altrove</v>
       </c>
       <c r="B73" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/diretta/guerra_ucraina_russia_news_oggi-423514173/</v>
+        <v>https://www.repubblica.it/rubriche/l-amaca/2024/11/14/news/l_amaca_del_15_novembre_2024-423627801/</v>
       </c>
       <c r="C73" t="str">
-        <v>Не найден</v>
+        <v>di Michele Serra</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Governatore di Belgorod: attacco ucraino a tre nostri insediamenti</v>
+        <v/>
       </c>
       <c r="B74" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/diretta/guerra_ucraina_russia_news_oggi-423514173/</v>
+        <v>https://www.repubblica.it/politica/2024/11/15/news/m5s_quesito_beppe_grillo_assemblea_costituente_eliminare_garante-423628776/</v>
       </c>
       <c r="C74" t="str">
         <v>Не найден</v>
@@ -1218,109 +1218,109 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v/>
+        <v>M5S, svelati i quesiti anti-Grillo: così gli iscritti potrebbero dargli il benservito</v>
       </c>
       <c r="B75" t="str">
-        <v>https://www.repubblica.it/venerdi/2024/09/22/news/ornella_vanoni_compie_90_anni_l_intervista_di_natalia_aspesi-423511517/</v>
+        <v>https://www.repubblica.it/politica/2024/11/15/news/m5s_quesito_beppe_grillo_assemblea_costituente_eliminare_garante-423628776/</v>
       </c>
       <c r="C75" t="str">
-        <v>di Natalia Aspesi</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Un pomeriggio sul divano Aspesi e Vanoni: “E il tuo funerale come lo vorresti?”</v>
+        <v/>
       </c>
       <c r="B76" t="str">
-        <v>https://www.repubblica.it/venerdi/2024/09/22/news/ornella_vanoni_compie_90_anni_l_intervista_di_natalia_aspesi-423511517/</v>
+        <v>https://www.repubblica.it/politica/2024/11/14/news/meloni_comizio_chiusura_regionali_umbria-423628709/</v>
       </c>
       <c r="C76" t="str">
-        <v>di Natalia Aspesi</v>
+        <v>dal nostro inviato Lorenzo De Cicco</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v/>
+        <v>Meloni e Schlein, stoccate dall’Umbria. “Tifi contro gli italiani”, “Copri i tuoi disastri”</v>
       </c>
       <c r="B77" t="str">
-        <v>https://www.repubblica.it/spettacoli/musica/2024/09/22/news/ornella_vanoni_90_anni_compleanno_elodie_ditonellapiaga-423514442/</v>
+        <v>https://www.repubblica.it/politica/2024/11/14/news/meloni_comizio_chiusura_regionali_umbria-423628709/</v>
       </c>
       <c r="C77" t="str">
-        <v>a cura della redazione Spettacoli</v>
+        <v>dal nostro inviato Lorenzo De Cicco</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Ornella Vanoni per i 90 anni si regala ‘Ti voglio’ con Elodie e Ditonellapiaga</v>
+        <v/>
       </c>
       <c r="B78" t="str">
-        <v>https://www.repubblica.it/spettacoli/musica/2024/09/22/news/ornella_vanoni_90_anni_compleanno_elodie_ditonellapiaga-423514442/</v>
+        <v>https://bologna.repubblica.it/cronaca/2024/11/15/news/michele_de_pascale_candidato_elezioni_emilia-romagna_centrosinistra-423628845/</v>
       </c>
       <c r="C78" t="str">
-        <v>a cura della redazione Spettacoli</v>
+        <v>di Silvia Bignami</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v/>
+        <v>Michele de Pascale, il sindaco che ha saputo “legare la sabbia” e tenere unito il centrosinistra</v>
       </c>
       <c r="B79" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/21/news/governo_barnier_francia_nomi-423514041/</v>
+        <v>https://bologna.repubblica.it/cronaca/2024/11/15/news/michele_de_pascale_candidato_elezioni_emilia-romagna_centrosinistra-423628845/</v>
       </c>
       <c r="C79" t="str">
-        <v>dalla nostra corrispondente Anais Ginori</v>
+        <v>di Silvia Bignami</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Presentato il governo Barnier, dopo lo stallo Macron sbanda a destra: esclusi i ministri ostili a Le Pen</v>
+        <v/>
       </c>
       <c r="B80" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/21/news/governo_barnier_francia_nomi-423514041/</v>
+        <v>https://bologna.repubblica.it/cronaca/2024/11/15/news/elena_ugolini_candidata_elezioni_emilia_romagna_centrodestra-423628864/</v>
       </c>
       <c r="C80" t="str">
-        <v>dalla nostra corrispondente Anais Ginori</v>
+        <v>di Eleonora Capelli</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v/>
+        <v>Elena Ugolini, da direttrice del Malpighi a candidata civica del centrodestra</v>
       </c>
       <c r="B81" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/news/tondelier_governo_barnier_francia-423513862/</v>
+        <v>https://bologna.repubblica.it/cronaca/2024/11/15/news/elena_ugolini_candidata_elezioni_emilia_romagna_centrodestra-423628864/</v>
       </c>
       <c r="C81" t="str">
-        <v>dalla nostra corrispondente Anais Ginori</v>
+        <v>di Eleonora Capelli</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Tondelier: “L’esecutivo resterà in carica pochi mesi e Macron dovrà dimettersi”</v>
+        <v/>
       </c>
       <c r="B82" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/news/tondelier_governo_barnier_francia-423513862/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/15/news/ucraina_atomica_putin_nato-423628985/</v>
       </c>
       <c r="C82" t="str">
-        <v>dalla nostra corrispondente Anais Ginori</v>
+        <v>di Gianluca Di Feo</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v/>
+        <v>Il rapporto del think tank: “L’Ucraina a pochi mesi dalla costruzione di un’arma atomica”</v>
       </c>
       <c r="B83" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/news/alabama_sparatoria_morti_feriti_news-423514532/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/15/news/ucraina_atomica_putin_nato-423628985/</v>
       </c>
       <c r="C83" t="str">
-        <v>a cura della redazione Esteri</v>
+        <v>di Gianluca Di Feo</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Spari contro la folla in Alabama: 4 morti e decine feriti</v>
+        <v/>
       </c>
       <c r="B84" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/news/alabama_sparatoria_morti_feriti_news-423514532/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/15/diretta/guerra_ucraina_russia_news_oggi-423628782/</v>
       </c>
       <c r="C84" t="str">
         <v>a cura della redazione Esteri</v>
@@ -1328,222 +1328,222 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v/>
+        <v>Diretta Attacco con droni a Odessa, morta una donna</v>
       </c>
       <c r="B85" t="str">
-        <v>https://torino.repubblica.it/cronaca/2024/09/22/news/il_gip_sequestro_agli_elkann_c_e_una_strategia_sull_eredita_verso_la_battaglia_al_riesam-423514199/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/15/diretta/guerra_ucraina_russia_news_oggi-423628782/</v>
       </c>
       <c r="C85" t="str">
-        <v>di Sarah Martinenghi</v>
+        <v>a cura della redazione Esteri</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Il gip: “Sequestro agli Elkann c’è una strategia sull’eredità”. Verso la battaglia al Riesame</v>
+        <v/>
       </c>
       <c r="B86" t="str">
-        <v>https://torino.repubblica.it/cronaca/2024/09/22/news/il_gip_sequestro_agli_elkann_c_e_una_strategia_sull_eredita_verso_la_battaglia_al_riesam-423514199/</v>
+        <v>https://www.repubblica.it/politica/2024/11/15/news/maggioranza_ursula_ppe_patrioti_ecr_legge_deforestazione-423628691/</v>
       </c>
       <c r="C86" t="str">
-        <v>di Sarah Martinenghi</v>
+        <v>dal nostro corrispondente Claudio Tito</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v/>
+        <v>L’alleanza di von der Leyen perde ancora pezzi. Il Ppe vota con le destre</v>
       </c>
       <c r="B87" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/mantenimento_figli_maggiorenni_genitori-423513772/</v>
+        <v>https://www.repubblica.it/politica/2024/11/15/news/maggioranza_ursula_ppe_patrioti_ecr_legge_deforestazione-423628691/</v>
       </c>
       <c r="C87" t="str">
-        <v>di Liana Milella</v>
+        <v>dal nostro corrispondente Claudio Tito</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Genitori contro bamboccioni, l’ultima guerra tra generazioni: “Non si può mantenerli a vita”</v>
+        <v/>
       </c>
       <c r="B88" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/mantenimento_figli_maggiorenni_genitori-423513772/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/15/news/cisgiordania_nnessione_colonie_tentazione-423628573/</v>
       </c>
       <c r="C88" t="str">
-        <v>di Liana Milella</v>
+        <v>dalla nostra inviata Francesca Caferri</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v/>
+        <v>Tra i coloni in Cisgiordania che ora sognano l’annessione: “Questa terra sarà di Israele”</v>
       </c>
       <c r="B89" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/monica_velletti_giudice_intervista-423513779/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/15/news/cisgiordania_nnessione_colonie_tentazione-423628573/</v>
       </c>
       <c r="C89" t="str">
-        <v>di Liana Milella</v>
+        <v>dalla nostra inviata Francesca Caferri</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>La giudice Velletti: “Aiutiamo questi ragazzi a dimostrare il loro impegno”</v>
+        <v/>
       </c>
       <c r="B90" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/monica_velletti_giudice_intervista-423513779/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/15/diretta/guerra_israele_hamas_notizie_oggi-423628771/</v>
       </c>
       <c r="C90" t="str">
-        <v>di Liana Milella</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v/>
+        <v>Diretta Raid israeliano nell’est del Libano, 12 morti. Cinque sono soccorritori</v>
       </c>
       <c r="B91" t="str">
-        <v>https://www.repubblica.it/sport/calcio/serie-a/2024/09/22/news/derby_inter_milan_fonseca_inzaghi-423514009/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/15/diretta/guerra_israele_hamas_notizie_oggi-423628771/</v>
       </c>
       <c r="C91" t="str">
-        <v>di Enrico Currò</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Un derby con la fifa del Diavolo: Inter-Milan decisiva per Fonseca</v>
+        <v/>
       </c>
       <c r="B92" t="str">
-        <v>https://www.repubblica.it/sport/calcio/serie-a/2024/09/22/news/derby_inter_milan_fonseca_inzaghi-423514009/</v>
+        <v>https://www.repubblica.it/cultura/2024/11/14/news/misterioso_collier_venduto_per_48_milioni_di_dollari_contiene_i_diamanti_di_maria_antonietta-423625001/</v>
       </c>
       <c r="C92" t="str">
-        <v>di Enrico Currò</v>
+        <v>a cura della redazione Cultura</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v/>
+        <v>Misterioso collier venduto per 4,8 milioni di dollari: contiene i diamanti di Maria Antonietta?</v>
       </c>
       <c r="B93" t="str">
-        <v>https://www.repubblica.it/sport/calcio/serie-a/inter/2024/09/22/news/inter_milan_derby_toldo_portiere-423513895/</v>
+        <v>https://www.repubblica.it/cultura/2024/11/14/news/misterioso_collier_venduto_per_48_milioni_di_dollari_contiene_i_diamanti_di_maria_antonietta-423625001/</v>
       </c>
       <c r="C93" t="str">
-        <v>di Franco Vanni</v>
+        <v>a cura della redazione Cultura</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Toldo: “Sommer dà sicurezza, Maignan super in uscita ma la difesa non lo aiuta”</v>
+        <v/>
       </c>
       <c r="B94" t="str">
-        <v>https://www.repubblica.it/sport/calcio/serie-a/inter/2024/09/22/news/inter_milan_derby_toldo_portiere-423513895/</v>
+        <v>https://www.repubblica.it/italia/2024/11/15/news/previsioni_meteo_gelo_freddo_weekend-423628682/</v>
       </c>
       <c r="C94" t="str">
-        <v>di Franco Vanni</v>
+        <v>a cura di ilmeteo.it</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v/>
+        <v>Gelo sull’Italia: crollano le temperature. Weekend più mite e soleggiato</v>
       </c>
       <c r="B95" t="str">
-        <v>https://www.repubblica.it/sport/calcio/serie-a/2024/09/21/news/juventus-napoli_pagelle_yildiz_lukaku-423514044/</v>
+        <v>https://www.repubblica.it/italia/2024/11/15/news/previsioni_meteo_gelo_freddo_weekend-423628682/</v>
       </c>
       <c r="C95" t="str">
-        <v>di Marco Azzi</v>
+        <v>a cura di ilmeteo.it</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Juventus-Napoli, le pagelle: Yildiz non punge, Lukaku annullato |</v>
+        <v/>
       </c>
       <c r="B96" t="str">
-        <v>https://www.repubblica.it/sport/calcio/serie-a/2024/09/21/news/juventus-napoli_pagelle_yildiz_lukaku-423514044/</v>
+        <v>https://www.repubblica.it/viaggi/2024/11/15/news/mercatini_natale_2024_italia-423625676/</v>
       </c>
       <c r="C96" t="str">
-        <v>di Marco Azzi</v>
+        <v>di Sara Ficocelli</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>La partita Terzo 0-0 di fila per i bianconeri</v>
+        <v>Mercatini di Natale: quali sono i più curiosi e meno conosciuti d’Italia</v>
       </c>
       <c r="B97" t="str">
-        <v>https://www.repubblica.it/sport/calcio/serie-a/2024/09/21/news/juventus_napoli_gol-423513870/?ref=RHLF-BG-P21-S3-T1</v>
+        <v>https://www.repubblica.it/viaggi/2024/11/15/news/mercatini_natale_2024_italia-423625676/</v>
       </c>
       <c r="C97" t="str">
-        <v>di Marco Azzi</v>
+        <v>di Sara Ficocelli</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Lecce-Parma 2-2</v>
+        <v/>
       </c>
       <c r="B98" t="str">
-        <v>https://www.repubblica.it/sport/calcio/serie-a/2024/09/21/news/lecce-parma_gol-423514109/</v>
+        <v>https://www.repubblica.it/spettacoli/tv-radio/2024/11/15/news/x_factor_eliminati_quarto_live-423629121/</v>
       </c>
       <c r="C98" t="str">
-        <v>di Marco Azzi</v>
+        <v>a cura della redazione Spettacoli</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Venezia-Genoa 2-0</v>
+        <v>X-Factor, il quarto live è infernale: ecco i due eliminati dal talent</v>
       </c>
       <c r="B99" t="str">
-        <v>https://www.repubblica.it/sport/dirette/calcio/serie-a-2024/diretta-venezia-genoa-g2456153/</v>
+        <v>https://www.repubblica.it/spettacoli/tv-radio/2024/11/15/news/x_factor_eliminati_quarto_live-423629121/</v>
       </c>
       <c r="C99" t="str">
-        <v>di Marco Azzi</v>
+        <v>a cura della redazione Spettacoli</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>La classifica</v>
+        <v/>
       </c>
       <c r="B100" t="str">
-        <v>https://www.repubblica.it/sport/dirette/calcio/serie-a-2024/classifica/</v>
+        <v>https://www.repubblica.it/sport/calcio/nazionale/2024/11/14/news/pagelle_belgio_italia-423628675</v>
       </c>
       <c r="C100" t="str">
-        <v>di Marco Azzi</v>
+        <v>dai nostri inviati Enrico Currò e Marco Azzi</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v/>
+        <v>Le pagelle di Belgio-Italia Buongiorno insuperabile, Tonali allenatore |</v>
       </c>
       <c r="B101" t="str">
-        <v>https://roma.repubblica.it/cronaca/2024/09/21/news/lina_souloukou_tutela_polizia_esonero_de_rossi-423513800/</v>
+        <v>https://www.repubblica.it/sport/calcio/nazionale/2024/11/14/news/pagelle_belgio_italia-423628675</v>
       </c>
       <c r="C101" t="str">
-        <v>Не найден</v>
+        <v>dai nostri inviati Enrico Currò e Marco Azzi</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Roma, la Ceo Lina Souloukou sotto tutela delle forze dell’ordine dopo l’esonero di De Rossi</v>
+        <v>La partita</v>
       </c>
       <c r="B102" t="str">
-        <v>https://roma.repubblica.it/cronaca/2024/09/21/news/lina_souloukou_tutela_polizia_esonero_de_rossi-423513800/</v>
+        <v>https://www.repubblica.it/sport/calcio/nazionale/2024/11/14/news/belgio_italia_gol-423628687</v>
       </c>
       <c r="C102" t="str">
-        <v>Не найден</v>
+        <v>dai nostri inviati Enrico Currò e Marco Azzi</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v/>
+        <v>|</v>
       </c>
       <c r="B103" t="str">
-        <v>https://www.repubblica.it/dossier/sport/i-pugni-in-tasca/2024/09/22/news/joshua_dubois_risultato_boxe-423514158/</v>
+        <v>https://www.repubblica.it/sport/calcio/nazionale/2024/11/14/news/pagelle_belgio_italia-423628675</v>
       </c>
       <c r="C103" t="str">
-        <v>di Luigi Panella</v>
+        <v>dai nostri inviati Enrico Currò e Marco Azzi</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Joshua, è finita: Dubois gli infligge un drammatico ko davanti ai 96.000 di Wembley</v>
+        <v>Classifica</v>
       </c>
       <c r="B104" t="str">
-        <v>https://www.repubblica.it/dossier/sport/i-pugni-in-tasca/2024/09/22/news/joshua_dubois_risultato_boxe-423514158/</v>
+        <v>https://www.repubblica.it/sport/dirette/calcio/uefa-nations-league-2024/classifica/</v>
       </c>
       <c r="C104" t="str">
-        <v>di Luigi Panella</v>
+        <v>dai nostri inviati Enrico Currò e Marco Azzi</v>
       </c>
     </row>
     <row r="105">
@@ -1551,43 +1551,43 @@
         <v/>
       </c>
       <c r="B105" t="str">
-        <v>https://www.repubblica.it/sport/formulauno/2024/09/22/news/leclerc_quinta_fila_gp_singapore_2024-423514447/</v>
+        <v>https://roma.repubblica.it/cronaca/2024/11/15/news/ranieri_roma_allenamento_pellegrini_hummels_cristante-423629002/</v>
       </c>
       <c r="C105" t="str">
-        <v>di Giuseppe Antonio Perrelli</v>
+        <v>di Marco Juric</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Leclerc in quinta fila nel Gp di Singapore, ecco cosa lo ha tradito nelle qualifiche |</v>
+        <v>Claudio Ranieri torna a Trigoria (in mocassini) e riabbraccia i senatori. “Resterà come dirigente”</v>
       </c>
       <c r="B106" t="str">
-        <v>https://www.repubblica.it/sport/formulauno/2024/09/22/news/leclerc_quinta_fila_gp_singapore_2024-423514447/</v>
+        <v>https://roma.repubblica.it/cronaca/2024/11/15/news/ranieri_roma_allenamento_pellegrini_hummels_cristante-423629002/</v>
       </c>
       <c r="C106" t="str">
-        <v>di Giuseppe Antonio Perrelli</v>
+        <v>di Marco Juric</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>La gara alle 14, dove vederla in tv</v>
+        <v/>
       </c>
       <c r="B107" t="str">
-        <v>https://www.repubblica.it/sport/formulauno/2024/09/22/news/f_gp_di_singapore_dove_vedere_tv-423513692/?ref=drla-2</v>
+        <v>https://www.repubblica.it/dossier/sport/i-pugni-in-tasca/2024/11/15/news/tyson_paul_orario_incontro_oggi-423629158/</v>
       </c>
       <c r="C107" t="str">
-        <v>di Giuseppe Antonio Perrelli</v>
+        <v>di Luigi Panella</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>La griglia di partenza</v>
+        <v>Tyson, stanotte il match con Paul tra schiaffi e minacce: “Lo massacrerò”</v>
       </c>
       <c r="B108" t="str">
-        <v>https://www.repubblica.it/sport/formulauno/2024/09/21/news/f1_gp_singapore_2024_griglia_partenza_ferrari-423513662/</v>
+        <v>https://www.repubblica.it/dossier/sport/i-pugni-in-tasca/2024/11/15/news/tyson_paul_orario_incontro_oggi-423629158/</v>
       </c>
       <c r="C108" t="str">
-        <v>di Giuseppe Antonio Perrelli</v>
+        <v>di Luigi Panella</v>
       </c>
     </row>
     <row r="109">
@@ -1595,32 +1595,32 @@
         <v/>
       </c>
       <c r="B109" t="str">
-        <v>https://www.repubblica.it/sport/moto-gp/2024/09/22/news/bagnaia_marquez_misano_motogp-423513925/</v>
+        <v>https://www.repubblica.it/sport/tennis/2024/11/14/news/sinner_medvedev_partita_stasera-423628722/</v>
       </c>
       <c r="C109" t="str">
-        <v>dal nostro inviato Massimo Calandri</v>
+        <v>di Carlo Annovazzi</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Bagnaia, le vittorie e l’arrivo di Marquez. Dall’Igna: “Marc l’ho voluto io. Scelgo i due migliori”</v>
+        <v>Sinner in semifinale da padrone alle Atp Finals: “Alzerò ancora il livello”</v>
       </c>
       <c r="B110" t="str">
-        <v>https://www.repubblica.it/sport/moto-gp/2024/09/22/news/bagnaia_marquez_misano_motogp-423513925/</v>
+        <v>https://www.repubblica.it/sport/tennis/2024/11/14/news/sinner_medvedev_partita_stasera-423628722/</v>
       </c>
       <c r="C110" t="str">
-        <v>dal nostro inviato Massimo Calandri</v>
+        <v>di Carlo Annovazzi</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Gp Emilia-Romagna, dove vederlo in tv</v>
+        <v>Il presente senza ansie nella versione di Sinner di Claudio Giua</v>
       </c>
       <c r="B111" t="str">
-        <v>https://www.repubblica.it/sport/moto-gp/2024/09/20/news/motogp_gp_emilia_romagna_2024_orari_dove_vedere_tv-423509959/</v>
+        <v>https://www.repubblica.it/rubriche/monday-s-net/2024/11/14/news/atp_finals_sinner_vittoria_contro_medvedev-423628629/</v>
       </c>
       <c r="C111" t="str">
-        <v>dal nostro inviato Massimo Calandri</v>
+        <v>di Carlo Annovazzi</v>
       </c>
     </row>
     <row r="112">
@@ -1628,21 +1628,21 @@
         <v/>
       </c>
       <c r="B112" t="str">
-        <v>https://www.repubblica.it/moda-e-beauty/2024/09/22/news/infedeli_storie_vere_tradimento_luigi_tradito_complicita_suocera-423505300/</v>
+        <v>https://www.repubblica.it/sport/tennis/2024/11/15/news/alcaraz_zverev_bolelli_vavassori_atp_finals_programma_partite_oggi-423628942/</v>
       </c>
       <c r="C112" t="str">
-        <v>di Veronica Mazza</v>
+        <v>di Jacopo Manfredi</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Infedeli: “La mia compagna mi ha tradito con l’ex marito. Sua madre le reggeva il gioco”</v>
+        <v>Sinner attende il suo avversario. Bolelli e Vavassori per la semifinale. Dove vedere le gare in tv</v>
       </c>
       <c r="B113" t="str">
-        <v>https://www.repubblica.it/moda-e-beauty/2024/09/22/news/infedeli_storie_vere_tradimento_luigi_tradito_complicita_suocera-423505300/</v>
+        <v>https://www.repubblica.it/sport/tennis/2024/11/15/news/alcaraz_zverev_bolelli_vavassori_atp_finals_programma_partite_oggi-423628942/</v>
       </c>
       <c r="C113" t="str">
-        <v>di Veronica Mazza</v>
+        <v>di Jacopo Manfredi</v>
       </c>
     </row>
     <row r="114">
@@ -1650,21 +1650,21 @@
         <v/>
       </c>
       <c r="B114" t="str">
-        <v>https://roma.repubblica.it/cronaca/2024/09/22/news/a_casa_di_simone_cristicchi-423514528/</v>
+        <v>https://www.repubblica.it/economia/2024/11/12/news/export_dazi_evento_affari_finanza-423611789/</v>
       </c>
       <c r="C114" t="str">
-        <v>di Vania Colasanti</v>
+        <v>di Filippo Santelli</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>A casa di Simone Cristicchi: “La mia radice di vita tra il casale e una grotta. Qui per incantesimo nascono canzoni”</v>
+        <v>Innovazione e Asia: le sfide dell’export nell’era dei dazi</v>
       </c>
       <c r="B115" t="str">
-        <v>https://roma.repubblica.it/cronaca/2024/09/22/news/a_casa_di_simone_cristicchi-423514528/</v>
+        <v>https://www.repubblica.it/economia/2024/11/12/news/export_dazi_evento_affari_finanza-423611789/</v>
       </c>
       <c r="C115" t="str">
-        <v>di Vania Colasanti</v>
+        <v>di Filippo Santelli</v>
       </c>
     </row>
     <row r="116">
@@ -1672,21 +1672,21 @@
         <v/>
       </c>
       <c r="B116" t="str">
-        <v>https://www.repubblica.it/economia/finanza/2024/09/21/news/taglio_tassi_fed_bce_dollaro_yen_sterline_investimento_valute-423513292/</v>
+        <v>https://www.repubblica.it/economia/diritti-e-consumi/2024/11/14/news/telemarketing_stop_chiamate_estero-423624084/</v>
       </c>
       <c r="C116" t="str">
-        <v>Не найден</v>
+        <v>di Alessandro Longo</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Dollaro, yen o sterline? Come investire nelle valute dopo il taglio dei tassi di Fed e Bce</v>
+        <v>Telemarketing, stop alle chiamate fasulle dall’estero. Arriva l’obbligo per gli operatori</v>
       </c>
       <c r="B117" t="str">
-        <v>https://www.repubblica.it/economia/finanza/2024/09/21/news/taglio_tassi_fed_bce_dollaro_yen_sterline_investimento_valute-423513292/</v>
+        <v>https://www.repubblica.it/economia/diritti-e-consumi/2024/11/14/news/telemarketing_stop_chiamate_estero-423624084/</v>
       </c>
       <c r="C117" t="str">
-        <v>Не найден</v>
+        <v>di Alessandro Longo</v>
       </c>
     </row>
     <row r="118">
@@ -1694,21 +1694,21 @@
         <v/>
       </c>
       <c r="B118" t="str">
-        <v>https://www.repubblica.it/economia/diritti-e-consumi/diritti-consumatori/2024/09/21/news/operatore_mobile_sim_gratis-423513426/</v>
+        <v>https://www.repubblica.it/economia/2024/11/14/news/antitrust_ryanair_rimborso_check_in_aeroporto-423622035/</v>
       </c>
       <c r="C118" t="str">
-        <v>di Alessandro Longo</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Cambiare operatore mobile gratis, ora è possibile: tutti i vantaggi</v>
+        <v>Antitrust, Ryanair rimborserà i costi extra del check-in aeroporto: 55 euro di indennizzo</v>
       </c>
       <c r="B119" t="str">
-        <v>https://www.repubblica.it/economia/diritti-e-consumi/diritti-consumatori/2024/09/21/news/operatore_mobile_sim_gratis-423513426/</v>
+        <v>https://www.repubblica.it/economia/2024/11/14/news/antitrust_ryanair_rimborso_check_in_aeroporto-423622035/</v>
       </c>
       <c r="C119" t="str">
-        <v>di Alessandro Longo</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="120">
@@ -1716,21 +1716,21 @@
         <v/>
       </c>
       <c r="B120" t="str">
-        <v>https://www.repubblica.it/economia/2024/09/21/news/le_aziende_delle_liberta_dove_ognuno_fa_come_gli_pare-423513481/</v>
+        <v>https://www.repubblica.it/economia/2024/11/14/news/frontalieri_calo_svizzera_italia-423623714/</v>
       </c>
       <c r="C120" t="str">
-        <v>di Irene Maria Scalise</v>
+        <v>di Franco Zantonelli</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Le aziende delle libertà, dove ognuno fa come gli pare</v>
+        <v>Frontalieri, cala il flusso dall’Italia alla Svizzera. Pesa l’accordo tra Roma e Berna</v>
       </c>
       <c r="B121" t="str">
-        <v>https://www.repubblica.it/economia/2024/09/21/news/le_aziende_delle_liberta_dove_ognuno_fa_come_gli_pare-423513481/</v>
+        <v>https://www.repubblica.it/economia/2024/11/14/news/frontalieri_calo_svizzera_italia-423623714/</v>
       </c>
       <c r="C121" t="str">
-        <v>di Irene Maria Scalise</v>
+        <v>di Franco Zantonelli</v>
       </c>
     </row>
     <row r="122">
@@ -1738,21 +1738,21 @@
         <v/>
       </c>
       <c r="B122" t="str">
-        <v>https://roma.repubblica.it/cronaca/2024/09/20/news/mastroianni_100_la_normalita_di_un_divo_nel_libro_di_repubblica_il_racconto_di_una_vita-423510904/</v>
+        <v>https://www.repubblica.it/green-and-blue/dossier/cop29/2024/11/15/news/bufale_clima_appello_scienziati_fake_news-423626719/</v>
       </c>
       <c r="C122" t="str">
-        <v>di Ottavio Ragone</v>
+        <v>di Giacomo Talignani</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>“Mastroianni 100”, la normalità di un divo. Nel libro di Repubblica il racconto di una vita</v>
+        <v>Cop29, l'appello degli scienziati ai governi: "Basta con le bufale sul clima nei social network"</v>
       </c>
       <c r="B123" t="str">
-        <v>https://roma.repubblica.it/cronaca/2024/09/20/news/mastroianni_100_la_normalita_di_un_divo_nel_libro_di_repubblica_il_racconto_di_una_vita-423510904/</v>
+        <v>https://www.repubblica.it/green-and-blue/dossier/cop29/2024/11/15/news/bufale_clima_appello_scienziati_fake_news-423626719/</v>
       </c>
       <c r="C123" t="str">
-        <v>di Ottavio Ragone</v>
+        <v>di Giacomo Talignani</v>
       </c>
     </row>
     <row r="124">
@@ -1760,164 +1760,164 @@
         <v/>
       </c>
       <c r="B124" t="str">
-        <v>https://roma.repubblica.it/cronaca/2024/09/20/news/marcello_mastroianni_mi_ricordo_libro_repubblica-423512108/</v>
+        <v>https://www.repubblica.it/green-and-blue/dossier/cop29/2024/11/14/news/baku_proteste_attivisti_clima_cibo_vegan-423625016/</v>
       </c>
       <c r="C124" t="str">
-        <v>Не найден</v>
+        <v>di Giacomo Talignani</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Lunedì l'evento speciale con il doc “Marcello Mastroianni – Mi ricordo, sì, io mi ricordo”. Martedì la presentazione del libro con Molinari e gli autori</v>
+        <v>Pochi attivisti e cibo troppo caro a Baku</v>
       </c>
       <c r="B125" t="str">
-        <v>https://roma.repubblica.it/cronaca/2024/09/20/news/marcello_mastroianni_mi_ricordo_libro_repubblica-423512108/</v>
+        <v>https://www.repubblica.it/green-and-blue/dossier/cop29/2024/11/14/news/baku_proteste_attivisti_clima_cibo_vegan-423625016/</v>
       </c>
       <c r="C125" t="str">
-        <v>Не найден</v>
+        <v>di Giacomo Talignani</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v/>
+        <v>Milei ritira la delegazione argentina. E gli economisti chiedono più soldi per i paesi poveri</v>
       </c>
       <c r="B126" t="str">
-        <v>https://www.repubblica.it/tecnologia/dossier/italian-tech-week-2024/2024/09/12/news/italian_tech_week_2024_dove_quando_ospiti_sam_altman_programma_completo-423492891/</v>
+        <v>https://www.repubblica.it/green-and-blue/dossier/cop29/2024/11/14/news/cop29_milei_ritira_delegazione_argentina-423623133/</v>
       </c>
       <c r="C126" t="str">
-        <v>di Bruno Ruffilli</v>
+        <v>di Giacomo Talignani</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Italian Tech Week 2024, la conference per capire il futuro</v>
+        <v>Finanza climatica, cosa c’è da sapere sui fondi ai Paesi in via di sviluppo</v>
       </c>
       <c r="B127" t="str">
-        <v>https://www.repubblica.it/tecnologia/dossier/italian-tech-week-2024/2024/09/12/news/italian_tech_week_2024_dove_quando_ospiti_sam_altman_programma_completo-423492891/</v>
+        <v>https://www.repubblica.it/green-and-blue/dossier/cop29/2024/11/14/news/finanza_climatica_fondi_ai_paesi_in_via_di_sviluppo-423623499/</v>
       </c>
       <c r="C127" t="str">
-        <v>di Bruno Ruffilli</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v/>
+        <v>Leggi Repubblica: 1 euro al mese per 3 mesi</v>
       </c>
       <c r="B128" t="str">
-        <v>https://www.repubblica.it/tecnologia/dossier/italian-tech-week-2024/2024/09/12/news/sam_altman_intelligenza_artificiale_chatgpt_agi_benefici_rischi-423492842/</v>
+        <v>https://shop.repubblica.it/repubblica/sito_premium/mese/vaschped/REP_ATP_promoRhp/REP_3M13M5DP</v>
       </c>
       <c r="C128" t="str">
-        <v>di Pier Luigi Pisa</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Sam Altman è il nuovo Oppenheimer? La sua IA tra sogno e incubo</v>
+        <v/>
       </c>
       <c r="B129" t="str">
-        <v>https://www.repubblica.it/tecnologia/dossier/italian-tech-week-2024/2024/09/12/news/sam_altman_intelligenza_artificiale_chatgpt_agi_benefici_rischi-423492842/</v>
+        <v>https://shop.limesonline.com/new-auth?purchase=offers2%2FLimes_annuale_1y39-limes_annuale_1y39&amp;intme=vasched.hp&amp;intso=ATP_promoRhp.LIMES.vasched&amp;intca=limes_sfoglio_annuale_LIMES_1Y39E99&amp;intco=vashed.LIMES</v>
       </c>
       <c r="C129" t="str">
-        <v>di Pier Luigi Pisa</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v/>
+        <v>Leggi Limes in digitale a 39,99€ il primo anno anziché 99,99€</v>
       </c>
       <c r="B130" t="str">
-        <v>https://www.repubblica.it/tecnologia/2024/08/11/news/maria_zollo_30_anni_e_un_device_con_ia_che_impara_dalle_nostre_conversazioni_la_tecnologia_puo_ridarci_tempo-423441969/</v>
+        <v>https://shop.limesonline.com/new-auth?purchase=offers2%2FLimes_annuale_1y39-limes_annuale_1y39&amp;intme=vasched.hp&amp;intso=ATP_promoRhp.LIMES.vasched&amp;intca=limes_sfoglio_annuale_LIMES_1Y39E99&amp;intco=vashed.LIMES</v>
       </c>
       <c r="C130" t="str">
-        <v>di Eleonora               Chioda</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Maria Zollo, 30 anni e un device con IA che impara dalle conversazioni: “La tecnologia può ridarci tempo”</v>
+        <v/>
       </c>
       <c r="B131" t="str">
-        <v>https://www.repubblica.it/tecnologia/2024/08/11/news/maria_zollo_30_anni_e_un_device_con_ia_che_impara_dalle_nostre_conversazioni_la_tecnologia_puo_ridarci_tempo-423441969/</v>
+        <v>https://www.repubblica.it/spettacoli/mymovies-one/2024/11/12/news/il_lunedi_del_cinema_online_il_18_novembre_falling_-_storia_di_un_padre_l_esordio_alla_regia_di_viggo_mortensen-423595826/</v>
       </c>
       <c r="C131" t="str">
-        <v>di Eleonora               Chioda</v>
+        <v>di Alberto Libera</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Leggi Repubblica: 1 euro al mese per 3 mesi</v>
+        <v>Il lunedì del cinema Online il 18 novembre Falling - Storia di un padre</v>
       </c>
       <c r="B132" t="str">
-        <v>https://shop.repubblica.it/repubblica/sito_premium/mese/vaschped/REP_ATP_promoRhp/REP_3M13M5DP</v>
+        <v>https://www.repubblica.it/spettacoli/mymovies-one/2024/11/12/news/il_lunedi_del_cinema_online_il_18_novembre_falling_-_storia_di_un_padre_l_esordio_alla_regia_di_viggo_mortensen-423595826/</v>
       </c>
       <c r="C132" t="str">
-        <v>Не найден</v>
+        <v>di Alberto Libera</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Scopri la nuova Biblioteca digitale di Repubblica</v>
+        <v/>
       </c>
       <c r="B133" t="str">
-        <v>https://quotidiano.repubblica.it/edicola/collane.jsp</v>
+        <v>https://napoli.repubblica.it/cronaca/2024/11/15/video/santo_romano_il_video_choc_dellomicidio_e_la_disperazione_degli_amici-423628959/</v>
       </c>
       <c r="C133" t="str">
-        <v>Не найден</v>
+        <v>di Antonio di Costanzo</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v/>
+        <v>Santo Romano: il gruppo, lo sparo, le mani nei capelli. L’omicidio ripreso dalle telecamere</v>
       </c>
       <c r="B134" t="str">
-        <v>https://www.repubblica.it/economia/2024/09/17/news/gedi_reply_voice_studio-423505195/</v>
+        <v>https://napoli.repubblica.it/cronaca/2024/11/15/video/santo_romano_il_video_choc_dellomicidio_e_la_disperazione_degli_amici-423628959/</v>
       </c>
       <c r="C134" t="str">
-        <v>Не найден</v>
+        <v>di Antonio di Costanzo</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Su Repubblica articoli da ascoltare grazie all’intelligenza artificiale</v>
+        <v>L'articolo</v>
       </c>
       <c r="B135" t="str">
-        <v>https://www.repubblica.it/economia/2024/09/17/news/gedi_reply_voice_studio-423505195/</v>
+        <v>https://napoli.repubblica.it/cronaca/2024/11/14/news/santo_romano_video_omicidio_san_sebastiano-423628615/</v>
       </c>
       <c r="C135" t="str">
-        <v>Не найден</v>
+        <v>di Antonio di Costanzo</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Scopri le nuove collane de la Biblioteca di Repubblica</v>
+        <v/>
       </c>
       <c r="B136" t="str">
-        <v>https://quotidiano.repubblica.it/edicola/collane.jsp</v>
+        <v>https://video.repubblica.it/video/palermo-spari-scuola-vigili/479913/480858</v>
       </c>
       <c r="C136" t="str">
-        <v>Не найден</v>
+        <v>di Francesco Patanè</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v/>
+        <v>Palermo, i vigili ospiti della scuola sparano a salve: i bambini scoppiano a piangere |</v>
       </c>
       <c r="B137" t="str">
-        <v>https://www.repubblica.it/spettacoli/mymovies-one/2024/09/17/news/il_lunedi_del_cinema_online_il_23_settembre_il_corsetto_dell_imperatrice_sissi_come_non_l_avete_mai_vista-423504562/</v>
+        <v>https://video.repubblica.it/video/palermo-spari-scuola-vigili/479913/480858</v>
       </c>
       <c r="C137" t="str">
-        <v>di di Claudia Catalli</v>
+        <v>di Francesco Patanè</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>In streaming il 23 settembre Il corsetto dell'imperatrice, Sissi come non l'avete mai vista</v>
+        <v>L'articolo</v>
       </c>
       <c r="B138" t="str">
-        <v>https://www.repubblica.it/spettacoli/mymovies-one/2024/09/17/news/il_lunedi_del_cinema_online_il_23_settembre_il_corsetto_dell_imperatrice_sissi_come_non_l_avete_mai_vista-423504562/</v>
+        <v>https://palermo.repubblica.it/cronaca/2024/11/14/news/scuola_materna_palermo_spari_dimostrazione_vigili-423627671/</v>
       </c>
       <c r="C138" t="str">
-        <v>di di Claudia Catalli</v>
+        <v>di Francesco Patanè</v>
       </c>
     </row>
     <row r="139">
@@ -1925,21 +1925,21 @@
         <v/>
       </c>
       <c r="B139" t="str">
-        <v>https://www.repubblica.it/spettacoli/cinema/2024/09/21/video/mastroianni_100_in_edicola_con_repubblica_il_libro_che_celebra_il_grande_marcello-423513403/</v>
+        <v>https://www.repubblica.it/rubriche/circo-massimo/2024/05/16/rubrica/circo_massimo_-_lo_spettacolo_della_politica-422977344/</v>
       </c>
       <c r="C139" t="str">
-        <v>Не найден</v>
+        <v>di Massimo Giannini</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>'Mastroianni 100', in edicola con Repubblica il libro che celebra il grande Marcello</v>
+        <v>La Consulta affonda la legge Spacca-Italia del governo: ora aspettiamo l'anatema di Musk</v>
       </c>
       <c r="B140" t="str">
-        <v>https://www.repubblica.it/spettacoli/cinema/2024/09/21/video/mastroianni_100_in_edicola_con_repubblica_il_libro_che_celebra_il_grande_marcello-423513403/</v>
+        <v>https://www.repubblica.it/rubriche/circo-massimo/2024/05/16/rubrica/circo_massimo_-_lo_spettacolo_della_politica-422977344/</v>
       </c>
       <c r="C140" t="str">
-        <v>Не найден</v>
+        <v>di Massimo Giannini</v>
       </c>
     </row>
     <row r="141">
@@ -1947,84 +1947,84 @@
         <v/>
       </c>
       <c r="B141" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/22/video/zercocalcare_egemonia_della_destra_occupano_posti_non_diverso_da_quello_che_ha_fatto_la_sinistra-423514406/</v>
+        <v>https://www.repubblica.it/commenti/2024/11/14/news/il_punto_del_15_novembre_2024-423627852/</v>
       </c>
       <c r="C141" t="str">
-        <v>Не найден</v>
+        <v>di Stefano Folli</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Zercocalcare: "Egemonia della destra? Occupano posti. Non diverso da quello che ha fatto la sinistra"</v>
+        <v>L'analisi</v>
       </c>
       <c r="B142" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/22/video/zercocalcare_egemonia_della_destra_occupano_posti_non_diverso_da_quello_che_ha_fatto_la_sinistra-423514406/</v>
+        <v>https://www.repubblica.it/commenti/2024/11/14/news/il_punto_del_15_novembre_2024-423627852/</v>
       </c>
       <c r="C142" t="str">
-        <v>Не найден</v>
+        <v>di Stefano Folli</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v/>
+        <v>Tra l’Europa e Trump, la tattica di Meloni</v>
       </c>
       <c r="B143" t="str">
-        <v>https://www.repubblica.it/editoriali/2024/09/21/news/medio_oriente_israele_contromossa_molinari-423513835/</v>
+        <v>https://www.repubblica.it/commenti/2024/11/14/news/il_punto_del_15_novembre_2024-423627852/</v>
       </c>
       <c r="C143" t="str">
-        <v>di Maurizio Molinari</v>
+        <v>di Stefano Folli</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Medio Oriente, se la deterrenza cambia volto</v>
+        <v/>
       </c>
       <c r="B144" t="str">
-        <v>https://www.repubblica.it/editoriali/2024/09/21/news/medio_oriente_israele_contromossa_molinari-423513835/</v>
+        <v>https://www.repubblica.it/commenti/2024/11/15/news/linguaggio_civilta_woke_politically_correct_manconi-423627168/</v>
       </c>
       <c r="C144" t="str">
-        <v>di Maurizio Molinari</v>
+        <v>di Luigi Manconi</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v/>
+        <v>L'opinione</v>
       </c>
       <c r="B145" t="str">
-        <v>https://www.repubblica.it/commenti/2024/09/21/news/autorita_padri_vermiglio__de_gregorio-423513866/</v>
+        <v>https://www.repubblica.it/commenti/2024/11/15/news/linguaggio_civilta_woke_politically_correct_manconi-423627168/</v>
       </c>
       <c r="C145" t="str">
-        <v>di Concita De Gregorio</v>
+        <v>di Luigi Manconi</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Il commento</v>
+        <v>Il linguaggio della civiltà</v>
       </c>
       <c r="B146" t="str">
-        <v>https://www.repubblica.it/commenti/2024/09/21/news/autorita_padri_vermiglio__de_gregorio-423513866/</v>
+        <v>https://www.repubblica.it/commenti/2024/11/15/news/linguaggio_civilta_woke_politically_correct_manconi-423627168/</v>
       </c>
       <c r="C146" t="str">
-        <v>di Concita De Gregorio</v>
+        <v>di Luigi Manconi</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Il tempo andato dei padri</v>
+        <v/>
       </c>
       <c r="B147" t="str">
-        <v>https://www.repubblica.it/commenti/2024/09/21/news/autorita_padri_vermiglio__de_gregorio-423513866/</v>
+        <v>https://www.repubblica.it/rubriche/le-lettere/2024/11/15/news/posta_e_risposta_del_15_novembre_2024-423626538/</v>
       </c>
       <c r="C147" t="str">
-        <v>di Concita De Gregorio</v>
+        <v>di Francesco Merlo</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v/>
+        <v>Posta e risposta</v>
       </c>
       <c r="B148" t="str">
-        <v>https://www.repubblica.it/rubriche/le-lettere/2024/09/22/news/posta_e_risposta_del_22_settembre-423513740/</v>
+        <v>https://www.repubblica.it/rubriche/le-lettere/2024/11/15/news/posta_e_risposta_del_15_novembre_2024-423626538/</v>
       </c>
       <c r="C148" t="str">
         <v>di Francesco Merlo</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Posta e risposta</v>
+        <v>Francobolli, Vespa tra gli esperti. La giusta distanza tra dire e fare</v>
       </c>
       <c r="B149" t="str">
-        <v>https://www.repubblica.it/rubriche/le-lettere/2024/09/22/news/posta_e_risposta_del_22_settembre-423513740/</v>
+        <v>https://www.repubblica.it/rubriche/le-lettere/2024/11/15/news/posta_e_risposta_del_15_novembre_2024-423626538/</v>
       </c>
       <c r="C149" t="str">
         <v>di Francesco Merlo</v>
@@ -2043,21 +2043,21 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>La Torre di Piano, inaugurazione precoce. Chiara, i neonati e la manicure di Medea</v>
+        <v/>
       </c>
       <c r="B150" t="str">
-        <v>https://www.repubblica.it/rubriche/le-lettere/2024/09/22/news/posta_e_risposta_del_22_settembre-423513740/</v>
+        <v>https://www.repubblica.it/spettacoli/tv-radio/2024/11/14/video/matteo_salvini_dona_un_bacio_a_lilli_gruber-423622031/</v>
       </c>
       <c r="C150" t="str">
-        <v>di Francesco Merlo</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v/>
+        <v>Lilli Gruber a Matteo Salvini: "Basta fake news", lui le dona un 'Bacio'</v>
       </c>
       <c r="B151" t="str">
-        <v>https://www.repubblica.it/spettacoli/2024/09/21/video/salvini_il_video_contro_il_processo_open_arms_diventa_unesibizione_a_cappella_lironia_di_fabio_celenza-423513112/</v>
+        <v>https://www.repubblica.it/spettacoli/tv-radio/2024/11/14/video/matteo_salvini_dona_un_bacio_a_lilli_gruber-423622031/</v>
       </c>
       <c r="C151" t="str">
         <v>Не найден</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Salvini, il video contro il processo Open Arms diventa un'esibizione a cappella: l'ironia di Fabio Celenza</v>
+        <v/>
       </c>
       <c r="B152" t="str">
-        <v>https://www.repubblica.it/spettacoli/2024/09/21/video/salvini_il_video_contro_il_processo_open_arms_diventa_unesibizione_a_cappella_lironia_di_fabio_celenza-423513112/</v>
+        <v>https://www.repubblica.it/sport/video-sport/tennis/2024/11/14/video/sinner_perde_e_reagisce_sbuffando_ma_sono_bocce_non_e_tennis-423622441/</v>
       </c>
       <c r="C152" t="str">
         <v>Не найден</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v/>
+        <v>Sinner perde e reagisce sbuffando: ma sono bocce, non è tennis</v>
       </c>
       <c r="B153" t="str">
-        <v>https://www.repubblica.it/la-zampa/2024/09/21/video/cane_panda_zoo_cina-423513189/</v>
+        <v>https://www.repubblica.it/sport/video-sport/tennis/2024/11/14/video/sinner_perde_e_reagisce_sbuffando_ma_sono_bocce_non_e_tennis-423622441/</v>
       </c>
       <c r="C153" t="str">
         <v>Не найден</v>
@@ -2087,90 +2087,90 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>"I panda si sono messi ad abbaiare", in uno zoo cinese torna (di nuovo) la truffa dei cani tinti</v>
+        <v/>
       </c>
       <c r="B154" t="str">
-        <v>https://www.repubblica.it/la-zampa/2024/09/21/video/cane_panda_zoo_cina-423513189/</v>
+        <v>https://www.repubblica.it/il-gusto/dossier/fake-news-cibo-bufale-alimentazione/2024/11/13/video/fake_news_sul_cibo_gli_alimenti_vanno_scongelati_in_acqua_calda_la_risposta_dellesperto-423620940/</v>
       </c>
       <c r="C154" t="str">
-        <v>Не найден</v>
+        <v>di Tecla Biancolatte</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v/>
+        <v>"Gli alimenti vanno scongelati in acqua calda?": la risposta dell'esperto</v>
       </c>
       <c r="B155" t="str">
-        <v>https://milano.repubblica.it/cronaca/2024/09/21/video/fashion_week_da_dolce_e_gabbana_arriva_madonna_e_la_prima_volta_a_una_sfilata_di_milano-423513577/</v>
+        <v>https://www.repubblica.it/il-gusto/dossier/fake-news-cibo-bufale-alimentazione/2024/11/13/video/fake_news_sul_cibo_gli_alimenti_vanno_scongelati_in_acqua_calda_la_risposta_dellesperto-423620940/</v>
       </c>
       <c r="C155" t="str">
-        <v>Не найден</v>
+        <v>di Tecla Biancolatte</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Da Dolce e Gabbana arriva Madonna velata di pizzo nero</v>
+        <v>| Le puntate</v>
       </c>
       <c r="B156" t="str">
-        <v>https://milano.repubblica.it/cronaca/2024/09/21/video/fashion_week_da_dolce_e_gabbana_arriva_madonna_e_la_prima_volta_a_una_sfilata_di_milano-423513577/</v>
+        <v>https://www.repubblica.it/il-gusto/dossier/fake-news-cibo-bufale-alimentazione/</v>
       </c>
       <c r="C156" t="str">
-        <v>Не найден</v>
+        <v>di Tecla Biancolatte</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Le modelle rievocano i suoi costumi iconici</v>
+        <v/>
       </c>
       <c r="B157" t="str">
-        <v>https://www.repubblica.it/moda-e-beauty/2024/09/21/news/madonna_sfilata_dolcegabbana_milano_ss25-423513541/?ref=RHLF-BG-P15-S1-T1</v>
+        <v>https://www.repubblica.it/rubriche/metropolis/2024/11/14/video/metropolis_-_x_files_quanto_costera_musk_allitalia_con_fornero_giannini_giubilei_proietti_stagliano_poi_boralevi-423628237/</v>
       </c>
       <c r="C157" t="str">
-        <v>Не найден</v>
+        <v>Di G.Greco, con D.Casaleggio, E.Fornero, M.Giannini, F.Giubilei, S.Proietti, R.Staglianò. Poi A.Boralevi</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v/>
+        <v>Metropolis - X Files. Quanto costerà Musk all'Italia?</v>
       </c>
       <c r="B158" t="str">
-        <v>https://napoli.repubblica.it/cronaca/2024/09/21/video/g7_cultura_il_concerto_agli_scavi_di_pompei_beatrice_venezi_dirige_bocelli_incanta-423513133/</v>
+        <v>https://www.repubblica.it/rubriche/metropolis/2024/11/14/video/metropolis_-_x_files_quanto_costera_musk_allitalia_con_fornero_giannini_giubilei_proietti_stagliano_poi_boralevi-423628237/</v>
       </c>
       <c r="C158" t="str">
-        <v>di Laura Nicastro</v>
+        <v>Di G.Greco, con D.Casaleggio, E.Fornero, M.Giannini, F.Giubilei, S.Proietti, R.Staglianò. Poi A.Boralevi</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Il concerto agli scavi di Pompei: Venezi dirige, Bocelli incanta</v>
+        <v/>
       </c>
       <c r="B159" t="str">
-        <v>https://napoli.repubblica.it/cronaca/2024/09/21/video/g7_cultura_il_concerto_agli_scavi_di_pompei_beatrice_venezi_dirige_bocelli_incanta-423513133/</v>
+        <v>https://www.repubblica.it/venerdi/2024/11/14/news/gisele_pelicot_dominique_processo_storia-423622882/</v>
       </c>
       <c r="C159" t="str">
-        <v>di Laura Nicastro</v>
+        <v>dalla nostra corrispondente Anais Ginori</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v/>
+        <v>Siamo tutte Gisèle Pelicot</v>
       </c>
       <c r="B160" t="str">
-        <v>https://napoli.repubblica.it/cronaca/2024/09/21/video/g7_cultura_al_concerto_di_pompei_il_ministro_giuli_ricorda_giogio_il_giovane_orchestrale_ucciso-423513275/</v>
+        <v>https://www.repubblica.it/venerdi/2024/11/14/news/gisele_pelicot_dominique_processo_storia-423622882/</v>
       </c>
       <c r="C160" t="str">
-        <v>Не найден</v>
+        <v>dalla nostra corrispondente Anais Ginori</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>G7 Cultura: al concerto di Pompei il ministro Giuli ricorda Giogiò, il giovane orchestrale ucciso</v>
+        <v>Il numero in edicola</v>
       </c>
       <c r="B161" t="str">
-        <v>https://napoli.repubblica.it/cronaca/2024/09/21/video/g7_cultura_al_concerto_di_pompei_il_ministro_giuli_ricorda_giogio_il_giovane_orchestrale_ucciso-423513275/</v>
+        <v>https://www.repubblica.it/venerdi/2024/11/14/news/ozempic_viaggi_venerdi-423622903/</v>
       </c>
       <c r="C161" t="str">
-        <v>Не найден</v>
+        <v>dalla nostra corrispondente Anais Ginori</v>
       </c>
     </row>
     <row r="162">
@@ -2178,21 +2178,21 @@
         <v/>
       </c>
       <c r="B162" t="str">
-        <v>https://www.repubblica.it/venerdi/2024/09/21/news/poveri_ma_tennis_la_dura_vita_degli_impiegati_della_racchetta-423512104/</v>
+        <v>https://www.repubblica.it/robinson/2024/11/11/news/giovanni_lindo_ferretti_intervista_fumetto_tanno_cavallo_tanto_amato-423609215/</v>
       </c>
       <c r="C162" t="str">
-        <v>di Giorgia Mecca</v>
+        <v>dal nostro inviato Luca Valtorta</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Poveri ma tennis: la dura vita degli impiegati della racchetta</v>
+        <v>Giovanni Lindo Ferretti e il fumetto per Tanno, il suo cavallo tanto amato</v>
       </c>
       <c r="B163" t="str">
-        <v>https://www.repubblica.it/venerdi/2024/09/21/news/poveri_ma_tennis_la_dura_vita_degli_impiegati_della_racchetta-423512104/</v>
+        <v>https://www.repubblica.it/robinson/2024/11/11/news/giovanni_lindo_ferretti_intervista_fumetto_tanno_cavallo_tanto_amato-423609215/</v>
       </c>
       <c r="C163" t="str">
-        <v>di Giorgia Mecca</v>
+        <v>dal nostro inviato Luca Valtorta</v>
       </c>
     </row>
     <row r="164">
@@ -2200,227 +2200,227 @@
         <v/>
       </c>
       <c r="B164" t="str">
-        <v>https://www.repubblica.it/robinson/2024/09/21/news/libri_da_leggere_prove_tecniche_di_futuro_secondo_yuval_noah_harari-423512117/</v>
+        <v>https://www.repubblica.it/moda-e-beauty/2024/11/13/news/fallire_e_inevitabile_ma_sbagliando_si_impara_ecco_come-423627269/</v>
       </c>
       <c r="C164" t="str">
-        <v>di Claudia Morgoglione</v>
+        <v>di Stefania Medetti</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Libri da leggere, prove tecniche di futuro secondo Yuval Noah Harari</v>
+        <v>Fallire è inevitabile, ma sbagliando si impara</v>
       </c>
       <c r="B165" t="str">
-        <v>https://www.repubblica.it/robinson/2024/09/21/news/libri_da_leggere_prove_tecniche_di_futuro_secondo_yuval_noah_harari-423512117/</v>
+        <v>https://www.repubblica.it/moda-e-beauty/2024/11/13/news/fallire_e_inevitabile_ma_sbagliando_si_impara_ecco_come-423627269/</v>
       </c>
       <c r="C165" t="str">
-        <v>di Claudia Morgoglione</v>
+        <v>di Stefania Medetti</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Il numero in edicola</v>
+        <v/>
       </c>
       <c r="B166" t="str">
-        <v>https://www.repubblica.it/robinson/2024/09/21/news/sally_rooney_si_confessa_in_esclusiva_su_robinson-423512438/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/14/news/ufo_l_audizione_al_congresso_usa__non_siamo_soli_il_mondo_deve_sapere-423628560/</v>
       </c>
       <c r="C166" t="str">
-        <v>di Claudia Morgoglione</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v/>
+        <v>Ufo, l'audizione al Congresso Usa: "Non siamo soli, il mondo deve sapere"</v>
       </c>
       <c r="B167" t="str">
-        <v>https://www.repubblica.it/moda-e-beauty/2024/09/01/news/dolce__gabbana_madonna_ha_cambiato_la_nostra_vita-423514026/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/14/news/ufo_l_audizione_al_congresso_usa__non_siamo_soli_il_mondo_deve_sapere-423628560/</v>
       </c>
       <c r="C167" t="str">
-        <v>di Serena Tibaldi</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Dolce &amp; Gabbana: “Madonna ha cambiato la nostra vita”</v>
+        <v/>
       </c>
       <c r="B168" t="str">
-        <v>https://www.repubblica.it/moda-e-beauty/2024/09/01/news/dolce__gabbana_madonna_ha_cambiato_la_nostra_vita-423514026/</v>
+        <v>https://www.repubblica.it/il-gusto/2024/11/14/news/quattro_ristoranti_treviso_snobba_programma_alessandro_borghese-423623342/</v>
       </c>
       <c r="C168" t="str">
-        <v>di Serena Tibaldi</v>
+        <v>di Lara De Luna</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v/>
+        <v>“Quattro ristoranti? No grazie”. Treviso snobba il programma di Alessandro Borghese</v>
       </c>
       <c r="B169" t="str">
-        <v>https://www.repubblica.it/cultura/2024/09/21/news/federica_manzon_premio_campiello_2024_alma-423514144/</v>
+        <v>https://www.repubblica.it/il-gusto/2024/11/14/news/quattro_ristoranti_treviso_snobba_programma_alessandro_borghese-423623342/</v>
       </c>
       <c r="C169" t="str">
-        <v>di Ilaria Zaffino</v>
+        <v>di Lara De Luna</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>A Federica Manzon il Campiello dei big</v>
+        <v/>
       </c>
       <c r="B170" t="str">
-        <v>https://www.repubblica.it/cultura/2024/09/21/news/federica_manzon_premio_campiello_2024_alma-423514144/</v>
+        <v>https://www.repubblica.it/viaggi/2024/11/14/news/dolomiti_superski_inverno_2024_2025-423626762/</v>
       </c>
       <c r="C170" t="str">
-        <v>di Ilaria Zaffino</v>
+        <v>di Giulia Cimpanelli</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v/>
+        <v>Dolomiti Superski, via il 30 novembre. Tariffe su, ma una promessa: “Stagione lunga 130 giorni”</v>
       </c>
       <c r="B171" t="str">
-        <v>https://www.repubblica.it/spettacoli/tv-radio/2024/09/21/news/l_eterna_alchimia_di__friends__la_semplicita_sentimentale_di_sei_bravi_ragazzi_su_un_divano-423513717/</v>
+        <v>https://www.repubblica.it/viaggi/2024/11/14/news/dolomiti_superski_inverno_2024_2025-423626762/</v>
       </c>
       <c r="C171" t="str">
-        <v>di Antonio Dipollina</v>
+        <v>di Giulia Cimpanelli</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>L’eterna alchimia di ‘Friends’, la semplicità di sei bravi ragazzi su un divano</v>
+        <v/>
       </c>
       <c r="B172" t="str">
-        <v>https://www.repubblica.it/spettacoli/tv-radio/2024/09/21/news/l_eterna_alchimia_di__friends__la_semplicita_sentimentale_di_sei_bravi_ragazzi_su_un_divano-423513717/</v>
+        <v>https://www.repubblica.it/salute/2024/11/15/news/troppi_antibiotici_piu_vaccini_1_milione_di_morti_in_meno-423626969/</v>
       </c>
       <c r="C172" t="str">
-        <v>di Antonio Dipollina</v>
+        <v>di Donatella Zorzetto</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v/>
+        <v>Troppi antibiotici, con più vaccini 1 milione di morti in meno all’anno</v>
       </c>
       <c r="B173" t="str">
-        <v>https://www.repubblica.it/spettacoli/people/2024/09/21/news/natalia_estrada_oggi_mastrota_berlusconi_figlia-423512457/</v>
+        <v>https://www.repubblica.it/salute/2024/11/15/news/troppi_antibiotici_piu_vaccini_1_milione_di_morti_in_meno-423626969/</v>
       </c>
       <c r="C173" t="str">
-        <v>di Giacomo Galanti</v>
+        <v>di Donatella Zorzetto</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Revival Natalia Estrada: “Mai più in tv, ho scelto i cavalli e la natura. Mastrota? Un amore travolgente consumato in sei anni”</v>
+        <v/>
       </c>
       <c r="B174" t="str">
-        <v>https://www.repubblica.it/spettacoli/people/2024/09/21/news/natalia_estrada_oggi_mastrota_berlusconi_figlia-423512457/</v>
+        <v>https://www.repubblica.it/sport/moto-gp/2024/11/15/news/domenicali_intervista_gp_barcellona-423628737/</v>
       </c>
       <c r="C174" t="str">
-        <v>di Giacomo Galanti</v>
+        <v>di Massimo Calandri</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v/>
+        <v>Claudio Domenicali: “Martin o Bagnaia è lo stesso, vince sempre la Ducati”</v>
       </c>
       <c r="B175" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/21/news/equinozio_autunno_2024_22_settembre-423512872/</v>
+        <v>https://www.repubblica.it/sport/moto-gp/2024/11/15/news/domenicali_intervista_gp_barcellona-423628737/</v>
       </c>
       <c r="C175" t="str">
-        <v>a cura della redazione Cronaca nazionale</v>
+        <v>di Massimo Calandri</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>L'equinozio d'autunno è alle porte: quando cade e che cosa succede</v>
+        <v/>
       </c>
       <c r="B176" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/21/news/equinozio_autunno_2024_22_settembre-423512872/</v>
+        <v>https://www.repubblica.it/spettacoli/cinema/2024/11/14/news/denzel_washington_bacio_uomo_gladiatore_ii_ridley_scott-423626374/</v>
       </c>
       <c r="C176" t="str">
-        <v>a cura della redazione Cronaca nazionale</v>
+        <v>a cura della redazione Spettacoli</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v/>
+        <v>Denzel Washington denuncia la censura nel Gladiatore per un bacio gay</v>
       </c>
       <c r="B177" t="str">
-        <v>https://torino.repubblica.it/cronaca/2024/09/21/news/addio_a_salvatore_lo_presti_giornalismo_sportivo-423513286/</v>
+        <v>https://www.repubblica.it/spettacoli/cinema/2024/11/14/news/denzel_washington_bacio_uomo_gladiatore_ii_ridley_scott-423626374/</v>
       </c>
       <c r="C177" t="str">
-        <v>di Fabrizio Turco</v>
+        <v>a cura della redazione Spettacoli</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Addio a Salvatore Lo Presti, penna autorevole del giornalismo sportivo</v>
+        <v/>
       </c>
       <c r="B178" t="str">
-        <v>https://torino.repubblica.it/cronaca/2024/09/21/news/addio_a_salvatore_lo_presti_giornalismo_sportivo-423513286/</v>
+        <v>https://roma.repubblica.it/cronaca/2024/11/14/news/maltrattamenti_noemi_bocchi_totti-423622834/</v>
       </c>
       <c r="C178" t="str">
-        <v>di Fabrizio Turco</v>
+        <v>di Marco Carta</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v/>
+        <v>Noemi Bocchi dopo la condanna dell’ex marito Mario Caucci: “Dio esiste”</v>
       </c>
       <c r="B179" t="str">
-        <v>https://www.repubblica.it/cultura/2024/09/21/news/laurent_binet_intervista_giallo_firenze_dei_medici-423513672/</v>
+        <v>https://roma.repubblica.it/cronaca/2024/11/14/news/maltrattamenti_noemi_bocchi_totti-423622834/</v>
       </c>
       <c r="C179" t="str">
-        <v>dalla nostra corrispondente Anais Ginori</v>
+        <v>di Marco Carta</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>L’ispettore Vasari indaga sul caso Pontormo, intervista a Laurent Binet</v>
+        <v/>
       </c>
       <c r="B180" t="str">
-        <v>https://www.repubblica.it/cultura/2024/09/21/news/laurent_binet_intervista_giallo_firenze_dei_medici-423513672/</v>
+        <v>https://www.repubblica.it/la-zampa/2024/11/14/news/gatti_cuccioli_lotte_wrestling_cane-423621983/</v>
       </c>
       <c r="C180" t="str">
-        <v>dalla nostra corrispondente Anais Ginori</v>
+        <v>di Isabella Amato</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v/>
+        <v>Cheeto e Frito, due gatti dal cuore di leone</v>
       </c>
       <c r="B181" t="str">
-        <v>https://www.repubblica.it/moda-e-beauty/2024/09/01/news/dolce__gabbana_madonna_ha_cambiato_la_nostra_vita-423514026/</v>
+        <v>https://www.repubblica.it/la-zampa/2024/11/14/news/gatti_cuccioli_lotte_wrestling_cane-423621983/</v>
       </c>
       <c r="C181" t="str">
-        <v>di Serena Tibaldi</v>
+        <v>di Isabella Amato</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Dolce &amp; Gabbana: “Madonna ha cambiato la nostra vita”</v>
+        <v/>
       </c>
       <c r="B182" t="str">
-        <v>https://www.repubblica.it/moda-e-beauty/2024/09/01/news/dolce__gabbana_madonna_ha_cambiato_la_nostra_vita-423514026/</v>
+        <v>https://www.repubblica.it/la-zampa/dossier/la-zampa-junior/2024/11/14/news/gatto_porta_a_casa_topo_per_cena_crocchette_stupore-423622043/</v>
       </c>
       <c r="C182" t="str">
-        <v>di Serena Tibaldi</v>
+        <v>di Aurora Iberti</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v/>
+        <v>Il gatto Chewie porta a casa un amico, ma la sua famiglia non si dimostra altrettanto contenta</v>
       </c>
       <c r="B183" t="str">
-        <v>https://www.repubblica.it/la-zampa/2024/09/21/news/chupacabra_alieno_skinwalker_creatura_misteriosa_avvistamento_texas-423512805/</v>
+        <v>https://www.repubblica.it/la-zampa/dossier/la-zampa-junior/2024/11/14/news/gatto_porta_a_casa_topo_per_cena_crocchette_stupore-423622043/</v>
       </c>
       <c r="C183" t="str">
-        <v>di Noemi Penna</v>
+        <v>di Aurora Iberti</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>È un chupacabra o un alieno? La strana creatura avvistata in Texas a cui nessuno sa dare una spiegazione</v>
+        <v/>
       </c>
       <c r="B184" t="str">
-        <v>https://www.repubblica.it/la-zampa/2024/09/21/news/chupacabra_alieno_skinwalker_creatura_misteriosa_avvistamento_texas-423512805/</v>
+        <v>https://www.repubblica.it/la-zampa/2024/11/14/news/mistero_artropode_fossile_orolomankus_edgecombei-423621907/</v>
       </c>
       <c r="C184" t="str">
         <v>di Noemi Penna</v>
@@ -2428,222 +2428,222 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v/>
+        <v>Il mistero dell’animale ricoperto d'oro vissuto 450 milioni di anni fa, ecco di cosa si tratta</v>
       </c>
       <c r="B185" t="str">
-        <v>https://www.repubblica.it/la-zampa/2024/09/21/news/gatto_rayne_beau_wyoming_california-423512755/</v>
+        <v>https://www.repubblica.it/la-zampa/2024/11/14/news/mistero_artropode_fossile_orolomankus_edgecombei-423621907/</v>
       </c>
       <c r="C185" t="str">
-        <v>di Ivo Albertucci</v>
+        <v>di Noemi Penna</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Il misterioso viaggio di Rayne Beau, il gatto scomparso per due mesi e ritrovato a 1500 chilometri di distanza</v>
+        <v/>
       </c>
       <c r="B186" t="str">
-        <v>https://www.repubblica.it/la-zampa/2024/09/21/news/gatto_rayne_beau_wyoming_california-423512755/</v>
+        <v>https://www.repubblica.it/salute/2024/11/12/news/fratelli_conflitti_famiglia_speciale-423610968/</v>
       </c>
       <c r="C186" t="str">
-        <v>di Ivo Albertucci</v>
+        <v>di Cinzia Lucchelli</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v/>
+        <v>Fratelli contro fratelli: il perché dei conflitti in famiglia e come capirli</v>
       </c>
       <c r="B187" t="str">
-        <v>https://www.repubblica.it/la-zampa/2024/09/21/news/gatto_cane_parto_ostetrico_cuccioli_amore-423512775/</v>
+        <v>https://www.repubblica.it/salute/2024/11/12/news/fratelli_conflitti_famiglia_speciale-423610968/</v>
       </c>
       <c r="C187" t="str">
-        <v>di Aurora Iberti</v>
+        <v>di Cinzia Lucchelli</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>La gatta sta per partorire, il cane Gunner diventa un perfetto ostetrico e papà: ha trattato i cuccioli come se fossero suoi</v>
+        <v/>
       </c>
       <c r="B188" t="str">
-        <v>https://www.repubblica.it/la-zampa/2024/09/21/news/gatto_cane_parto_ostetrico_cuccioli_amore-423512775/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/09/news/muro_berlino_caduta_9_novembre_1989_wind_of_change_scorpions-423605977/</v>
       </c>
       <c r="C188" t="str">
-        <v>di Aurora Iberti</v>
+        <v>dalla nostra corrispondente Tonia Mastrobuoni. Coordinamento editoriale Carlo Bonini. Coordinamento multimediale Laura Pertici. Produzione Gedi Visual</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v/>
+        <v>Quando il vento da Mosca sbriciolò la Ddr</v>
       </c>
       <c r="B189" t="str">
-        <v>https://www.repubblica.it/dossier/cultura/cantiere-repubblica/2024/09/21/news/giuseppe_conte_lavoro_cantiere_italia_repubblica-423512684/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/09/news/muro_berlino_caduta_9_novembre_1989_wind_of_change_scorpions-423605977/</v>
       </c>
       <c r="C189" t="str">
-        <v>di Valentina Conte</v>
+        <v>dalla nostra corrispondente Tonia Mastrobuoni. Coordinamento editoriale Carlo Bonini. Coordinamento multimediale Laura Pertici. Produzione Gedi Visual</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>“Lavoro, un record precario. Il salario minimo può essere una soluzione, ma divide sindacati e politica”</v>
+        <v>Il podcast</v>
       </c>
       <c r="B190" t="str">
-        <v>https://www.repubblica.it/dossier/cultura/cantiere-repubblica/2024/09/21/news/giuseppe_conte_lavoro_cantiere_italia_repubblica-423512684/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/09/audio/cera_una_volta_il_muro-423605972/</v>
       </c>
       <c r="C190" t="str">
-        <v>di Valentina Conte</v>
+        <v>dalla nostra corrispondente Tonia Mastrobuoni. Coordinamento editoriale Carlo Bonini. Coordinamento multimediale Laura Pertici. Produzione Gedi Visual</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Speciale Lab</v>
+        <v/>
       </c>
       <c r="B191" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/21/news/lavoro_cantiere_italia-423511156/</v>
+        <v>https://www.repubblica.it/cronaca/2024/08/14/video/un_uomo_libero_lultima_lezione_di_don_lorenzo_milani-423446571/</v>
       </c>
       <c r="C191" t="str">
-        <v>di Valentina Conte</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v/>
+        <v>Un uomo libero. L'ultima lezione di don Lorenzo Milani</v>
       </c>
       <c r="B192" t="str">
-        <v>https://www.repubblica.it/cronaca/2024/09/12/news/orientamento_universita_facolta_italia_test-423491411/</v>
+        <v>https://www.repubblica.it/cronaca/2024/08/14/video/un_uomo_libero_lultima_lezione_di_don_lorenzo_milani-423446571/</v>
       </c>
       <c r="C192" t="str">
-        <v>di Chiara Nardinocchi</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Quale università frequentare per avere stipendi più alti: scopri i corsi più ricercati</v>
+        <v/>
       </c>
       <c r="B193" t="str">
-        <v>https://www.repubblica.it/cronaca/2024/09/12/news/orientamento_universita_facolta_italia_test-423491411/</v>
+        <v>https://www.repubblica.it/politica/2024/11/08/news/musk_trump_elezioni_americane_hanno_tutti_ragione_cappellini-423605931/</v>
       </c>
       <c r="C193" t="str">
-        <v>di Chiara Nardinocchi</v>
+        <v>di Stefano Cappellini</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v/>
+        <v>Hanno tutti ragione | Ciao poveri, la vita eterna è su Marte. La pericolosa filosofia di Musk</v>
       </c>
       <c r="B194" t="str">
-        <v>https://www.repubblica.it/cronaca/2024/07/19/video/paolo_borsellino_e_il_mistero_dellagenda_rossa-423403115/</v>
+        <v>https://www.repubblica.it/politica/2024/11/08/news/musk_trump_elezioni_americane_hanno_tutti_ragione_cappellini-423605931/</v>
       </c>
       <c r="C194" t="str">
-        <v>di Antonio Nasso</v>
+        <v>di Stefano Cappellini</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Paolo Borsellino e il mistero dell'agenda rossa</v>
+        <v/>
       </c>
       <c r="B195" t="str">
-        <v>https://www.repubblica.it/cronaca/2024/07/19/video/paolo_borsellino_e_il_mistero_dellagenda_rossa-423403115/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/09/news/ucraina_avanzata_russa_vittoria_trump-423607202/</v>
       </c>
       <c r="C195" t="str">
-        <v>di Antonio Nasso</v>
+        <v>di Gianluca Di Feo</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v/>
+        <v>Sentieri di guerra</v>
       </c>
       <c r="B196" t="str">
-        <v>https://www.repubblica.it/infiltrazioni-mafiose/</v>
+        <v>https://www.repubblica.it/dossier/cronaca/venti-di-guerra/</v>
       </c>
       <c r="C196" t="str">
-        <v>di Carlo Bonini, Giulio Marotta, Marco Patucchi e Carmine Saviano</v>
+        <v>di Gianluca Di Feo</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Storie di mafia</v>
+        <v>| L'offensiva russa per sfruttare la vittoria di Trump</v>
       </c>
       <c r="B197" t="str">
-        <v>https://www.repubblica.it/dossier/cronaca/storie-di-mafia/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/09/news/ucraina_avanzata_russa_vittoria_trump-423607202/</v>
       </c>
       <c r="C197" t="str">
-        <v>di Carlo Bonini, Giulio Marotta, Marco Patucchi e Carmine Saviano</v>
+        <v>di Gianluca Di Feo</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>| Il database delle infiltrazioni mafiose</v>
+        <v/>
       </c>
       <c r="B198" t="str">
-        <v>https://www.repubblica.it/infiltrazioni-mafiose/</v>
+        <v>https://www.repubblica.it/cronaca/2024/04/08/news/femminicidi_italia_2024_dati_storie-422440928/</v>
       </c>
       <c r="C198" t="str">
-        <v>di Carlo Bonini, Giulio Marotta, Marco Patucchi e Carmine Saviano</v>
+        <v>a cura di Alessia Ripani</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v/>
+        <v>Osservatorio femminicidi</v>
       </c>
       <c r="B199" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/14/news/kursk_fronte_conflitto_ucraina_russia-423499450/</v>
+        <v>https://www.repubblica.it/dossier/cronaca/osservatorio-femminicidi/</v>
       </c>
       <c r="C199" t="str">
-        <v>di Gianluca Di Feo</v>
+        <v>a cura di Alessia Ripani</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Sentieri di guerra</v>
+        <v>| Le donne uccise nel 2024 e le loro storie</v>
       </c>
       <c r="B200" t="str">
-        <v>https://www.repubblica.it/dossier/cronaca/venti-di-guerra/</v>
+        <v>https://www.repubblica.it/cronaca/2024/04/08/news/femminicidi_italia_2024_dati_storie-422440928/</v>
       </c>
       <c r="C200" t="str">
-        <v>di Gianluca Di Feo</v>
+        <v>a cura di Alessia Ripani</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>| La battaglia di Kursk può decidere la guerra in Ucraina</v>
+        <v/>
       </c>
       <c r="B201" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/14/news/kursk_fronte_conflitto_ucraina_russia-423499450/</v>
+        <v>https://www.repubblica.it/dossier/cronaca/piano-b-cambiare-vita/2024/11/13/news/cambiare_vita_piano_b_la_storia_di_angelo_caffi-423617037/</v>
       </c>
       <c r="C201" t="str">
-        <v>di Gianluca Di Feo</v>
+        <v>di Valeria Teodonio</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v/>
+        <v>Piano B La storia di Angelo: “Per 33 anni chiuso in 4 mura. Ora vivo a due passi dal cielo”</v>
       </c>
       <c r="B202" t="str">
-        <v>https://www.repubblica.it/cronaca/2024/04/08/news/femminicidi_italia_2024_dati_storie-422440928/</v>
+        <v>https://www.repubblica.it/dossier/cronaca/piano-b-cambiare-vita/2024/11/13/news/cambiare_vita_piano_b_la_storia_di_angelo_caffi-423617037/</v>
       </c>
       <c r="C202" t="str">
-        <v>a cura di Alessia Ripani</v>
+        <v>di Valeria Teodonio</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Osservatorio femminicidi</v>
+        <v/>
       </c>
       <c r="B203" t="str">
-        <v>https://www.repubblica.it/dossier/cronaca/osservatorio-femminicidi/</v>
+        <v>https://www.repubblica.it/dossier/cronaca/modern-family/2024/11/12/news/modern_family_luca_trapanese_figlia_sindrome_down_storia-423611416/</v>
       </c>
       <c r="C203" t="str">
-        <v>a cura di Alessia Ripani</v>
+        <v>di Valeria Teodonio</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>| Le donne uccise nel 2024 e le loro storie</v>
+        <v>Modern family Trapanese: “La mia Alba con questo governo sarebbe finita in una casa famiglia”</v>
       </c>
       <c r="B204" t="str">
-        <v>https://www.repubblica.it/cronaca/2024/04/08/news/femminicidi_italia_2024_dati_storie-422440928/</v>
+        <v>https://www.repubblica.it/dossier/cronaca/modern-family/2024/11/12/news/modern_family_luca_trapanese_figlia_sindrome_down_storia-423611416/</v>
       </c>
       <c r="C204" t="str">
-        <v>a cura di Alessia Ripani</v>
+        <v>di Valeria Teodonio</v>
       </c>
     </row>
     <row r="205">
@@ -2651,73 +2651,73 @@
         <v/>
       </c>
       <c r="B205" t="str">
-        <v>https://www.repubblica.it/dossier/cronaca/morire-di-lavoro/</v>
+        <v>https://www.repubblica.it/moda-e-beauty/2024/11/10/news/infedeli_storia_vera_edoardo_tradimento_compensatorio_donna_piu_grande-423600583/</v>
       </c>
       <c r="C205" t="str">
-        <v>a cura di Marco Patucchi</v>
+        <v>di Veronica Mazza</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Morire di lavoro</v>
+        <v>Infedeli La storia di Edoardo: “Ho tradito mia moglie con una donna più grande dopo la morte di mia madre”</v>
       </c>
       <c r="B206" t="str">
-        <v>https://www.repubblica.it/dossier/cronaca/morire-di-lavoro/</v>
+        <v>https://www.repubblica.it/moda-e-beauty/2024/11/10/news/infedeli_storia_vera_edoardo_tradimento_compensatorio_donna_piu_grande-423600583/</v>
       </c>
       <c r="C206" t="str">
-        <v>a cura di Marco Patucchi</v>
+        <v>di Veronica Mazza</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>| Una Spoon River per non dimenticare</v>
+        <v/>
       </c>
       <c r="B207" t="str">
-        <v>https://www.repubblica.it/dossier/cronaca/morire-di-lavoro/</v>
+        <v>https://www.repubblica.it/moda-e-beauty/2024/11/14/news/women_up_valeria_al_rientro_dalla_maternita_mi_hanno_demansionata_e_come_me_altre_3_colleghe-423620732/</v>
       </c>
       <c r="C207" t="str">
-        <v>a cura di Marco Patucchi</v>
+        <v>di Sarah Victoria Barberis</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v/>
+        <v>Women up Valeria: “Al rientro dalla maternità mi hanno demansionata. E come me altre 3 colleghe”</v>
       </c>
       <c r="B208" t="str">
-        <v>https://www.repubblica.it/dossier/cronaca/piano-b-cambiare-vita/2024/09/18/news/cambiare_vita_piano_b_la_storia_di_jhonny_puttini-423505833/</v>
+        <v>https://www.repubblica.it/moda-e-beauty/2024/11/14/news/women_up_valeria_al_rientro_dalla_maternita_mi_hanno_demansionata_e_come_me_altre_3_colleghe-423620732/</v>
       </c>
       <c r="C208" t="str">
-        <v>di Valeria Teodonio</v>
+        <v>di Sarah Victoria Barberis</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Piano B La storia di Jhonny Puttini: “Ero un operaio, volevo cambiare vita ma mi prendevano in giro. Oggi sono una celebrità”</v>
+        <v/>
       </c>
       <c r="B209" t="str">
-        <v>https://www.repubblica.it/dossier/cronaca/piano-b-cambiare-vita/2024/09/18/news/cambiare_vita_piano_b_la_storia_di_jhonny_puttini-423505833/</v>
+        <v>https://www.repubblica.it/moda-e-beauty/2024/11/11/news/rinascite_storia_vera_gabriella_b_alopecia_mi_sono_svegliata_calva-423606264/</v>
       </c>
       <c r="C209" t="str">
-        <v>di Valeria Teodonio</v>
+        <v>di Veronica Mazza</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v/>
+        <v>Rinascite Gabriella: L’alopecia mi ha stravolto la vita, ora realizzare parrucche è il mio mestiere</v>
       </c>
       <c r="B210" t="str">
-        <v>https://www.repubblica.it/dossier/sport/laltra-domenica/2024/08/23/news/luomo_che_ruppe_il_muro_storia_di_erwin_kostedde_il_primo_nero_a_giocare_con_la_nazionale_tedesca-423444537/</v>
+        <v>https://www.repubblica.it/moda-e-beauty/2024/11/11/news/rinascite_storia_vera_gabriella_b_alopecia_mi_sono_svegliata_calva-423606264/</v>
       </c>
       <c r="C210" t="str">
-        <v>di Luigi Panella</v>
+        <v>di Veronica Mazza</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>L'altra domenica L’uomo che ruppe il muro: storia di Erwin Kostedde, il primo nero a giocare con la nazionale tedesca</v>
+        <v/>
       </c>
       <c r="B211" t="str">
-        <v>https://www.repubblica.it/dossier/sport/laltra-domenica/2024/08/23/news/luomo_che_ruppe_il_muro_storia_di_erwin_kostedde_il_primo_nero_a_giocare_con_la_nazionale_tedesca-423444537/</v>
+        <v>https://www.repubblica.it/dossier/sport/laltra-domenica/2024/11/08/news/garrincha_e_pasolini_quella_partita_immaginata_sui_campetti_della_periferia_romana-423604132/</v>
       </c>
       <c r="C211" t="str">
         <v>di Luigi Panella</v>
@@ -2725,208 +2725,208 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v/>
+        <v>L'altra domenica Garrincha e Pasolini, quella partita immaginata sui campetti della periferia romana</v>
       </c>
       <c r="B212" t="str">
-        <v>https://www.repubblica.it/sport/calcio/2024/09/07/news/giorgio_martino_oggi_telecronista_giornalista_maradona_ali-423482943/</v>
+        <v>https://www.repubblica.it/dossier/sport/laltra-domenica/2024/11/08/news/garrincha_e_pasolini_quella_partita_immaginata_sui_campetti_della_periferia_romana-423604132/</v>
       </c>
       <c r="C212" t="str">
-        <v>di Giuseppe Antonio Perrelli</v>
+        <v>di Luigi Panella</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Revival Giorgio Martino: “Ho visto Maradona segnare il gol del secolo, Merckx piangere per il doping. Alì e Frazier massacrarsi sul ring: ecco perché la Rai li censurò”</v>
+        <v/>
       </c>
       <c r="B213" t="str">
-        <v>https://www.repubblica.it/sport/calcio/2024/09/07/news/giorgio_martino_oggi_telecronista_giornalista_maradona_ali-423482943/</v>
+        <v>https://www.repubblica.it/spettacoli/2024/11/09/news/demo_morselli_intervista_orchestra_maurizio_costanzo_baffi_gino_paoli_tv_pensione-423601576/</v>
       </c>
       <c r="C213" t="str">
-        <v>di Giuseppe Antonio Perrelli</v>
+        <v>di Gennaro Totorizzo</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v/>
+        <v>Revival Demo Morselli: “Non reggevo i ritmi di Costanzo. Presi una pausa, nessuno mi ha richiamato”</v>
       </c>
       <c r="B214" t="str">
-        <v>https://www.repubblica.it/moda-e-beauty/2024/09/18/news/women_up_storia_alice_soffitto_cristallo_maternita_diritti-423507662/</v>
+        <v>https://www.repubblica.it/spettacoli/2024/11/09/news/demo_morselli_intervista_orchestra_maurizio_costanzo_baffi_gino_paoli_tv_pensione-423601576/</v>
       </c>
       <c r="C214" t="str">
-        <v>di Sarah Victoria Barberis</v>
+        <v>di Gennaro Totorizzo</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Women Up Alice, ingegnera meccanica: “Mentre ero in maternità il nuovo assunto che avevo formato mi ha comunicato che era diventato il mio capo perché io non c’ero”</v>
+        <v/>
       </c>
       <c r="B215" t="str">
-        <v>https://www.repubblica.it/moda-e-beauty/2024/09/18/news/women_up_storia_alice_soffitto_cristallo_maternita_diritti-423507662/</v>
+        <v>https://www.repubblica.it/salute/2024/11/14/news/malattie_renale_cronica_gravidanza_preeclampsia-423622734/</v>
       </c>
       <c r="C215" t="str">
-        <v>di Sarah Victoria Barberis</v>
+        <v>di Tiziana Moriconi</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v/>
+        <v>Prima della gravidanza, controlla i reni</v>
       </c>
       <c r="B216" t="str">
-        <v>https://www.repubblica.it/moda-e-beauty/2024/09/15/news/infedeli_storie_vere_tradimento_silvia_partner_immaturo_compagno_piu_giovane-423491442/</v>
+        <v>https://www.repubblica.it/salute/2024/11/14/news/malattie_renale_cronica_gravidanza_preeclampsia-423622734/</v>
       </c>
       <c r="C216" t="str">
-        <v>Не найден</v>
+        <v>di Tiziana Moriconi</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Infedeli La storia di Silvia: “Mi sono presa la responsabilità del fallimento del matrimonio, ma prima del tradimento c’è stata la nostra incapacità di sentirci una coppia”</v>
+        <v/>
       </c>
       <c r="B217" t="str">
-        <v>https://www.repubblica.it/moda-e-beauty/2024/09/15/news/infedeli_storie_vere_tradimento_silvia_partner_immaturo_compagno_piu_giovane-423491442/</v>
+        <v>https://www.repubblica.it/tecnologia/2024/11/14/news/il_pensiero_politico_di_elon_musk-423627769/</v>
       </c>
       <c r="C217" t="str">
-        <v>Не найден</v>
+        <v>di Arcangelo Rociola</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v/>
+        <v>Il pensiero politico di Elon Musk</v>
       </c>
       <c r="B218" t="str">
-        <v>https://www.repubblica.it/moda-e-beauty/2024/09/02/news/rinascite_storie_vere_resilienza_roberto_bancarotta-423436359/</v>
+        <v>https://www.repubblica.it/tecnologia/2024/11/14/news/il_pensiero_politico_di_elon_musk-423627769/</v>
       </c>
       <c r="C218" t="str">
-        <v>di Veronica Mazza</v>
+        <v>di Arcangelo Rociola</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Rinascite La storia di Roberto, che “a 35 anni non era ancora adulto” e si è inventato un mestiere grazie ai cani</v>
+        <v/>
       </c>
       <c r="B219" t="str">
-        <v>https://www.repubblica.it/moda-e-beauty/2024/09/02/news/rinascite_storie_vere_resilienza_roberto_bancarotta-423436359/</v>
+        <v>https://www.repubblica.it/il-gusto/2024/11/14/news/benvenuto_brunello_qualita_top_e_prezzi_competitivi_cresce_negli_usa_e_sorpassa_i_francesi-423627581/</v>
       </c>
       <c r="C219" t="str">
-        <v>di Veronica Mazza</v>
+        <v>dalla nostra inviata Lara Loreti</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v/>
+        <v>Qualità top e prezzi competitivi: così il Brunello cresce negli Usa e sorpassa i francesi</v>
       </c>
       <c r="B220" t="str">
-        <v>https://www.repubblica.it/green-and-blue/2024/09/11/news/salice_piangente_caratteristiche_tipi_cura-423491391/</v>
+        <v>https://www.repubblica.it/il-gusto/2024/11/14/news/benvenuto_brunello_qualita_top_e_prezzi_competitivi_cresce_negli_usa_e_sorpassa_i_francesi-423627581/</v>
       </c>
       <c r="C220" t="str">
-        <v>Не найден</v>
+        <v>dalla nostra inviata Lara Loreti</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Il salice piangente: caratteristiche, tipi e cura</v>
+        <v/>
       </c>
       <c r="B221" t="str">
-        <v>https://www.repubblica.it/green-and-blue/2024/09/11/news/salice_piangente_caratteristiche_tipi_cura-423491391/</v>
+        <v>https://www.repubblica.it/la-zampa/2024/11/13/news/cane_divorzio_abbandono_abbraccio_volontaria_adozione-423617272/</v>
       </c>
       <c r="C221" t="str">
-        <v>Не найден</v>
+        <v>di Noemi Penna</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v/>
+        <v>I suoi divorziano e il cane Tokyo viene abbandonato, l’abbraccio con la volontaria tocca il cuore</v>
       </c>
       <c r="B222" t="str">
-        <v>https://www.repubblica.it/tecnologia/2024/09/22/news/alfredo_de_massis_lo_studioso_piu_influente_al_mondo_del_family_business_torno_al_sud_per_fare_la_differenza-423509630/</v>
+        <v>https://www.repubblica.it/la-zampa/2024/11/13/news/cane_divorzio_abbandono_abbraccio_volontaria_adozione-423617272/</v>
       </c>
       <c r="C222" t="str">
-        <v>di Eleonora Chioda</v>
+        <v>di Noemi Penna</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Alfredo De Massis, lo studioso più influente al mondo del family business: “Torno al Sud per fare la differenza”</v>
+        <v/>
       </c>
       <c r="B223" t="str">
-        <v>https://www.repubblica.it/tecnologia/2024/09/22/news/alfredo_de_massis_lo_studioso_piu_influente_al_mondo_del_family_business_torno_al_sud_per_fare_la_differenza-423509630/</v>
+        <v>https://www.repubblica.it/green-and-blue/2024/11/13/news/scie_voli_aerei_tragitto_emissioni-423619122/</v>
       </c>
       <c r="C223" t="str">
-        <v>di Eleonora Chioda</v>
+        <v>di Pasquale Raicaldo</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v/>
+        <v>Lo studio T&amp;E: “Meno scie e cambio di tragitto per il 3% dei voli per dimezzare le emissioni”</v>
       </c>
       <c r="B224" t="str">
-        <v>https://www.repubblica.it/il-gusto/2024/09/21/news/dieci_pecorini_da_scoprire_regioni_italia-423512967/</v>
+        <v>https://www.repubblica.it/green-and-blue/2024/11/13/news/scie_voli_aerei_tragitto_emissioni-423619122/</v>
       </c>
       <c r="C224" t="str">
-        <v>di Jacopo Fontaneto</v>
+        <v>di Pasquale Raicaldo</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Ecco i migliori 10 pecorini da scoprire in giro per l’Italia</v>
+        <v/>
       </c>
       <c r="B225" t="str">
-        <v>https://www.repubblica.it/il-gusto/2024/09/21/news/dieci_pecorini_da_scoprire_regioni_italia-423512967/</v>
+        <v>https://www.alfemminile.com/culture/intervista-malika-ayane-nuovo-tour/</v>
       </c>
       <c r="C225" t="str">
-        <v>di Jacopo Fontaneto</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v/>
+        <v>Di "musica e birrette" con Malika Ayane</v>
       </c>
       <c r="B226" t="str">
-        <v>https://www.repubblica.it/la-zampa/2024/09/20/news/cane_anziano_eutanasia_trasformazione-423510762/</v>
+        <v>https://www.alfemminile.com/culture/intervista-malika-ayane-nuovo-tour/</v>
       </c>
       <c r="C226" t="str">
-        <v>di Isabella Amato</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>La trasformazione di Theodore, il cane anziano con un occhio solo salvato dall’eutanasia</v>
+        <v/>
       </c>
       <c r="B227" t="str">
-        <v>https://www.repubblica.it/la-zampa/2024/09/20/news/cane_anziano_eutanasia_trasformazione-423510762/</v>
+        <v>https://www.repubblica.it/motori/2024/11/14/news/sealion_7_il_suv_sportivo_elettrico_comodo_e_veloce_targato_byd_la_prova-423628719/</v>
       </c>
       <c r="C227" t="str">
-        <v>di Isabella Amato</v>
+        <v>di Roberto Gurian</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v/>
+        <v>Sealion 7, Il Suv sportivo elettrico comodo e veloce targato Byd. La prova</v>
       </c>
       <c r="B228" t="str">
-        <v>https://www.repubblica.it/salute/2024/09/18/news/allattamento_al_seno_tele-supporto_per_mamma_e_papa-423507332/</v>
+        <v>https://www.repubblica.it/motori/2024/11/14/news/sealion_7_il_suv_sportivo_elettrico_comodo_e_veloce_targato_byd_la_prova-423628719/</v>
       </c>
       <c r="C228" t="str">
-        <v>di Valentina Arcovio</v>
+        <v>di Roberto Gurian</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Allattamento al seno: quanto è importante il tele-supporto per mamma e papà</v>
+        <v/>
       </c>
       <c r="B229" t="str">
-        <v>https://www.repubblica.it/salute/2024/09/18/news/allattamento_al_seno_tele-supporto_per_mamma_e_papa-423507332/</v>
+        <v>https://www.repubblica.it/salute/dossier/ospedali-di-eccellenza/2024/11/11/news/tumore_testicolo_autopalpazione_screening-423610302/</v>
       </c>
       <c r="C229" t="str">
-        <v>di Valentina Arcovio</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v/>
+        <v>Tumore del testicolo, come scoprirlo in tempo</v>
       </c>
       <c r="B230" t="str">
-        <v>https://www.alfemminile.com/idee-e-persone/catcalling-molestie-violenza-una-donna-su-due-ha-paura-a-uscire-da-sola-la-sera/</v>
+        <v>https://www.repubblica.it/salute/dossier/ospedali-di-eccellenza/2024/11/11/news/tumore_testicolo_autopalpazione_screening-423610302/</v>
       </c>
       <c r="C230" t="str">
         <v>Не найден</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Catcalling, molestie e violenza: intervista a Laura De Dilectis, fondatrice di donnexstrada</v>
+        <v>Urologia in Italia, dove andare</v>
       </c>
       <c r="B231" t="str">
-        <v>https://www.alfemminile.com/idee-e-persone/catcalling-molestie-violenza-una-donna-su-due-ha-paura-a-uscire-da-sola-la-sera/</v>
+        <v>https://www.salute.eu/ospedali/ricerca/urologia/</v>
       </c>
       <c r="C231" t="str">
         <v>Не найден</v>
@@ -2948,21 +2948,21 @@
         <v/>
       </c>
       <c r="B232" t="str">
-        <v>https://www.repubblica.it/motori/2024/09/21/news/la_nautica_italiana_tira_e_il_salone_di_genova_fa_il_pieno_di_anteprime_anche_tra_i_daycruiser_ecco_alcune_novita-423514115/</v>
+        <v>https://www.repubblica.it/dossier/cronaca/la-repubblica-dei-cavalli/2024/11/11/news/verona_sophie_hinners_prima_donna_a_vincere_la_tappa_italiana_della_coppa_del_mondo-423616628/</v>
       </c>
       <c r="C232" t="str">
-        <v>di Maurilio Rigo</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>La nautica italiana tira e il Salone di Genova fa il pieno di anteprime. Anche tra i daycruiser. Ecco alcune novità</v>
+        <v>Sophie Hinners prima donna a vincere la tappa italiana della coppa del Mondo</v>
       </c>
       <c r="B233" t="str">
-        <v>https://www.repubblica.it/motori/2024/09/21/news/la_nautica_italiana_tira_e_il_salone_di_genova_fa_il_pieno_di_anteprime_anche_tra_i_daycruiser_ecco_alcune_novita-423514115/</v>
+        <v>https://www.repubblica.it/dossier/cronaca/la-repubblica-dei-cavalli/2024/11/11/news/verona_sophie_hinners_prima_donna_a_vincere_la_tappa_italiana_della_coppa_del_mondo-423616628/</v>
       </c>
       <c r="C233" t="str">
-        <v>di Maurilio Rigo</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="234">
@@ -2970,21 +2970,21 @@
         <v/>
       </c>
       <c r="B234" t="str">
-        <v>https://www.consigli.it/capelli-bianchi-farli-tornare-colore-naturale</v>
+        <v>https://www.repubblica.it/politica/2024/11/14/news/mattarella_musk_migranti_giudici_italiani-423621668/?ref=-BH-I0-P-S1-F</v>
       </c>
       <c r="C234" t="str">
-        <v>Не найден</v>
+        <v>di Concetto Vecchio</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Capelli bianchi: ecco come farli tornare del colore naturale senza usare tinture</v>
+        <v>“L’Italia è capace di badare a se stessa”. Altolà di Mattarella agli affondi di Musk</v>
       </c>
       <c r="B235" t="str">
-        <v>https://www.consigli.it/capelli-bianchi-farli-tornare-colore-naturale</v>
+        <v>https://www.repubblica.it/politica/2024/11/14/news/mattarella_musk_migranti_giudici_italiani-423621668/?ref=-BH-I0-P-S1-T1</v>
       </c>
       <c r="C235" t="str">
-        <v>Не найден</v>
+        <v>di Concetto Vecchio</v>
       </c>
     </row>
     <row r="236">
@@ -2992,21 +2992,21 @@
         <v/>
       </c>
       <c r="B236" t="str">
-        <v>https://www.repubblica.it/dossier/cronaca/la-repubblica-dei-cavalli/2024/09/04/news/arcese_e_italiano_il_grande_vecchio_del_reining_mondiale-423478775/</v>
+        <v>https://www.repubblica.it/politica/2024/11/14/news/orsini_tajani_scontro_genocidio_gaza-423627462/?ref=-BH-I0-P-S2-F</v>
       </c>
       <c r="C236" t="str">
-        <v>di Luca  Fraioli</v>
+        <v>di Stefano Baldolini</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Arcese, è italiano il grande vecchio del reining mondiale</v>
+        <v>“Corresponsabile di genocidio a Gaza”. “Cattivi maestri fomentano violenza”. Scontro Orsini-Tajani</v>
       </c>
       <c r="B237" t="str">
-        <v>https://www.repubblica.it/dossier/cronaca/la-repubblica-dei-cavalli/2024/09/04/news/arcese_e_italiano_il_grande_vecchio_del_reining_mondiale-423478775/</v>
+        <v>https://www.repubblica.it/politica/2024/11/14/news/orsini_tajani_scontro_genocidio_gaza-423627462/?ref=-BH-I0-P-S2-T1</v>
       </c>
       <c r="C237" t="str">
-        <v>di Luca  Fraioli</v>
+        <v>di Stefano Baldolini</v>
       </c>
     </row>
     <row r="238">
@@ -3014,21 +3014,21 @@
         <v/>
       </c>
       <c r="B238" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/20/news/fedez_tony_effe_dissing_canzone_chiara-423511871/?ref=-BH-I0-P-S1-F</v>
+        <v>https://www.repubblica.it/politica/2024/11/14/news/musk_attacco_giudici_italiani_silvia_albano_lascia_x-423626980/?ref=-BH-I0-P-S3-F</v>
       </c>
       <c r="C238" t="str">
-        <v>di Stefano Cappellini</v>
+        <v>di Viola Giannoli</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Hanno tutti ragione | Soldi, coca e donne oggetto: Fedez e Tony Effe aprono una fogna e la chiamano dissing</v>
+        <v>Musk attacca i magistrati italiani e la giudice dei migranti Albano lascia X</v>
       </c>
       <c r="B239" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/20/news/fedez_tony_effe_dissing_canzone_chiara-423511871/?ref=-BH-I0-P-S1-T1</v>
+        <v>https://www.repubblica.it/politica/2024/11/14/news/musk_attacco_giudici_italiani_silvia_albano_lascia_x-423626980/?ref=-BH-I0-P-S3-T1</v>
       </c>
       <c r="C239" t="str">
-        <v>di Stefano Cappellini</v>
+        <v>di Viola Giannoli</v>
       </c>
     </row>
     <row r="240">
@@ -3036,21 +3036,21 @@
         <v/>
       </c>
       <c r="B240" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/21/news/meloni_musk_atlantic_council_imbarazzo-423512583/?ref=-BH-I0-P-S2-F</v>
+        <v>https://www.repubblica.it/politica/2024/11/14/news/sondaggi_politici_fdi_lega_pd-423624018/?ref=-BH-I0-P-S4-F</v>
       </c>
       <c r="C240" t="str">
-        <v>di Tommaso Ciriaco (Roma) e dal nostro corrispondente Paolo Mastrolilli (New York) -</v>
+        <v>a cura della redazione Politica</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Meloni si fa premiare da Musk, l’Atlantic Council in imbarazzo</v>
+        <v>Sondaggi politici, crescono FdI e Pd. Lega e Forza Italia appaiati</v>
       </c>
       <c r="B241" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/21/news/meloni_musk_atlantic_council_imbarazzo-423512583/?ref=-BH-I0-P-S2-T1</v>
+        <v>https://www.repubblica.it/politica/2024/11/14/news/sondaggi_politici_fdi_lega_pd-423624018/?ref=-BH-I0-P-S4-T1</v>
       </c>
       <c r="C241" t="str">
-        <v>di Tommaso Ciriaco (Roma) e dal nostro corrispondente Paolo Mastrolilli (New York) -</v>
+        <v>a cura della redazione Politica</v>
       </c>
     </row>
     <row r="242">
@@ -3058,21 +3058,21 @@
         <v/>
       </c>
       <c r="B242" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/21/news/emilia_romagna_alluvione_perche_succede_ancora-423512442/?ref=-BH-I0-P-S3-F</v>
+        <v>https://www.repubblica.it/politica/2024/11/14/news/ponte_stretto_messina_blitz_lega_aumento_fondi-423627381/?ref=-BH-I0-P-S5-F</v>
       </c>
       <c r="C242" t="str">
-        <v>di Elena Dusi</v>
+        <v>di Antonio Fraschilla</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>L’Emilia Romagna e l’eterna emergenza: “Colpa di cemento, clima e torrenti”</v>
+        <v>La Lega con un blitz vuole aumentare i soldi per il Ponte e togliere 6 miliardi di fondi al Sud</v>
       </c>
       <c r="B243" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/21/news/emilia_romagna_alluvione_perche_succede_ancora-423512442/?ref=-BH-I0-P-S3-T1</v>
+        <v>https://www.repubblica.it/politica/2024/11/14/news/ponte_stretto_messina_blitz_lega_aumento_fondi-423627381/?ref=-BH-I0-P-S5-T1</v>
       </c>
       <c r="C243" t="str">
-        <v>di Elena Dusi</v>
+        <v>di Antonio Fraschilla</v>
       </c>
     </row>
     <row r="244">
@@ -3080,21 +3080,21 @@
         <v/>
       </c>
       <c r="B244" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/21/news/caso_sace_blackrock_3_miliardi_pd_m5s_giorgetti_parlamento-423512970/?ref=-BH-I0-P-S4-F</v>
+        <v>https://bologna.repubblica.it/cronaca/2024/11/15/news/federico_serra_candidato_elezioni_emilia_romagna_pace_ambiente_lavoro-423628902/?ref=-BH-I0-P-S6-F</v>
       </c>
       <c r="C244" t="str">
-        <v>di Giuseppe Colombo, Antonio Fraschilla</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Il caso Sace-BlackRock da 3 miliardi finisce in Parlamento: Pd e 5S chiedono a Giorgetti di riferire in aula</v>
+        <v>Federico Serra, con la sinistra radicale per mettere al centro ambiente e lavoro</v>
       </c>
       <c r="B245" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/21/news/caso_sace_blackrock_3_miliardi_pd_m5s_giorgetti_parlamento-423512970/?ref=-BH-I0-P-S4-T1</v>
+        <v>https://bologna.repubblica.it/cronaca/2024/11/15/news/federico_serra_candidato_elezioni_emilia_romagna_pace_ambiente_lavoro-423628902/?ref=-BH-I0-P-S6-T1</v>
       </c>
       <c r="C245" t="str">
-        <v>di Giuseppe Colombo, Antonio Fraschilla</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="246">
@@ -3102,21 +3102,21 @@
         <v/>
       </c>
       <c r="B246" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/20/news/renzi_italia_viva_pd-423512618/?ref=-BH-I0-P-S5-F</v>
+        <v>https://bologna.repubblica.it/cronaca/2024/11/15/news/luca_teodori_candidato_elezioni_emilia_romagna_lealta_coerenza_verita-423628873/?ref=-BH-I0-P-S7-F</v>
       </c>
       <c r="C246" t="str">
-        <v>di Federica Venni</v>
+        <v>di Eleonora Capelli</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>Renzi celebra Italia viva: "Non torno nel Pd, saremo la spina nel fianco del centrosinistra"</v>
+        <v>Luca Teodori, l’ex leghista, contrario ai vaccini, che sostiene la famiglia tradizionale</v>
       </c>
       <c r="B247" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/20/news/renzi_italia_viva_pd-423512618/?ref=-BH-I0-P-S5-T1</v>
+        <v>https://bologna.repubblica.it/cronaca/2024/11/15/news/luca_teodori_candidato_elezioni_emilia_romagna_lealta_coerenza_verita-423628873/?ref=-BH-I0-P-S7-T1</v>
       </c>
       <c r="C247" t="str">
-        <v>di Federica Venni</v>
+        <v>di Eleonora Capelli</v>
       </c>
     </row>
     <row r="248">
@@ -3124,21 +3124,21 @@
         <v/>
       </c>
       <c r="B248" t="str">
-        <v>https://roma.repubblica.it/cronaca/2024/09/22/news/maria_rosaria_boccia_sangiuliano_sequestro_imane_khelif-423514514/?ref=-BH-I0-P-S6-F</v>
+        <v>https://bologna.repubblica.it/cronaca/2024/11/15/news/elena_ugolini_candidata_elezioni_emilia_romagna_centrodestra-423628864/?ref=-BH-I0-P-S8-F</v>
       </c>
       <c r="C248" t="str">
-        <v>di Andrea Ossino</v>
+        <v>di Eleonora Capelli</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>Boccia torna “online”, dopo il maxi sequestro compra due nuovi cellulari. E si paragona a Imane Khelif</v>
+        <v>Elena Ugolini, da direttrice del Malpighi a candidata civica del centrodestra</v>
       </c>
       <c r="B249" t="str">
-        <v>https://roma.repubblica.it/cronaca/2024/09/22/news/maria_rosaria_boccia_sangiuliano_sequestro_imane_khelif-423514514/?ref=-BH-I0-P-S6-T1</v>
+        <v>https://bologna.repubblica.it/cronaca/2024/11/15/news/elena_ugolini_candidata_elezioni_emilia_romagna_centrodestra-423628864/?ref=-BH-I0-P-S8-T1</v>
       </c>
       <c r="C249" t="str">
-        <v>di Andrea Ossino</v>
+        <v>di Eleonora Capelli</v>
       </c>
     </row>
     <row r="250">
@@ -3146,21 +3146,21 @@
         <v/>
       </c>
       <c r="B250" t="str">
-        <v>https://bologna.repubblica.it/cronaca/2024/09/22/news/prodi_alluvione_emilia-romagna_responsabilita_del_governo_indubitabile-423514385/?ref=-BH-I0-P-S7-F</v>
+        <v>https://bologna.repubblica.it/cronaca/2024/11/15/news/michele_de_pascale_candidato_elezioni_emilia-romagna_centrosinistra-423628845/?ref=-BH-I0-P-S9-F</v>
       </c>
       <c r="C250" t="str">
-        <v>di Eleonora Capelli</v>
+        <v>di Silvia Bignami</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>Alluvione, l’affondo di Prodi: “E’ da corvi attaccare chi ha l’acqua alla cintola. La responsabilità del governo è indubitabile”</v>
+        <v>Michele de Pascale, il sindaco che ha saputo “legare la sabbia” e tenere unito il centrosinistra</v>
       </c>
       <c r="B251" t="str">
-        <v>https://bologna.repubblica.it/cronaca/2024/09/22/news/prodi_alluvione_emilia-romagna_responsabilita_del_governo_indubitabile-423514385/?ref=-BH-I0-P-S7-T1</v>
+        <v>https://bologna.repubblica.it/cronaca/2024/11/15/news/michele_de_pascale_candidato_elezioni_emilia-romagna_centrosinistra-423628845/?ref=-BH-I0-P-S9-T1</v>
       </c>
       <c r="C251" t="str">
-        <v>di Eleonora Capelli</v>
+        <v>di Silvia Bignami</v>
       </c>
     </row>
     <row r="252">
@@ -3168,21 +3168,21 @@
         <v/>
       </c>
       <c r="B252" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/22/news/rita_dalla_chiesa_padre_andreotti_morte-423514118/?ref=-BH-I0-P-S8-F</v>
+        <v>https://www.repubblica.it/politica/2024/11/12/video/la_gaffe_di_meloni_con_me_la_disoccupazione_femminile_ai_massimi_di_sempre-423612248/</v>
       </c>
       <c r="C252" t="str">
-        <v>di Lirio Abbate</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>“So chi è il politico che voleva papà morto”, Rita Dalla Chiesa choc punta il dito su Andreotti</v>
+        <v>Il lapsus di Meloni: "Fiera che con me la disoccupazione femminile sia ai massimi di sempre"</v>
       </c>
       <c r="B253" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/22/news/rita_dalla_chiesa_padre_andreotti_morte-423514118/?ref=-BH-I0-P-S8-T1</v>
+        <v>https://www.repubblica.it/politica/2024/11/12/video/la_gaffe_di_meloni_con_me_la_disoccupazione_femminile_ai_massimi_di_sempre-423612248/</v>
       </c>
       <c r="C253" t="str">
-        <v>di Lirio Abbate</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="254">
@@ -3190,21 +3190,21 @@
         <v/>
       </c>
       <c r="B254" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/22/news/g7_agricoltura_siracusa_lollobrigida_meloni-423514085/?ref=-BH-I0-P-S9-F</v>
+        <v>https://www.repubblica.it/green-and-blue/2024/11/14/video/alieni_dal_granchio_blu_alla_formica_di_fuoco_le_specie_invasive_che_minacciano_litalia-423621892/</v>
       </c>
       <c r="C254" t="str">
-        <v>dal nostro inviato Antonio Fraschilla</v>
+        <v>di Davide Cavalleri</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>Blitz di Meloni al G7 di Ortigia e Lollobrigida finisce sotto esame</v>
+        <v>Alieni. Dal granchio blu alla formica di fuoco: le specie invasive che minacciano l'Italia</v>
       </c>
       <c r="B255" t="str">
-        <v>https://www.repubblica.it/politica/2024/09/22/news/g7_agricoltura_siracusa_lollobrigida_meloni-423514085/?ref=-BH-I0-P-S9-T1</v>
+        <v>https://www.repubblica.it/green-and-blue/2024/11/14/video/alieni_dal_granchio_blu_alla_formica_di_fuoco_le_specie_invasive_che_minacciano_litalia-423621892/</v>
       </c>
       <c r="C255" t="str">
-        <v>dal nostro inviato Antonio Fraschilla</v>
+        <v>di Davide Cavalleri</v>
       </c>
     </row>
     <row r="256">
@@ -3212,7 +3212,7 @@
         <v/>
       </c>
       <c r="B256" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/21/video/maltempo_allarme_danubio_in_ungheria_budapest_si_prepara_al_picco_della_piena-423513344/</v>
+        <v>https://www.repubblica.it/video/socialnews/2024/11/14/video/nuova_zelanda_la_protesta_dei_membri_maori_in_parlamento_la_haka_ferma_i_lavori_dellaula-423622528/</v>
       </c>
       <c r="C256" t="str">
         <v>Не найден</v>
@@ -3220,10 +3220,10 @@
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>Allarme Danubio in Ungheria: Budapest si prepara al picco della piena</v>
+        <v>La protesta dei membri Maori in Parlamento: la Haka ferma i lavori dell'Aula</v>
       </c>
       <c r="B257" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/21/video/maltempo_allarme_danubio_in_ungheria_budapest_si_prepara_al_picco_della_piena-423513344/</v>
+        <v>https://www.repubblica.it/video/socialnews/2024/11/14/video/nuova_zelanda_la_protesta_dei_membri_maori_in_parlamento_la_haka_ferma_i_lavori_dellaula-423622528/</v>
       </c>
       <c r="C257" t="str">
         <v>Не найден</v>
@@ -3234,7 +3234,7 @@
         <v/>
       </c>
       <c r="B258" t="str">
-        <v>https://www.repubblica.it/video/socialnews/2024/09/21/video/india_la_strada_collassa_allimprovviso_e_il_camion_sparisce_nella_voragine_le_immagini_delle_telecamere_di_sicurezza-423513175/</v>
+        <v>https://www.repubblica.it/sport/calcio/2024/11/11/video/la_repubblica_del_pallone_-_var_scudetto_roma_tutti_nel_labirinto-423611201/</v>
       </c>
       <c r="C258" t="str">
         <v>Не найден</v>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>La strada collassa all'improvviso e il camion sparisce nella voragine: le immagini delle telecamere di sicurezza</v>
+        <v>La Repubblica del Pallone Var, scudetto, Roma: tutti nel labirinto</v>
       </c>
       <c r="B259" t="str">
-        <v>https://www.repubblica.it/video/socialnews/2024/09/21/video/india_la_strada_collassa_allimprovviso_e_il_camion_sparisce_nella_voragine_le_immagini_delle_telecamere_di_sicurezza-423513175/</v>
+        <v>https://www.repubblica.it/sport/calcio/2024/11/11/video/la_repubblica_del_pallone_-_var_scudetto_roma_tutti_nel_labirinto-423611201/</v>
       </c>
       <c r="C259" t="str">
         <v>Не найден</v>
@@ -3256,7 +3256,7 @@
         <v/>
       </c>
       <c r="B260" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/21/video/la_tempesta_tropicale_si_abbatte_su_shanghai_il_momento_in_cui_il_tornado_tocca_terra-423513008/</v>
+        <v>https://roma.repubblica.it/cronaca/2024/11/11/video/roma_parcheggia_in_divieto_di_sosta_e_causa_un_max_ingorgo_a_due_passi_da_san_pietro-423611330/</v>
       </c>
       <c r="C260" t="str">
         <v>Не найден</v>
@@ -3264,10 +3264,10 @@
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>La tempesta tropicale si abbatte su Shanghai: il momento in cui il tornado tocca terra</v>
+        <v>Parcheggia in divieto di sosta e causa un maxi-ingorgo a due passi da San Pietro</v>
       </c>
       <c r="B261" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/21/video/la_tempesta_tropicale_si_abbatte_su_shanghai_il_momento_in_cui_il_tornado_tocca_terra-423513008/</v>
+        <v>https://roma.repubblica.it/cronaca/2024/11/11/video/roma_parcheggia_in_divieto_di_sosta_e_causa_un_max_ingorgo_a_due_passi_da_san_pietro-423611330/</v>
       </c>
       <c r="C261" t="str">
         <v>Не найден</v>
@@ -3278,62 +3278,62 @@
         <v/>
       </c>
       <c r="B262" t="str">
-        <v>https://palermo.repubblica.it/cronaca/2024/09/20/video/schillaci_il_ricordo_della_figlia_jessica_lultima_nostra_notte_magica_dove_papa_non_mi_voleva_lasciare-423511763/</v>
+        <v>https://www.repubblica.it/economia/rubriche/outlook/2024/11/13/news/tutti_i_conflitti_di_musk_che_trump_ha_voluto_ignorare-423617161/?ref=-BH-I0-P-S2-F</v>
       </c>
       <c r="C262" t="str">
-        <v>di Alessandro Puglia</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>Il ricordo della figlia Jessica: "L'ultima nostra notte magica dove papà non mi voleva lasciare"</v>
+        <v>Tutti i conflitti di Musk che Trump ha voluto ignorare</v>
       </c>
       <c r="B263" t="str">
-        <v>https://palermo.repubblica.it/cronaca/2024/09/20/video/schillaci_il_ricordo_della_figlia_jessica_lultima_nostra_notte_magica_dove_papa_non_mi_voleva_lasciare-423511763/</v>
+        <v>https://www.repubblica.it/economia/rubriche/outlook/2024/11/13/news/tutti_i_conflitti_di_musk_che_trump_ha_voluto_ignorare-423617161/?ref=-BH-I0-P-S2-T1</v>
       </c>
       <c r="C263" t="str">
-        <v>di Alessandro Puglia</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v/>
+        <v>Vertice sull’automotive, Stellantis conferma i suoi piani per l’Italia</v>
       </c>
       <c r="B264" t="str">
-        <v>https://www.repubblica.it/il-gusto/dossier/fake-news-cibo-bufale-alimentazione/2024/09/18/video/alluminio_fake_news_sul_cibo_la_carta_stagnola_per_alimenti_fa_male_la_risposta_dellesperto-423507883/</v>
+        <v>https://www.repubblica.it/economia/2024/11/15/news/vertice_automotive_stellantis_piano_per_l_italia-423628702/?ref=-BH-I0-P-S3-T1</v>
       </c>
       <c r="C264" t="str">
-        <v>di Tecla Biancolatte</v>
+        <v>di Diego Longhin</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>Fake news sul cibo: "La carta stagnola per alimenti fa male?". La risposta dell'esperto</v>
+        <v>Assicurazione Fwu, speranza per i clienti: rafforza il capitale. Ma i riscatti restano bloccati</v>
       </c>
       <c r="B265" t="str">
-        <v>https://www.repubblica.it/il-gusto/dossier/fake-news-cibo-bufale-alimentazione/2024/09/18/video/alluminio_fake_news_sul_cibo_la_carta_stagnola_per_alimenti_fa_male_la_risposta_dellesperto-423507883/</v>
+        <v>https://www.repubblica.it/economia/diritti-e-consumi/risparmio/2024/11/14/news/assicurazione_fwu_speranza_per_i_clienti_rafforza_il_capitale_ma_i_riscatti_restano_bloccati-423626598/?ref=-BH-I0-P-S4-T1</v>
       </c>
       <c r="C265" t="str">
-        <v>di Tecla Biancolatte</v>
+        <v>di Federico Formica</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>Le puntate precedenti</v>
+        <v/>
       </c>
       <c r="B266" t="str">
-        <v>https://www.repubblica.it/il-gusto/dossier/fake-news-cibo-bufale-alimentazione/</v>
+        <v>https://www.repubblica.it/economia/2024/11/15/diretta/borse_oggi_15_novembre_asia_contrastata_trump-423628963/?ref=-BH-I0-P-S1-F</v>
       </c>
       <c r="C266" t="str">
-        <v>di Tecla Biancolatte</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v/>
+        <v>Le Borse di oggi 15 novembre. Piazze contrastate in Asia, mercati nervosi per le mosse di Trump</v>
       </c>
       <c r="B267" t="str">
-        <v>https://www.repubblica.it/economia/finanza/2024/09/21/news/intel-qualcomm_prove_di_nozze_per_il_rilancio_dei_chip_made_in_usa-423513183/?ref=-BH-I0-P-S2-F</v>
+        <v>https://www.repubblica.it/economia/2024/11/15/diretta/borse_oggi_15_novembre_asia_contrastata_trump-423628963/?ref=-BH-I0-P-S1-T1</v>
       </c>
       <c r="C267" t="str">
         <v>Не найден</v>
@@ -3341,128 +3341,128 @@
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>Intel-Qualcomm, prove di nozze per il rilancio dei chip made in Usa</v>
+        <v>Scontri aerei-volatili, l’algoritmo li prevede</v>
       </c>
       <c r="B268" t="str">
-        <v>https://www.repubblica.it/economia/finanza/2024/09/21/news/intel-qualcomm_prove_di_nozze_per_il_rilancio_dei_chip_made_in_usa-423513183/?ref=-BH-I0-P-S2-T1</v>
+        <v>https://www.repubblica.it/economia/2024/11/15/news/scontri_aerei-volatili_l_algoritmo_li_prevede-423629267/?ref=-BH-I0-P-S5-T1</v>
       </c>
       <c r="C268" t="str">
-        <v>Не найден</v>
+        <v>di Aldo Fontanarosa</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>Eredità Agnelli, sequestro preventivo da 74,8 milioni ai fratelli Elkann</v>
+        <v>La Commissione Ue taglia le stime sul Pil italiano: obiettivi del governo fuori portata</v>
       </c>
       <c r="B269" t="str">
-        <v>https://torino.repubblica.it/cronaca/2024/09/20/news/eredita_agnelli_sequestro_john_elkann_lapo_ginevra-423512267/?ref=-BH-I0-P-S3-T1</v>
+        <v>https://www.repubblica.it/economia/2024/11/15/news/la_commissione_ue_taglia_le_stime_sul_pil_italiano_obiettivi_del_governo_fuori_portata-423629218/?ref=-BH-I0-P-S6-T1</v>
       </c>
       <c r="C269" t="str">
-        <v>a cura della redazione Torino</v>
+        <v>dal nostro corrispondente Claudio Tito</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>Dollaro, yen o sterline? Come investire nelle valute dopo il taglio dei tassi di Fed e Bce</v>
+        <v>Generali, l’utile netto sale a 3 miliardi. E il titolo vola in Borsa dopo i conti: +4,5%</v>
       </c>
       <c r="B270" t="str">
-        <v>https://www.repubblica.it/economia/finanza/2024/09/21/news/taglio_tassi_fed_bce_dollaro_yen_sterline_investimento_valute-423513292/?ref=-BH-I0-P-S4-T1</v>
+        <v>https://www.repubblica.it/economia/2024/11/15/news/generali_conti_utile_3_miliardi-423629076/?ref=-BH-I0-P-S7-T1</v>
       </c>
       <c r="C270" t="str">
-        <v>Не найден</v>
+        <v>a cura della redazione Economia</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v/>
+        <v>Aerotaxi, il governo frena l’alleanza tra la Manta (Varese) e i cinesi</v>
       </c>
       <c r="B271" t="str">
-        <v>https://www.repubblica.it/economia/2024/09/22/news/mef_asterion_sparkle_tim_cavi_sottomarini-423514099/?ref=-BH-I0-P-S1-F</v>
+        <v>https://www.repubblica.it/economia/2024/11/15/news/aerotaxi_manta_golden_power_cina-423629149/?ref=-BH-I0-P-S8-T1</v>
       </c>
       <c r="C271" t="str">
-        <v>Sara Bennewitz</v>
+        <v>di Aldo Fontanarosa</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>Mef-Asterion, arriva l’offerta su Sparkle. Tim pronta a vendere la società dei cavi</v>
+        <v/>
       </c>
       <c r="B272" t="str">
-        <v>https://www.repubblica.it/economia/2024/09/22/news/mef_asterion_sparkle_tim_cavi_sottomarini-423514099/?ref=-BH-I0-P-S1-T1</v>
+        <v>https://www.repubblica.it/rubriche/la-giornata/2024/05/16/rubrica/la_giornata-422977982/</v>
       </c>
       <c r="C272" t="str">
-        <v>Sara Bennewitz</v>
+        <v>di Laura Pertici</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>Tagliare le spese fiscali. Ecco perché il governo dovrebbe toccare la sanità. Ma non può farlo</v>
+        <v>La mancata Autonomia</v>
       </c>
       <c r="B273" t="str">
-        <v>https://www.repubblica.it/economia/2024/09/22/news/tagliare_le_spese_fiscali_ecco_perche_il_governo_dovrebbe_toccare_la_sanita_ma_non_puo_farlo-423513456/?ref=-BH-I0-P-S5-T1</v>
+        <v>https://www.repubblica.it/rubriche/la-giornata/2024/05/16/rubrica/la_giornata-422977982/</v>
       </c>
       <c r="C273" t="str">
-        <v>a cura di Osservatorio Conti Pubblici Italiani</v>
+        <v>di Laura Pertici</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>Maggioranza divisa sulle polizze calamità. Salvini: “No all’obbligo”</v>
+        <v/>
       </c>
       <c r="B274" t="str">
-        <v>https://www.repubblica.it/economia/2024/09/22/news/alluvione_fdi_lega_polizze_calamita_salvini-423514127/?ref=-BH-I0-P-S6-T1</v>
+        <v>https://www.repubblica.it/rubriche/circo-massimo/2024/05/16/rubrica/circo_massimo_-_lo_spettacolo_della_politica-422977344/</v>
       </c>
       <c r="C274" t="str">
-        <v>di Marco Bettazzi,</v>
+        <v>di Massimo Giannini</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>Ecco cosa prevede il piano contro le alluvioni fermo sui tavoli dei ministeri</v>
+        <v>La Consulta affonda la legge Spacca-Italia del governo: ora aspettiamo l'anatema di Musk</v>
       </c>
       <c r="B275" t="str">
-        <v>https://www.repubblica.it/economia/2024/09/22/news/piano_alluvioni_fermo_ministeri-423513928/?ref=-BH-I0-P-S7-T1</v>
+        <v>https://www.repubblica.it/rubriche/circo-massimo/2024/05/16/rubrica/circo_massimo_-_lo_spettacolo_della_politica-422977344/</v>
       </c>
       <c r="C275" t="str">
-        <v>di Elena Dusi</v>
+        <v>di Massimo Giannini</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>Sci, cavalli e Rinascimento. La destra va all’assalto con gli emendamenti-mancia</v>
+        <v/>
       </c>
       <c r="B276" t="str">
-        <v>https://www.repubblica.it/economia/2024/09/22/news/manovra_finanziaria_2024_pensioni_diligenza-423514096/?ref=-BH-I0-P-S8-T1</v>
+        <v>https://www.repubblica.it/rubriche/questioni-di-gusto/2024/05/16/rubrica/questioni_di_gusto-422978807/</v>
       </c>
       <c r="C276" t="str">
-        <v>di     Giuseppe Colombo</v>
+        <v>di Eleonora Cozzella</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v/>
+        <v>Il coccodrillo come fa?</v>
       </c>
       <c r="B277" t="str">
-        <v>https://www.repubblica.it/rubriche/il-podcast-di-molinari/2024/05/16/rubrica/il_podcast_di_molinari-422978774/</v>
+        <v>https://www.repubblica.it/rubriche/questioni-di-gusto/2024/05/16/rubrica/questioni_di_gusto-422978807/</v>
       </c>
       <c r="C277" t="str">
-        <v>di Maurizio Molinari</v>
+        <v>di Eleonora Cozzella</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>Medio Oriente, se la deterrenza cambia volto</v>
+        <v/>
       </c>
       <c r="B278" t="str">
-        <v>https://www.repubblica.it/rubriche/il-podcast-di-molinari/2024/05/16/rubrica/il_podcast_di_molinari-422978774/</v>
+        <v>https://www.repubblica.it/rubriche/la-prima-cosa-bella/2024/05/16/rubrica/la_prima_cosa_bella-422978097/</v>
       </c>
       <c r="C278" t="str">
-        <v>di Maurizio Molinari</v>
+        <v>di Gabriele Romagnoli</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v/>
+        <v>Il pompiere piromane</v>
       </c>
       <c r="B279" t="str">
         <v>https://www.repubblica.it/rubriche/la-prima-cosa-bella/2024/05/16/rubrica/la_prima_cosa_bella-422978097/</v>
@@ -3473,65 +3473,65 @@
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>L'illuminante</v>
+        <v/>
       </c>
       <c r="B280" t="str">
-        <v>https://www.repubblica.it/rubriche/la-prima-cosa-bella/2024/05/16/rubrica/la_prima_cosa_bella-422978097/</v>
+        <v>https://www.repubblica.it/audio/audioarticoli/2024/11/15/audioarticoli/gli_audio_articoli_del_15_novembre_2024-423628783/</v>
       </c>
       <c r="C280" t="str">
-        <v>di Gabriele Romagnoli</v>
+        <v>le firme di Repubblica</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v/>
+        <v>Audioarticoli</v>
       </c>
       <c r="B281" t="str">
-        <v>https://www.repubblica.it/rubriche/questioni-di-gusto/2024/05/16/rubrica/questioni_di_gusto-422978807/</v>
+        <v>https://www.repubblica.it/audio/audioarticoli/2024/11/15/audioarticoli/gli_audio_articoli_del_15_novembre_2024-423628783/</v>
       </c>
       <c r="C281" t="str">
-        <v>di Eleonora Cozzella</v>
+        <v>le firme di Repubblica</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>L'invenzione che cambiò la vita delle casalinghe</v>
+        <v/>
       </c>
       <c r="B282" t="str">
-        <v>https://www.repubblica.it/rubriche/questioni-di-gusto/2024/05/16/rubrica/questioni_di_gusto-422978807/</v>
+        <v>https://www.repubblica.it/sport/calcio/2024/11/12/video/rimonta_squadra_inglese-423613661/</v>
       </c>
       <c r="C282" t="str">
-        <v>di Eleonora Cozzella</v>
+        <v>Davide Fantozzi</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v/>
+        <v>Quattro gol nel recupero, gara ribaltata: da 5-2 a 5-6 in cinque minuti</v>
       </c>
       <c r="B283" t="str">
-        <v>https://www.repubblica.it/audio/audioarticoli/2024/09/22/audioarticoli/gli_audio_articoli_del_22_settembre_2024-423514201/</v>
+        <v>https://www.repubblica.it/sport/calcio/2024/11/12/video/rimonta_squadra_inglese-423613661/</v>
       </c>
       <c r="C283" t="str">
-        <v>le firme di Repubblica</v>
+        <v>Davide Fantozzi</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>Audioarticoli</v>
+        <v/>
       </c>
       <c r="B284" t="str">
-        <v>https://www.repubblica.it/audio/audioarticoli/2024/09/22/audioarticoli/gli_audio_articoli_del_22_settembre_2024-423514201/</v>
+        <v>https://milano.repubblica.it/cronaca/2024/11/13/video/reperti_preistorici_sulle_alpi_orobie_in_valtellina_ritrovato_un_ecosistema_di_280_milioni_di_anni_fa_e_centra_il_cambiam-423618175/</v>
       </c>
       <c r="C284" t="str">
-        <v>le firme di Repubblica</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v/>
+        <v>Si scioglie ghiacciaio, in Valtellina appare ecosistema fossile di 280 milioni di anni</v>
       </c>
       <c r="B285" t="str">
-        <v>https://www.repubblica.it/green-and-blue/2024/09/17/video/una_manta_robot_per_proteggere_le_barriere_coralline-423503860/</v>
+        <v>https://milano.repubblica.it/cronaca/2024/11/13/video/reperti_preistorici_sulle_alpi_orobie_in_valtellina_ritrovato_un_ecosistema_di_280_milioni_di_anni_fa_e_centra_il_cambiam-423618175/</v>
       </c>
       <c r="C285" t="str">
         <v>Не найден</v>
@@ -3539,10 +3539,10 @@
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>Una manta robot per proteggere le barriere coralline</v>
+        <v>L'articolo La scoperta di una escursionista</v>
       </c>
       <c r="B286" t="str">
-        <v>https://www.repubblica.it/green-and-blue/2024/09/17/video/una_manta_robot_per_proteggere_le_barriere_coralline-423503860/</v>
+        <v>https://milano.repubblica.it/cronaca/2024/11/13/news/valtellina_ecosistema_fossile_preistorico_parco_orobie-423617789/</v>
       </c>
       <c r="C286" t="str">
         <v>Не найден</v>
@@ -3553,7 +3553,7 @@
         <v/>
       </c>
       <c r="B287" t="str">
-        <v>https://www.repubblica.it/cronaca/2024/09/21/video/trento_sequestrato_dai_nas_un_punto_nascite_non_autorizzato_effettuavano_parti_senza_autorizzazione_sanitaria-423513284/</v>
+        <v>https://milano.repubblica.it/cronaca/2024/11/13/video/liliana_segre_documentario_cinema_paura-423617219/</v>
       </c>
       <c r="C287" t="str">
         <v>Не найден</v>
@@ -3561,10 +3561,10 @@
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>Sequestrato dai Nas un punto nascite non autorizzato: effettuavano parti senza autorizzazione sanitaria</v>
+        <v>Documentario su Liliana Segre, il regista: "Non abbiamo potuto presentarlo al solito cinema perché hanno paura"</v>
       </c>
       <c r="B288" t="str">
-        <v>https://www.repubblica.it/cronaca/2024/09/21/video/trento_sequestrato_dai_nas_un_punto_nascite_non_autorizzato_effettuavano_parti_senza_autorizzazione_sanitaria-423513284/</v>
+        <v>https://milano.repubblica.it/cronaca/2024/11/13/video/liliana_segre_documentario_cinema_paura-423617219/</v>
       </c>
       <c r="C288" t="str">
         <v>Не найден</v>
@@ -3575,21 +3575,21 @@
         <v/>
       </c>
       <c r="B289" t="str">
-        <v>https://roma.repubblica.it/cronaca/2024/09/21/video/auto_parcheggiata_male_blocca_bus_maxi_ingorgo_in_zona_termini_i_passanti_cercano_di_spostare_lauto_a_braccia-423513013/</v>
+        <v>https://www.repubblica.it/spettacoli/2024/11/13/video/antonio_monda_-_i_film_della_mia_vita_luomo_di_aran-423617646/</v>
       </c>
       <c r="C289" t="str">
-        <v>Не найден</v>
+        <v>di Antonio Monda</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>Auto parcheggiata male blocca bus: i passanti cercano di spostare la macchina a braccia</v>
+        <v>I film della mia vita: 'L'uomo di Aran'</v>
       </c>
       <c r="B290" t="str">
-        <v>https://roma.repubblica.it/cronaca/2024/09/21/video/auto_parcheggiata_male_blocca_bus_maxi_ingorgo_in_zona_termini_i_passanti_cercano_di_spostare_lauto_a_braccia-423513013/</v>
+        <v>https://www.repubblica.it/spettacoli/2024/11/13/video/antonio_monda_-_i_film_della_mia_vita_luomo_di_aran-423617646/</v>
       </c>
       <c r="C290" t="str">
-        <v>Не найден</v>
+        <v>di Antonio Monda</v>
       </c>
     </row>
     <row r="291">
@@ -3597,21 +3597,21 @@
         <v/>
       </c>
       <c r="B291" t="str">
-        <v>https://www.repubblica.it/cronaca/2024/09/17/video/tinder_non_fa_per_noi_siamo_stati_a_una_serata_per_single_di_celestino_costa_e_vi_raccontiamo_come_andata-423504967/</v>
+        <v>https://www.repubblica.it/tecnologia/dossier/techtest/2024/10/31/video/apple_ecco_tutti_i_nuovi_mac_con_m4_cosi_cambiano_i_computer_della_mela-423589305/</v>
       </c>
       <c r="C291" t="str">
-        <v>di Andrea Lattanzi</v>
+        <v>di Tiziano Toniutti</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>"Tinder non fa per noi". Siamo stati a una serata per single di Celestino Costa e vi raccontiamo com'è andata</v>
+        <v>Apple, ecco tutti i nuovi Mac con M4: così cambiano i computer della Mela</v>
       </c>
       <c r="B292" t="str">
-        <v>https://www.repubblica.it/cronaca/2024/09/17/video/tinder_non_fa_per_noi_siamo_stati_a_una_serata_per_single_di_celestino_costa_e_vi_raccontiamo_come_andata-423504967/</v>
+        <v>https://www.repubblica.it/tecnologia/dossier/techtest/2024/10/31/video/apple_ecco_tutti_i_nuovi_mac_con_m4_cosi_cambiano_i_computer_della_mela-423589305/</v>
       </c>
       <c r="C292" t="str">
-        <v>di Andrea Lattanzi</v>
+        <v>di Tiziano Toniutti</v>
       </c>
     </row>
     <row r="293">
@@ -3619,29 +3619,29 @@
         <v/>
       </c>
       <c r="B293" t="str">
-        <v>https://www.repubblica.it/spettacoli/2024/09/18/video/antonio_monda_-_i_film_della_mia_vita_fantozzi-423507111/</v>
+        <v>https://www.repubblica.it/rubriche/l-amaca/2024/11/14/news/l_amaca_del_15_novembre_2024-423627801/?rss</v>
       </c>
       <c r="C293" t="str">
-        <v>di Antonio Monda</v>
+        <v>di Michele Serra</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>I film della mia vita: Fantozzi</v>
+        <v>L'amaca</v>
       </c>
       <c r="B294" t="str">
-        <v>https://www.repubblica.it/spettacoli/2024/09/18/video/antonio_monda_-_i_film_della_mia_vita_fantozzi-423507111/</v>
+        <v>https://www.repubblica.it/rubriche/l-amaca/2024/11/14/news/l_amaca_del_15_novembre_2024-423627801/?rss</v>
       </c>
       <c r="C294" t="str">
-        <v>di Antonio Monda</v>
+        <v>di Michele Serra</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v/>
+        <v>Se la realtà abita altrove</v>
       </c>
       <c r="B295" t="str">
-        <v>https://www.repubblica.it/rubriche/l-amaca/2024/09/21/news/l_amaca_del_22_settembre_2024-423513794/?rss</v>
+        <v>https://www.repubblica.it/rubriche/l-amaca/2024/11/14/news/l_amaca_del_15_novembre_2024-423627801/?rss</v>
       </c>
       <c r="C295" t="str">
         <v>di Michele Serra</v>
@@ -3649,32 +3649,32 @@
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>L'amaca</v>
+        <v/>
       </c>
       <c r="B296" t="str">
-        <v>https://www.repubblica.it/rubriche/l-amaca/2024/09/21/news/l_amaca_del_22_settembre_2024-423513794/?rss</v>
+        <v>https://invececoncita.blogautore.repubblica.it/articoli/2024/11/15/un-luogo-nuovo-dove-picchiarsi/</v>
       </c>
       <c r="C296" t="str">
-        <v>di Michele Serra</v>
+        <v>di Concita de Gregorio</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>Il progresso galoppa</v>
+        <v>Invece Concita</v>
       </c>
       <c r="B297" t="str">
-        <v>https://www.repubblica.it/rubriche/l-amaca/2024/09/21/news/l_amaca_del_22_settembre_2024-423513794/?rss</v>
+        <v>https://invececoncita.blogautore.repubblica.it/articoli/2024/11/15/un-luogo-nuovo-dove-picchiarsi/</v>
       </c>
       <c r="C297" t="str">
-        <v>di Michele Serra</v>
+        <v>di Concita de Gregorio</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v/>
+        <v>Un luogo nuovo dove picchiarsi</v>
       </c>
       <c r="B298" t="str">
-        <v>https://invececoncita.blogautore.repubblica.it/articoli/2024/09/21/il-bisogno-di-chi-parte-e-di-chi-resta/</v>
+        <v>https://invececoncita.blogautore.repubblica.it/articoli/2024/11/15/un-luogo-nuovo-dove-picchiarsi/</v>
       </c>
       <c r="C298" t="str">
         <v>di Concita de Gregorio</v>
@@ -3682,32 +3682,32 @@
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>Invece Concita</v>
+        <v/>
       </c>
       <c r="B299" t="str">
-        <v>https://invececoncita.blogautore.repubblica.it/articoli/2024/09/21/il-bisogno-di-chi-parte-e-di-chi-resta/</v>
+        <v>https://www.repubblica.it/rubriche/le-lettere/2024/11/15/news/posta_e_risposta_del_15_novembre_2024-423626538/?rss</v>
       </c>
       <c r="C299" t="str">
-        <v>di Concita de Gregorio</v>
+        <v>di Francesco Merlo</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>Il bisogno di chi parte e di chi resta</v>
+        <v>Posta e risposta</v>
       </c>
       <c r="B300" t="str">
-        <v>https://invececoncita.blogautore.repubblica.it/articoli/2024/09/21/il-bisogno-di-chi-parte-e-di-chi-resta/</v>
+        <v>https://www.repubblica.it/rubriche/le-lettere/2024/11/15/news/posta_e_risposta_del_15_novembre_2024-423626538/?rss</v>
       </c>
       <c r="C300" t="str">
-        <v>di Concita de Gregorio</v>
+        <v>di Francesco Merlo</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v/>
+        <v>Francobolli, Vespa tra gli esperti La giusta distanza tra dire ...</v>
       </c>
       <c r="B301" t="str">
-        <v>https://www.repubblica.it/rubriche/le-lettere/2024/09/22/news/posta_e_risposta_del_22_settembre-423513740/?rss</v>
+        <v>https://www.repubblica.it/rubriche/le-lettere/2024/11/15/news/posta_e_risposta_del_15_novembre_2024-423626538/?rss</v>
       </c>
       <c r="C301" t="str">
         <v>di Francesco Merlo</v>
@@ -3715,32 +3715,32 @@
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>Posta e risposta</v>
+        <v/>
       </c>
       <c r="B302" t="str">
-        <v>https://www.repubblica.it/rubriche/le-lettere/2024/09/22/news/posta_e_risposta_del_22_settembre-423513740/?rss</v>
+        <v>https://www.repubblica.it/rubriche/la-prima-cosa-bella/2024/11/15/news/prima_cosa_bella_15_novembre_2024-423622520/?rss</v>
       </c>
       <c r="C302" t="str">
-        <v>di Francesco Merlo</v>
+        <v>di Gabriele Romagnoli</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>La Torre di Piano, inaugurazione precoce. Chiara, i neonati e ...</v>
+        <v>La prima cosa bella</v>
       </c>
       <c r="B303" t="str">
-        <v>https://www.repubblica.it/rubriche/le-lettere/2024/09/22/news/posta_e_risposta_del_22_settembre-423513740/?rss</v>
+        <v>https://www.repubblica.it/rubriche/la-prima-cosa-bella/2024/11/15/news/prima_cosa_bella_15_novembre_2024-423622520/?rss</v>
       </c>
       <c r="C303" t="str">
-        <v>di Francesco Merlo</v>
+        <v>di Gabriele Romagnoli</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v/>
+        <v>Il pompiere piromane</v>
       </c>
       <c r="B304" t="str">
-        <v>https://www.repubblica.it/rubriche/la-prima-cosa-bella/2024/09/20/news/prima_cosa_bella_20_settembre_2024-423509239/?rss</v>
+        <v>https://www.repubblica.it/rubriche/la-prima-cosa-bella/2024/11/15/news/prima_cosa_bella_15_novembre_2024-423622520/?rss</v>
       </c>
       <c r="C304" t="str">
         <v>di Gabriele Romagnoli</v>
@@ -3748,32 +3748,32 @@
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>La prima cosa bella</v>
+        <v/>
       </c>
       <c r="B305" t="str">
-        <v>https://www.repubblica.it/rubriche/la-prima-cosa-bella/2024/09/20/news/prima_cosa_bella_20_settembre_2024-423509239/?rss</v>
+        <v>https://www.repubblica.it/tecnologia/blog/stazione-futuro/2024/11/13/news/se_il_tuo_iphone_sa_che_sei_single_prima_di_te-423617509/</v>
       </c>
       <c r="C305" t="str">
-        <v>di Gabriele Romagnoli</v>
+        <v>di Riccardo Luna</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>L’illuminante</v>
+        <v>Stazione Futuro</v>
       </c>
       <c r="B306" t="str">
-        <v>https://www.repubblica.it/rubriche/la-prima-cosa-bella/2024/09/20/news/prima_cosa_bella_20_settembre_2024-423509239/?rss</v>
+        <v>https://www.repubblica.it/tecnologia/blog/stazione-futuro/2024/11/13/news/se_il_tuo_iphone_sa_che_sei_single_prima_di_te-423617509/</v>
       </c>
       <c r="C306" t="str">
-        <v>di Gabriele Romagnoli</v>
+        <v>di Riccardo Luna</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v/>
+        <v>Se il tuo iPhone sa che sei single prima di ...</v>
       </c>
       <c r="B307" t="str">
-        <v>https://www.repubblica.it/tecnologia/blog/2024/09/13/news/levarsi_la_vita_perche_le_hanno_tolto_il_telefonino-423498404/</v>
+        <v>https://www.repubblica.it/tecnologia/blog/stazione-futuro/2024/11/13/news/se_il_tuo_iphone_sa_che_sei_single_prima_di_te-423617509/</v>
       </c>
       <c r="C307" t="str">
         <v>di Riccardo Luna</v>
@@ -3781,32 +3781,32 @@
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>Stazione Futuro</v>
+        <v/>
       </c>
       <c r="B308" t="str">
-        <v>https://www.repubblica.it/tecnologia/blog/2024/09/13/news/levarsi_la_vita_perche_le_hanno_tolto_il_telefonino-423498404/</v>
+        <v>https://www.repubblica.it/rubriche/liberta-illiberta/2024/11/14/news/storia_di_sahel_migrante_ritrovato_in_libia_tra_i_dimenticati_del_mondo-423626018/?rss</v>
       </c>
       <c r="C308" t="str">
-        <v>di Riccardo Luna</v>
+        <v>di Luigi Manconi</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>Levarsi la vita perché le hanno tolto il telefonino</v>
+        <v>Libertà Illibertà</v>
       </c>
       <c r="B309" t="str">
-        <v>https://www.repubblica.it/tecnologia/blog/2024/09/13/news/levarsi_la_vita_perche_le_hanno_tolto_il_telefonino-423498404/</v>
+        <v>https://www.repubblica.it/rubriche/liberta-illiberta/2024/11/14/news/storia_di_sahel_migrante_ritrovato_in_libia_tra_i_dimenticati_del_mondo-423626018/?rss</v>
       </c>
       <c r="C309" t="str">
-        <v>di Riccardo Luna</v>
+        <v>di Luigi Manconi</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v/>
+        <v>Storia del migrante fuggito dal Sahel e riportato in Libia ...</v>
       </c>
       <c r="B310" t="str">
-        <v>https://www.repubblica.it/rubriche/liberta-illiberta/2024/09/19/news/congedi_di_paternita_anche_per_la_parita_femminile-423509491/?rss</v>
+        <v>https://www.repubblica.it/rubriche/liberta-illiberta/2024/11/14/news/storia_di_sahel_migrante_ritrovato_in_libia_tra_i_dimenticati_del_mondo-423626018/?rss</v>
       </c>
       <c r="C310" t="str">
         <v>di Luigi Manconi</v>
@@ -3814,32 +3814,32 @@
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>Libertà Illibertà</v>
+        <v/>
       </c>
       <c r="B311" t="str">
-        <v>https://www.repubblica.it/rubriche/liberta-illiberta/2024/09/19/news/congedi_di_paternita_anche_per_la_parita_femminile-423509491/?rss</v>
+        <v>https://www.repubblica.it/spettacoli/tv-radio/2024/11/14/news/multischermo_nuovi_eroi_racconti_di_vita_e_di_buoni_intenti-423628317/</v>
       </c>
       <c r="C311" t="str">
-        <v>di Luigi Manconi</v>
+        <v>di Antonio Dipollina</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>Servono congedi di paternità (anche) per la parità femminile</v>
+        <v>Multischermo</v>
       </c>
       <c r="B312" t="str">
-        <v>https://www.repubblica.it/rubriche/liberta-illiberta/2024/09/19/news/congedi_di_paternita_anche_per_la_parita_femminile-423509491/?rss</v>
+        <v>https://www.repubblica.it/spettacoli/tv-radio/2024/11/14/news/multischermo_nuovi_eroi_racconti_di_vita_e_di_buoni_intenti-423628317/</v>
       </c>
       <c r="C312" t="str">
-        <v>di Luigi Manconi</v>
+        <v>di Antonio Dipollina</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v/>
+        <v>“Nuovi eroi”, c’è un Paese che resiste</v>
       </c>
       <c r="B313" t="str">
-        <v>https://www.repubblica.it/spettacoli/tv-radio/2024/09/21/news/sono_lillo_2_serie_tv_prime_video_recensione-423513376/</v>
+        <v>https://www.repubblica.it/spettacoli/tv-radio/2024/11/14/news/multischermo_nuovi_eroi_racconti_di_vita_e_di_buoni_intenti-423628317/</v>
       </c>
       <c r="C313" t="str">
         <v>di Antonio Dipollina</v>
@@ -3847,32 +3847,32 @@
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>Multischermo</v>
+        <v/>
       </c>
       <c r="B314" t="str">
-        <v>https://www.repubblica.it/spettacoli/tv-radio/2024/09/21/news/sono_lillo_2_serie_tv_prime_video_recensione-423513376/</v>
+        <v>https://www.repubblica.it/cultura/2024/11/13/news/coda_dell_occhio_michele_smargiassi_a_forza_di_braccia-423614143/</v>
       </c>
       <c r="C314" t="str">
-        <v>di Antonio Dipollina</v>
+        <v>di Michele Smargiassi</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>‘Sono Lillo 2’, la serie che funziona anche se è un gioco da ragazzi</v>
+        <v>Coda dell’occhio</v>
       </c>
       <c r="B315" t="str">
-        <v>https://www.repubblica.it/spettacoli/tv-radio/2024/09/21/news/sono_lillo_2_serie_tv_prime_video_recensione-423513376/</v>
+        <v>https://www.repubblica.it/cultura/2024/11/13/news/coda_dell_occhio_michele_smargiassi_a_forza_di_braccia-423614143/</v>
       </c>
       <c r="C315" t="str">
-        <v>di Antonio Dipollina</v>
+        <v>di Michele Smargiassi</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v/>
+        <v>A forza di braccia</v>
       </c>
       <c r="B316" t="str">
-        <v>https://www.repubblica.it/cultura/2024/09/13/news/coda_dell_occhio_michele_smargiassi_sulla_panchina_solitaria-423492824/</v>
+        <v>https://www.repubblica.it/cultura/2024/11/13/news/coda_dell_occhio_michele_smargiassi_a_forza_di_braccia-423614143/</v>
       </c>
       <c r="C316" t="str">
         <v>di Michele Smargiassi</v>
@@ -3880,24 +3880,24 @@
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>La coda dell'occhio</v>
+        <v/>
       </c>
       <c r="B317" t="str">
-        <v>https://www.repubblica.it/cultura/2024/09/13/news/coda_dell_occhio_michele_smargiassi_sulla_panchina_solitaria-423492824/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/14/news/governo_trump_musk_noem_nomine_usa-423624473/?ref=-BH-I0-P-S1-F</v>
       </c>
       <c r="C317" t="str">
-        <v>di Michele Smargiassi</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>Sulla panchina solitaria</v>
+        <v>Governo Trump, da Musk a Noem tutte le nomine del presidente Usa</v>
       </c>
       <c r="B318" t="str">
-        <v>https://www.repubblica.it/cultura/2024/09/13/news/coda_dell_occhio_michele_smargiassi_sulla_panchina_solitaria-423492824/</v>
+        <v>https://www.repubblica.it/esteri/2024/11/14/news/governo_trump_musk_noem_nomine_usa-423624473/?ref=-BH-I0-P-S1-T1</v>
       </c>
       <c r="C318" t="str">
-        <v>di Michele Smargiassi</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="319">
@@ -3905,21 +3905,21 @@
         <v/>
       </c>
       <c r="B319" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/21/news/libano_ucciso_ghandour_macellaio_di_madaya_siria-423513385/?ref=-BH-I0-P-S1-F</v>
+        <v>https://www.repubblica.it/esteri/2024/11/14/news/governo_trump_nomine_amministrazione_usa-423625686/?ref=-BH-I0-P-S2-F</v>
       </c>
       <c r="C319" t="str">
-        <v>dalla nostra inviata Gabriella Colarusso</v>
+        <v>di Gianni Riotta</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>Libano, ucciso nel raid israeliano anche "il macellaio di Madaya”: guidò il feroce assedio alla città siriana occupata dall’opposizione ad Assad</v>
+        <v>L’amministrazione Trump II, un governo che somiglia a un talk-show rissoso</v>
       </c>
       <c r="B320" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/21/news/libano_ucciso_ghandour_macellaio_di_madaya_siria-423513385/?ref=-BH-I0-P-S1-T1</v>
+        <v>https://www.repubblica.it/esteri/2024/11/14/news/governo_trump_nomine_amministrazione_usa-423625686/?ref=-BH-I0-P-S2-T1</v>
       </c>
       <c r="C320" t="str">
-        <v>dalla nostra inviata Gabriella Colarusso</v>
+        <v>di Gianni Riotta</v>
       </c>
     </row>
     <row r="321">
@@ -3927,21 +3927,21 @@
         <v/>
       </c>
       <c r="B321" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/21/news/casa_bianca_biden_escalation_medio_oriente_libano-423512567/?ref=-BH-I0-P-S2-F</v>
+        <v>https://www.greenandblue.it/dossier/cop29/2024/11/14/news/cop29_milei_ritira_delegazione_argentina-423623133/?ref=-BH-I0-P-S3-F</v>
       </c>
       <c r="C321" t="str">
-        <v>dal nostro corrispondente Paolo Mastrolilli</v>
+        <v>di Giacomo Talignani</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>La Casa Bianca avverte Israele: “No all’apertura di un altro fronte a Nord”</v>
+        <v>Cop29, Milei ritira la delegazione argentina. E gli economisti chiedono più soldi per i paesi poveri</v>
       </c>
       <c r="B322" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/21/news/casa_bianca_biden_escalation_medio_oriente_libano-423512567/?ref=-BH-I0-P-S2-T1</v>
+        <v>https://www.greenandblue.it/dossier/cop29/2024/11/14/news/cop29_milei_ritira_delegazione_argentina-423623133/?ref=-BH-I0-P-S3-T1</v>
       </c>
       <c r="C322" t="str">
-        <v>dal nostro corrispondente Paolo Mastrolilli</v>
+        <v>di Giacomo Talignani</v>
       </c>
     </row>
     <row r="323">
@@ -3949,21 +3949,21 @@
         <v/>
       </c>
       <c r="B323" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/21/news/mark_robinson_candidato_repubblicano_chat_porno_black_nazi-423512409/?ref=-BH-I0-P-S3-F</v>
+        <v>https://www.repubblica.it/esteri/2024/11/14/news/podolyak_intervista_putin_ispira_voci_piano_pace_usa_trump-423621450/?ref=-BH-I0-P-S4-F</v>
       </c>
       <c r="C323" t="str">
-        <v>dal nostro corrispondente Paolo Mastrolilli</v>
+        <v>di Fabio Tonacci</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>Siti hard e frasi razziste, il candidato “black nazi” ora fa tremare Trump</v>
+        <v>Podolyak: “Non è Kiev a dover fare concessioni. Trump è un numero uno e terrà testa a Putin”</v>
       </c>
       <c r="B324" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/21/news/mark_robinson_candidato_repubblicano_chat_porno_black_nazi-423512409/?ref=-BH-I0-P-S3-T1</v>
+        <v>https://www.repubblica.it/esteri/2024/11/14/news/podolyak_intervista_putin_ispira_voci_piano_pace_usa_trump-423621450/?ref=-BH-I0-P-S4-T1</v>
       </c>
       <c r="C324" t="str">
-        <v>dal nostro corrispondente Paolo Mastrolilli</v>
+        <v>di Fabio Tonacci</v>
       </c>
     </row>
     <row r="325">
@@ -3971,21 +3971,21 @@
         <v/>
       </c>
       <c r="B325" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/20/video/cisgiordania_soldati_israeliani_gettano_giu_da_un_tetto_i_corpi_di_quattro_palestinesi_dopo_uno_scontro_a_fuoco-423510986/?ref=-BH-I0-P-S4-F</v>
+        <v>https://www.repubblica.it/esteri/2024/11/14/news/politica_musk_elezioni_americane-423621489/?ref=-BH-I0-P-S5-F</v>
       </c>
       <c r="C325" t="str">
-        <v>Не найден</v>
+        <v>dalla nostra inviata Anna Lombardi</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>Cisgiordania, soldati israeliani gettano giù da un tetto i corpi di quattro palestinesi dopo uno scontro a fuoco</v>
+        <v>Sacrificare le masse contro l’estinzione: l’Elon-pensiero invade Washington</v>
       </c>
       <c r="B326" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/20/video/cisgiordania_soldati_israeliani_gettano_giu_da_un_tetto_i_corpi_di_quattro_palestinesi_dopo_uno_scontro_a_fuoco-423510986/?ref=-BH-I0-P-S4-T1</v>
+        <v>https://www.repubblica.it/esteri/2024/11/14/news/politica_musk_elezioni_americane-423621489/?ref=-BH-I0-P-S5-T1</v>
       </c>
       <c r="C326" t="str">
-        <v>Не найден</v>
+        <v>dalla nostra inviata Anna Lombardi</v>
       </c>
     </row>
     <row r="327">
@@ -3993,21 +3993,21 @@
         <v/>
       </c>
       <c r="B327" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/21/news/da_elon_musk_donazione_a_donald_trump_di_289mila_dollari-423512730/?ref=-BH-I0-P-S5-F</v>
+        <v>https://www.greenandblue.it/dossier/cop29/2024/11/15/news/lobbisti_combustibili_fossili-423629278/?ref=-BH-I0-P-S6-F</v>
       </c>
       <c r="C327" t="str">
-        <v>Не найден</v>
+        <v>di Giacomo Talignani</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>Da Musk donazione a Trump di 289mila dollari</v>
+        <v>Più lobbisti dei combustibili fossili che delegati dei paesi vulnerabili alla Cop del clima</v>
       </c>
       <c r="B328" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/21/news/da_elon_musk_donazione_a_donald_trump_di_289mila_dollari-423512730/?ref=-BH-I0-P-S5-T1</v>
+        <v>https://www.greenandblue.it/dossier/cop29/2024/11/15/news/lobbisti_combustibili_fossili-423629278/?ref=-BH-I0-P-S6-T1</v>
       </c>
       <c r="C328" t="str">
-        <v>Не найден</v>
+        <v>di Giacomo Talignani</v>
       </c>
     </row>
     <row r="329">
@@ -4015,21 +4015,21 @@
         <v/>
       </c>
       <c r="B329" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/news/alabama_sparatoria_morti_feriti_news-423514532/?ref=-BH-I0-P-S6-F</v>
+        <v>https://www.repubblica.it/esteri/2024/11/15/news/robert_kennedy_jr_governo_trump_sanita-423629230/?ref=-BH-I0-P-S7-F</v>
       </c>
       <c r="C329" t="str">
-        <v>a cura della redazione Esteri</v>
+        <v>dalla nostra inviata Anna Lombardi</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>Spari contro la folla in Alabama: 4 morti e decine feriti</v>
+        <v>Kennedy, un no-vax come responsabile per la Salute</v>
       </c>
       <c r="B330" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/news/alabama_sparatoria_morti_feriti_news-423514532/?ref=-BH-I0-P-S6-T1</v>
+        <v>https://www.repubblica.it/esteri/2024/11/15/news/robert_kennedy_jr_governo_trump_sanita-423629230/?ref=-BH-I0-P-S7-T1</v>
       </c>
       <c r="C330" t="str">
-        <v>a cura della redazione Esteri</v>
+        <v>dalla nostra inviata Anna Lombardi</v>
       </c>
     </row>
     <row r="331">
@@ -4037,21 +4037,21 @@
         <v/>
       </c>
       <c r="B331" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/news/studio_iscience_cervello_conservatori_progressisti_differenze-423514505/?ref=-BH-I0-P-S7-F</v>
+        <v>https://www.repubblica.it/esteri/2024/11/15/news/rivista_the_onion_compra_infowar_alex_jones-423629223/?ref=-BH-I0-P-S8-F</v>
       </c>
       <c r="C331" t="str">
-        <v>dal nostro corrispondente Paolo Mastrolilli</v>
+        <v>dalla nostra inviata Anna Lombardi</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>Questione di amigdala: uno studio rivela la differenza tra i cervelli di progressisti e conservatori</v>
+        <v>Una risata contro il complottismo: la rivista satirica The Onion compra Infowar</v>
       </c>
       <c r="B332" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/news/studio_iscience_cervello_conservatori_progressisti_differenze-423514505/?ref=-BH-I0-P-S7-T1</v>
+        <v>https://www.repubblica.it/esteri/2024/11/15/news/rivista_the_onion_compra_infowar_alex_jones-423629223/?ref=-BH-I0-P-S8-T1</v>
       </c>
       <c r="C332" t="str">
-        <v>dal nostro corrispondente Paolo Mastrolilli</v>
+        <v>dalla nostra inviata Anna Lombardi</v>
       </c>
     </row>
     <row r="333">
@@ -4059,21 +4059,21 @@
         <v/>
       </c>
       <c r="B333" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/news/iran_esplosione_in_una_miniera_di_carbone_19_morti-423514258/?ref=-BH-I0-P-S8-F</v>
+        <v>https://www.repubblica.it/esteri/2024/11/15/news/ucraina_atomica_putin_nato-423628985/?ref=-BH-I0-P-S9-F</v>
       </c>
       <c r="C333" t="str">
-        <v>Не найден</v>
+        <v>di Gianluca Di Feo</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>Iran, esplosione in una miniera di carbone: 19 morti</v>
+        <v>L’Ucraina potrebbe davvero costruire una bomba atomica?</v>
       </c>
       <c r="B334" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/news/iran_esplosione_in_una_miniera_di_carbone_19_morti-423514258/?ref=-BH-I0-P-S8-T1</v>
+        <v>https://www.repubblica.it/esteri/2024/11/15/news/ucraina_atomica_putin_nato-423628985/?ref=-BH-I0-P-S9-T1</v>
       </c>
       <c r="C334" t="str">
-        <v>Не найден</v>
+        <v>di Gianluca Di Feo</v>
       </c>
     </row>
     <row r="335">
@@ -4081,21 +4081,21 @@
         <v/>
       </c>
       <c r="B335" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/news/tondelier_governo_barnier_francia-423513862/?ref=-BH-I0-P-S9-F</v>
+        <v>https://www.onepodcast.it/brand/onepodcast/2024/11/10/audio/andrea_matteucci_il_mostro_di_aosta_-_13-17683393/</v>
       </c>
       <c r="C335" t="str">
-        <v>dalla nostra corrispondente Anais Ginori</v>
+        <v>di E. De Marco</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>Francia, Tondelier: “L’esecutivo resterà in carica pochi mesi e Macron dovrà dimettersi”</v>
+        <v>Andrea Matteucci: il Mostro di Aosta - 1/3</v>
       </c>
       <c r="B336" t="str">
-        <v>https://www.repubblica.it/esteri/2024/09/22/news/tondelier_governo_barnier_francia-423513862/?ref=-BH-I0-P-S9-T1</v>
+        <v>https://www.onepodcast.it/brand/onepodcast/2024/11/10/audio/andrea_matteucci_il_mostro_di_aosta_-_13-17683393/</v>
       </c>
       <c r="C336" t="str">
-        <v>dalla nostra corrispondente Anais Ginori</v>
+        <v>di E. De Marco</v>
       </c>
     </row>
     <row r="337">
@@ -4103,21 +4103,21 @@
         <v/>
       </c>
       <c r="B337" t="str">
-        <v>https://www.onepodcast.it/brand/deejay/2024/09/18/audio/musica_boyband_vs_girlband_con_paola_iezzi-16972490/</v>
+        <v>https://www.onepodcast.it/brand/deejay/2024/11/12/audio/tintoria_230_gianluca_gazzoli-17698452/</v>
       </c>
       <c r="C337" t="str">
-        <v>di F. Russo e D. Collu</v>
+        <v>di D. Tinti e S. Rapone</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>Musica: Boyband VS Girlband con Paola Iezzi</v>
+        <v>Tintoria #230 Gianluca Gazzoli</v>
       </c>
       <c r="B338" t="str">
-        <v>https://www.onepodcast.it/brand/deejay/2024/09/18/audio/musica_boyband_vs_girlband_con_paola_iezzi-16972490/</v>
+        <v>https://www.onepodcast.it/brand/deejay/2024/11/12/audio/tintoria_230_gianluca_gazzoli-17698452/</v>
       </c>
       <c r="C338" t="str">
-        <v>di F. Russo e D. Collu</v>
+        <v>di D. Tinti e S. Rapone</v>
       </c>
     </row>
     <row r="339">
@@ -4125,21 +4125,21 @@
         <v/>
       </c>
       <c r="B339" t="str">
-        <v>https://www.onepodcast.it/brand/onepodcast/2024/09/19/audio/vita_da_orchestra_hobby_ad_alta_quota-16993178/</v>
+        <v>https://www.onepodcast.it/brand/deejay/2024/11/11/audio/ep_4_-_una_carneficina-17688565/</v>
       </c>
       <c r="C339" t="str">
-        <v>di F. Di Stefano-Abichain</v>
+        <v>di F. Lancia</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>Vita da orchestra: hobby ad alta quota</v>
+        <v>Una carneficina</v>
       </c>
       <c r="B340" t="str">
-        <v>https://www.onepodcast.it/brand/onepodcast/2024/09/19/audio/vita_da_orchestra_hobby_ad_alta_quota-16993178/</v>
+        <v>https://www.onepodcast.it/brand/deejay/2024/11/11/audio/ep_4_-_una_carneficina-17688565/</v>
       </c>
       <c r="C340" t="str">
-        <v>di F. Di Stefano-Abichain</v>
+        <v>di F. Lancia</v>
       </c>
     </row>
     <row r="341">
@@ -4147,21 +4147,21 @@
         <v/>
       </c>
       <c r="B341" t="str">
-        <v>https://www.onepodcast.it/brand/repubblica/2023/04/28/audio/remindher1-11943973/</v>
+        <v>https://www.onepodcast.it/brand/deejay/2024/11/11/audio/episodio_34_come_prendere_le_decisioni_migliori-17688567/</v>
       </c>
       <c r="C341" t="str">
-        <v>di F. Marino</v>
+        <v>di L. Antonini e A. Mora</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>Remind(h)er#1</v>
+        <v>Come prendere le decisioni migliori</v>
       </c>
       <c r="B342" t="str">
-        <v>https://www.onepodcast.it/brand/repubblica/2023/04/28/audio/remindher1-11943973/</v>
+        <v>https://www.onepodcast.it/brand/deejay/2024/11/11/audio/episodio_34_come_prendere_le_decisioni_migliori-17688567/</v>
       </c>
       <c r="C342" t="str">
-        <v>di F. Marino</v>
+        <v>di L. Antonini e A. Mora</v>
       </c>
     </row>
     <row r="343">
@@ -4169,21 +4169,21 @@
         <v/>
       </c>
       <c r="B343" t="str">
-        <v>https://www.onepodcast.it/brand/deejay/2024/09/17/audio/il_calcio_in_diretta_come_in_un_videogioco-16953769/</v>
+        <v>https://www.repubblica.it/italia/2024/11/14/news/castelli_negazionista_clima_commissario_ricostruzione_centro_italia-423627831/?ref=-BH-I0-P-S1-F</v>
       </c>
       <c r="C343" t="str">
-        <v>di M. Curti</v>
+        <v>di Corrado Zunino</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>Il calcio in diretta come in un videogioco</v>
+        <v>Guido Castelli, il negazionista del clima: “Ridurre le emissioni non serve”. Tozzi: “È un ignorante”</v>
       </c>
       <c r="B344" t="str">
-        <v>https://www.onepodcast.it/brand/deejay/2024/09/17/audio/il_calcio_in_diretta_come_in_un_videogioco-16953769/</v>
+        <v>https://www.repubblica.it/italia/2024/11/14/news/castelli_negazionista_clima_commissario_ricostruzione_centro_italia-423627831/?ref=-BH-I0-P-S1-T1</v>
       </c>
       <c r="C344" t="str">
-        <v>di M. Curti</v>
+        <v>di Corrado Zunino</v>
       </c>
     </row>
     <row r="345">
@@ -4191,21 +4191,21 @@
         <v/>
       </c>
       <c r="B345" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/giovani_stipendi_bassi_italia-423513893/?ref=-BH-I0-P-S1-F</v>
+        <v>https://www.repubblica.it/italia/2024/11/14/news/intelligenza_artificiale_poesia_shakespeare_byron_esperimento-423627666/?ref=-BH-I0-P-S2-F</v>
       </c>
       <c r="C345" t="str">
-        <v>di Giulia D’Aleo</v>
+        <v>di Elena Dusi</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>Il lavoro che non paga tra stipendi da fame e contratti precari: centomila giovani via dall’Italia</v>
+        <v>L’intelligenza artificiale batte Shakespeare e Byron: i lettori preferiscono la poesia dell’IA</v>
       </c>
       <c r="B346" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/giovani_stipendi_bassi_italia-423513893/?ref=-BH-I0-P-S1-T1</v>
+        <v>https://www.repubblica.it/italia/2024/11/14/news/intelligenza_artificiale_poesia_shakespeare_byron_esperimento-423627666/?ref=-BH-I0-P-S2-T1</v>
       </c>
       <c r="C346" t="str">
-        <v>di Giulia D’Aleo</v>
+        <v>di Elena Dusi</v>
       </c>
     </row>
     <row r="347">
@@ -4213,21 +4213,21 @@
         <v/>
       </c>
       <c r="B347" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/mantenimento_figli_maggiorenni_genitori-423513772/?ref=-BH-I0-P-S2-F</v>
+        <v>https://www.repubblica.it/italia/2024/11/14/news/selva_di_cadore_hotel_israeliani_genocidio-423626228/?ref=-BH-I0-P-S3-F</v>
       </c>
       <c r="C347" t="str">
-        <v>di Liana Milella</v>
+        <v>di Enrico Ferro</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>Genitori contro bamboccioni, l’ultima guerra tra generazioni: “Non si può mantenerli a vita”</v>
+        <v>Selva di Cadore, hotel rifiuta clienti israeliani: “Siete responsabili di genocidio”</v>
       </c>
       <c r="B348" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/mantenimento_figli_maggiorenni_genitori-423513772/?ref=-BH-I0-P-S2-T1</v>
+        <v>https://www.repubblica.it/italia/2024/11/14/news/selva_di_cadore_hotel_israeliani_genocidio-423626228/?ref=-BH-I0-P-S3-T1</v>
       </c>
       <c r="C348" t="str">
-        <v>di Liana Milella</v>
+        <v>di Enrico Ferro</v>
       </c>
     </row>
     <row r="349">
@@ -4235,21 +4235,21 @@
         <v/>
       </c>
       <c r="B349" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/mistero_famiglia_di_chiara_neonati_sepolti-423514148/?ref=-BH-I0-P-S3-F</v>
+        <v>https://www.repubblica.it/italia/2024/11/14/news/venezia_venduto_ca__dario_palazzo_maledetto-423625937/?ref=-BH-I0-P-S4-F</v>
       </c>
       <c r="C349" t="str">
-        <v>dalle nostre inviate Ilaria Carra e Romina Marceca</v>
+        <v>di Enrico Ferro</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>Neonati sepolti, le tracce di sangue lavate e il no al taglio della siepe: le reazioni anomale della famiglia di Chiara</v>
+        <v>Venduto Ca’ Dario, il palazzo maledetto di Venezia: i vecchi proprietari sono tutti finiti male</v>
       </c>
       <c r="B350" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/mistero_famiglia_di_chiara_neonati_sepolti-423514148/?ref=-BH-I0-P-S3-T1</v>
+        <v>https://www.repubblica.it/italia/2024/11/14/news/venezia_venduto_ca__dario_palazzo_maledetto-423625937/?ref=-BH-I0-P-S4-T1</v>
       </c>
       <c r="C350" t="str">
-        <v>dalle nostre inviate Ilaria Carra e Romina Marceca</v>
+        <v>di Enrico Ferro</v>
       </c>
     </row>
     <row r="351">
@@ -4257,21 +4257,21 @@
         <v/>
       </c>
       <c r="B351" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/covid_variante_xec_autunno_sintomi_cure-423514482/?ref=-BH-I0-P-S4-F</v>
+        <v>https://www.repubblica.it/italia/2024/11/14/news/berlinguer_pd_belluno_film_cinema_gratis-423622895/?ref=-BH-I0-P-S5-F</v>
       </c>
       <c r="C351" t="str">
-        <v>a cura della redazione Cronaca nazionale</v>
+        <v>di Enrico Ferro</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>Covid, la variante che dominerà in autunno sarà la Xec. Ecco cosa ne sappiamo</v>
+        <v>“I giovani non sanno chi era Berlinguer”. Il Pd di Belluno paga il biglietto al cinema agli under 30</v>
       </c>
       <c r="B352" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/covid_variante_xec_autunno_sintomi_cure-423514482/?ref=-BH-I0-P-S4-T1</v>
+        <v>https://www.repubblica.it/italia/2024/11/14/news/berlinguer_pd_belluno_film_cinema_gratis-423622895/?ref=-BH-I0-P-S5-T1</v>
       </c>
       <c r="C352" t="str">
-        <v>a cura della redazione Cronaca nazionale</v>
+        <v>di Enrico Ferro</v>
       </c>
     </row>
     <row r="353">
@@ -4279,21 +4279,21 @@
         <v/>
       </c>
       <c r="B353" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/monica_velletti_giudice_intervista-423513779/?ref=-BH-I0-P-S5-F</v>
+        <v>https://www.repubblica.it/italia/2024/11/15/news/aborto_relazione_dati_2022_ministero-423629179/?ref=-BH-I0-P-S6-F</v>
       </c>
       <c r="C353" t="str">
-        <v>di Liana Milella</v>
+        <v>di Michele Bocci</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>La giudice Velletti: “Aiutiamo questi ragazzi a dimostrare il loro impegno”</v>
+        <v>La relazione del ministero sui dati dell’aborto è scomparsa. “Quella del 2022 non è mai arrivata”</v>
       </c>
       <c r="B354" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/monica_velletti_giudice_intervista-423513779/?ref=-BH-I0-P-S5-T1</v>
+        <v>https://www.repubblica.it/italia/2024/11/15/news/aborto_relazione_dati_2022_ministero-423629179/?ref=-BH-I0-P-S6-T1</v>
       </c>
       <c r="C354" t="str">
-        <v>di Liana Milella</v>
+        <v>di Michele Bocci</v>
       </c>
     </row>
     <row r="355">
@@ -4301,21 +4301,21 @@
         <v/>
       </c>
       <c r="B355" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/giacomo_gobbato_morto_accoltellamento_mestre_venezia-423514090/?ref=-BH-I0-P-S6-F</v>
+        <v>https://www.repubblica.it/italia/2024/11/15/news/matilde_lorenzi_sciatrice_morta_valgioie-423628591/?ref=-BH-I0-P-S7-F</v>
       </c>
       <c r="C355" t="str">
-        <v>di Francesco Furlan</v>
+        <v>dal nostro inviato Franco Vanni</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>Giacomo Gobbato ucciso per difendere una donna rapinata: la sua morte commuove Mestre</v>
+        <v>Nella stanza di Matilde Lorenzi: foto, sci e trofei. “Qui lei vive con noi, il suo sport cambierà”</v>
       </c>
       <c r="B356" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/giacomo_gobbato_morto_accoltellamento_mestre_venezia-423514090/?ref=-BH-I0-P-S6-T1</v>
+        <v>https://www.repubblica.it/italia/2024/11/15/news/matilde_lorenzi_sciatrice_morta_valgioie-423628591/?ref=-BH-I0-P-S7-T1</v>
       </c>
       <c r="C356" t="str">
-        <v>di Francesco Furlan</v>
+        <v>dal nostro inviato Franco Vanni</v>
       </c>
     </row>
     <row r="357">
@@ -4323,21 +4323,21 @@
         <v/>
       </c>
       <c r="B357" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/giovani_stipendi_bassi_italia_la_laureata_che_fa_la_cassiera-423513934/?ref=-BH-I0-P-S7-F</v>
+        <v>https://www.repubblica.it/italia/2024/11/15/news/marco_antonio_procopio_medici_centro_roma_morte_agata_spada-423628661/?ref=-BH-I0-P-S8-F</v>
       </c>
       <c r="C357" t="str">
-        <v>di Giulia D'Aleo</v>
+        <v>di Viola Giannoli</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>La laureata: “Faccio la cassiera ma il contratto scade a fine settembre, poi sarò cacciata”</v>
+        <v>Le pazienti dei Procopio: “Mani d’oro, i migliori”. “Io a casa col sangue, tutto fatto al volo”</v>
       </c>
       <c r="B358" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/giovani_stipendi_bassi_italia_la_laureata_che_fa_la_cassiera-423513934/?ref=-BH-I0-P-S7-T1</v>
+        <v>https://www.repubblica.it/italia/2024/11/15/news/marco_antonio_procopio_medici_centro_roma_morte_agata_spada-423628661/?ref=-BH-I0-P-S8-T1</v>
       </c>
       <c r="C358" t="str">
-        <v>di Giulia D'Aleo</v>
+        <v>di Viola Giannoli</v>
       </c>
     </row>
     <row r="359">
@@ -4345,21 +4345,21 @@
         <v/>
       </c>
       <c r="B359" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/giovani_con_stipendi_bassi_parla_il_geometra-423513949/?ref=-BH-I0-P-S8-F</v>
+        <v>https://www.repubblica.it/italia/2024/11/15/news/previsioni_meteo_gelo_freddo_weekend-423628682/?ref=-BH-I0-P-S9-F</v>
       </c>
       <c r="C359" t="str">
-        <v>di Giulia D'Aleo</v>
+        <v>a cura di ilmeteo.it</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>Il geometra: “L’ultima proposta è la più indecente: 300 euro al mese e pulizie a fine turno”</v>
+        <v>Previsioni meteo, gelo sull’Italia: crollano le temperature. Weekend più mite e soleggiato</v>
       </c>
       <c r="B360" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/22/news/giovani_con_stipendi_bassi_parla_il_geometra-423513949/?ref=-BH-I0-P-S8-T1</v>
+        <v>https://www.repubblica.it/italia/2024/11/15/news/previsioni_meteo_gelo_freddo_weekend-423628682/?ref=-BH-I0-P-S9-T1</v>
       </c>
       <c r="C360" t="str">
-        <v>di Giulia D'Aleo</v>
+        <v>a cura di ilmeteo.it</v>
       </c>
     </row>
     <row r="361">
@@ -4367,21 +4367,21 @@
         <v/>
       </c>
       <c r="B361" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/21/news/alzheimer_giornata_mondiale-423513153/?ref=-BH-I0-P-S9-F</v>
+        <v>https://roma.repubblica.it/cronaca/2024/11/15/news/corruzione_appalti_giubileo_pnrr_pellegrini_pizzino_sugo_pancetta-423628945/?ref=-BH-I0-P-S1-F</v>
       </c>
       <c r="C361" t="str">
-        <v>di Michele Bocci</v>
+        <v>di Andrea Ossino e Giuseppe Scarpa</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>Alzheimer, oggi è la giornata mondiale. “In Italia 1,5 milioni di malati”</v>
+        <v>"Qui il sugo e qui la pancetta”. Così il grande corruttore chiamava gli appalti di Giubileo e Pnrr</v>
       </c>
       <c r="B362" t="str">
-        <v>https://www.repubblica.it/italia/2024/09/21/news/alzheimer_giornata_mondiale-423513153/?ref=-BH-I0-P-S9-T1</v>
+        <v>https://roma.repubblica.it/cronaca/2024/11/15/news/corruzione_appalti_giubileo_pnrr_pellegrini_pizzino_sugo_pancetta-423628945/?ref=-BH-I0-P-S1-T1</v>
       </c>
       <c r="C362" t="str">
-        <v>di Michele Bocci</v>
+        <v>di Andrea Ossino e Giuseppe Scarpa</v>
       </c>
     </row>
     <row r="363">
@@ -4389,21 +4389,21 @@
         <v/>
       </c>
       <c r="B363" t="str">
-        <v>https://roma.repubblica.it/cronaca/2024/09/22/news/crollo_ponte_cavalcavia_a1_torrenova_roma_sud_grande_raccordo_anulare_traffico_anas_giubileo-423514375/?ref=-BH-I0-P-S1-F</v>
+        <v>https://milano.repubblica.it/cronaca/2024/11/15/news/morto_pozzuolo_martesana_lavoro-423629186/?ref=-BH-I0-P-S1-F</v>
       </c>
       <c r="C363" t="str">
-        <v>a cura della redazione di Roma</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>Crolla un cavalcavia sulla A1 durante i lavori per il Giubileo: chiuso lo svincolo verso Roma Sud</v>
+        <v>Operaio precipita da dieci metri, morto sul lavoro un uomo di 54 anni a Pozzuolo Martesana</v>
       </c>
       <c r="B364" t="str">
-        <v>https://roma.repubblica.it/cronaca/2024/09/22/news/crollo_ponte_cavalcavia_a1_torrenova_roma_sud_grande_raccordo_anulare_traffico_anas_giubileo-423514375/?ref=-BH-I0-P-S1-T1</v>
+        <v>https://milano.repubblica.it/cronaca/2024/11/15/news/morto_pozzuolo_martesana_lavoro-423629186/?ref=-BH-I0-P-S1-T1</v>
       </c>
       <c r="C364" t="str">
-        <v>a cura della redazione di Roma</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="365">
@@ -4411,21 +4411,21 @@
         <v/>
       </c>
       <c r="B365" t="str">
-        <v>https://milano.repubblica.it/cronaca/2024/09/22/news/san_siro_derby_tutto_esaurito_incasso_record-423514054/?ref=-BH-I0-P-S1-F</v>
+        <v>https://bari.repubblica.it/cronaca/2024/11/15/news/leporano_uccisa_silvana_la_rocca_73_anni_indagini-423629227/?ref=-BH-I0-P-S1-F</v>
       </c>
       <c r="C365" t="str">
-        <v>di Franco Vanni</v>
+        <v>di Pierfrancesco Albanese e Francesco Oliva</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>San Siro by night: per il derby tutto esaurito con incasso record</v>
+        <v>Leporano, uccisa Silvana La Rocca: insegnante in pensione di 73 anni, il marito era morto all’Ilva</v>
       </c>
       <c r="B366" t="str">
-        <v>https://milano.repubblica.it/cronaca/2024/09/22/news/san_siro_derby_tutto_esaurito_incasso_record-423514054/?ref=-BH-I0-P-S1-T1</v>
+        <v>https://bari.repubblica.it/cronaca/2024/11/15/news/leporano_uccisa_silvana_la_rocca_73_anni_indagini-423629227/?ref=-BH-I0-P-S1-T1</v>
       </c>
       <c r="C366" t="str">
-        <v>di Franco Vanni</v>
+        <v>di Pierfrancesco Albanese e Francesco Oliva</v>
       </c>
     </row>
     <row r="367">
@@ -4433,21 +4433,21 @@
         <v/>
       </c>
       <c r="B367" t="str">
-        <v>https://bari.repubblica.it/cronaca/2024/09/22/news/lite_in_un_locale_notturno_a_molfetta_muore_una_ragazza_di_19_anni-423514397/?ref=-BH-I0-P-S1-F</v>
+        <v>https://bologna.repubblica.it/cronaca/2024/11/15/news/scuole_besta_parco_don_bosco_comitato_matteo_lepore-423629036/?ref=-BH-I0-P-S1-F</v>
       </c>
       <c r="C367" t="str">
-        <v>di Anna Piscopo, Chiara Spagnolo</v>
+        <v>di Micol Lavinia Lundari Perini</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>Sparatoria a Molfetta, muore una ragazza di 19 anni colpita da un proiettile dopo una rissa in un locale notturno. Tre feriti piantonati in ospedale. Indaga l’antimafia</v>
+        <v>Besta senza pace. Il Comune: “Via parte dell’edificio, più spazio al verde”. Ma il comitato dice no</v>
       </c>
       <c r="B368" t="str">
-        <v>https://bari.repubblica.it/cronaca/2024/09/22/news/lite_in_un_locale_notturno_a_molfetta_muore_una_ragazza_di_19_anni-423514397/?ref=-BH-I0-P-S1-T1</v>
+        <v>https://bologna.repubblica.it/cronaca/2024/11/15/news/scuole_besta_parco_don_bosco_comitato_matteo_lepore-423629036/?ref=-BH-I0-P-S1-T1</v>
       </c>
       <c r="C368" t="str">
-        <v>di Anna Piscopo, Chiara Spagnolo</v>
+        <v>di Micol Lavinia Lundari Perini</v>
       </c>
     </row>
     <row r="369">
@@ -4455,21 +4455,21 @@
         <v/>
       </c>
       <c r="B369" t="str">
-        <v>https://bologna.repubblica.it/cronaca/2024/09/22/news/lepore_errore_la_legge_regionale_sull_urbanistica_alluvione_bologna-423514344/?ref=-BH-I0-P-S1-F</v>
+        <v>https://firenze.repubblica.it/cronaca/2024/11/15/news/lunigiana_bergugliara_gelateria_cono_spopolamento_borgo-423629130/?ref=-BH-I0-P-S1-F</v>
       </c>
       <c r="C369" t="str">
-        <v>di Silvia Bignami</v>
+        <v>di Antonino Palumbo</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="str">
-        <v>Lepore: “Un errore la legge regionale sull’urbanistica, va rivista. E aiutiamo le persone che vivono in zone pericolose a trovare una nuova casa”</v>
+        <v>Barbara Conti, un cono contro lo spopolamento in Lunigiana: “Con un gelato ho salvato il mio borgo”</v>
       </c>
       <c r="B370" t="str">
-        <v>https://bologna.repubblica.it/cronaca/2024/09/22/news/lepore_errore_la_legge_regionale_sull_urbanistica_alluvione_bologna-423514344/?ref=-BH-I0-P-S1-T1</v>
+        <v>https://firenze.repubblica.it/cronaca/2024/11/15/news/lunigiana_bergugliara_gelateria_cono_spopolamento_borgo-423629130/?ref=-BH-I0-P-S1-T1</v>
       </c>
       <c r="C370" t="str">
-        <v>di Silvia Bignami</v>
+        <v>di Antonino Palumbo</v>
       </c>
     </row>
     <row r="371">
@@ -4477,21 +4477,21 @@
         <v/>
       </c>
       <c r="B371" t="str">
-        <v>https://firenze.repubblica.it/tempo-libero/2024/09/21/news/chiara_mastroianni_marcello_cinema_sono_diventata_attrice_per_ritrovare_la_magia_vissuta_sul_set_con_mio_padre_marcello-423513849/?ref=-BH-I0-P-S1-F</v>
+        <v>https://genova.repubblica.it/cronaca/2024/11/15/news/liguria_nuova_giunta_bucci_assessori_lega_mai-423628640/?ref=-BH-I0-P-S1-F</v>
       </c>
       <c r="C371" t="str">
-        <v>di Barbara Gabbrielli</v>
+        <v>di Matteo Macor</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>Chiara Mastroianni: “Sono diventata attrice per ritrovare la magia vissuta sul set con mio padre Marcello”</v>
+        <v>Liguria, Bucci annuncia l’accordo sulla giunta. La Lega rilancia Mai per Savona</v>
       </c>
       <c r="B372" t="str">
-        <v>https://firenze.repubblica.it/tempo-libero/2024/09/21/news/chiara_mastroianni_marcello_cinema_sono_diventata_attrice_per_ritrovare_la_magia_vissuta_sul_set_con_mio_padre_marcello-423513849/?ref=-BH-I0-P-S1-T1</v>
+        <v>https://genova.repubblica.it/cronaca/2024/11/15/news/liguria_nuova_giunta_bucci_assessori_lega_mai-423628640/?ref=-BH-I0-P-S1-T1</v>
       </c>
       <c r="C372" t="str">
-        <v>di Barbara Gabbrielli</v>
+        <v>di Matteo Macor</v>
       </c>
     </row>
     <row r="373">
@@ -4499,21 +4499,21 @@
         <v/>
       </c>
       <c r="B373" t="str">
-        <v>https://genova.repubblica.it/cronaca/2024/09/22/news/elezioni_liguria_nasce_la_seconda_lista_centrista_per_orlando_dentro_italia_viva_psi_e_europa_peccato_che_azione_non_a-423514508/?ref=-BH-I0-P-S1-F</v>
+        <v>https://napoli.repubblica.it/cronaca/2024/11/15/news/napoli_natale_luminarie_comune_strade-423628838/?ref=-BH-I0-P-S1-F</v>
       </c>
       <c r="C373" t="str">
-        <v>Не найден</v>
+        <v>di Paolo Popoli</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="str">
-        <v>Elezioni Liguria, nasce la seconda lista centrista per Orlando. Dentro Italia Viva, Psi e +Europa: “Peccato che azione non abbia voluto stare con noi”</v>
+        <v>Luminarie di Natale, il Comune accelera: “Prime strade pronte”</v>
       </c>
       <c r="B374" t="str">
-        <v>https://genova.repubblica.it/cronaca/2024/09/22/news/elezioni_liguria_nasce_la_seconda_lista_centrista_per_orlando_dentro_italia_viva_psi_e_europa_peccato_che_azione_non_a-423514508/?ref=-BH-I0-P-S1-T1</v>
+        <v>https://napoli.repubblica.it/cronaca/2024/11/15/news/napoli_natale_luminarie_comune_strade-423628838/?ref=-BH-I0-P-S1-T1</v>
       </c>
       <c r="C374" t="str">
-        <v>Не найден</v>
+        <v>di Paolo Popoli</v>
       </c>
     </row>
     <row r="375">
@@ -4521,21 +4521,21 @@
         <v/>
       </c>
       <c r="B375" t="str">
-        <v>https://napoli.repubblica.it/cronaca/2024/09/22/news/saviano_esplosione_crollo_vittime_bombola_gas-423514297/?ref=-BH-I0-P-S1-F</v>
+        <v>https://palermo.repubblica.it/politica/2024/11/15/news/lei_non_sa_chi_ero_io_l_almanacco_dei_riciclati_nel_sottogoverno_siciliano-423628953/?ref=-BH-I0-P-S1-F</v>
       </c>
       <c r="C375" t="str">
-        <v>dal nostro inviato Dario del Porto, foto di Riccardo Siano</v>
+        <v>di Accursio Sabella</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="str">
-        <v>Saviano, crolla palazzina: morti una bimba di 4 anni e il fratellino di 6 anni, estratti vivi il papà e il figlio di 2 anni. Disperse la mamma e una vicina</v>
+        <v>“Lei non sa chi ero io”, l’almanacco dei riciclati nel sottogoverno siciliano</v>
       </c>
       <c r="B376" t="str">
-        <v>https://napoli.repubblica.it/cronaca/2024/09/22/news/saviano_esplosione_crollo_vittime_bombola_gas-423514297/?ref=-BH-I0-P-S1-T1</v>
+        <v>https://palermo.repubblica.it/politica/2024/11/15/news/lei_non_sa_chi_ero_io_l_almanacco_dei_riciclati_nel_sottogoverno_siciliano-423628953/?ref=-BH-I0-P-S1-T1</v>
       </c>
       <c r="C376" t="str">
-        <v>dal nostro inviato Dario del Porto, foto di Riccardo Siano</v>
+        <v>di Accursio Sabella</v>
       </c>
     </row>
     <row r="377">
@@ -4543,21 +4543,21 @@
         <v/>
       </c>
       <c r="B377" t="str">
-        <v>https://palermo.repubblica.it/cronaca/2024/09/22/news/movida_palermo_venti_norme_violate-423514067/?ref=-BH-I0-P-S1-F</v>
+        <v>https://torino.repubblica.it/cronaca/2024/11/15/news/no_meloni_day_400_studenti_in_piazza_cartelli_pro-pal_con_politici_insanguinati_schlein_compresa-423629284/?ref=-BH-I0-P-S1-F</v>
       </c>
       <c r="C377" t="str">
-        <v>di Francesco Patanè</v>
+        <v>a cura della redazione Repubblica Torino</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v>Zona franca Palermo: le venti norme violate dal popolo della notte nella terra di nessuno</v>
+        <v>No Meloni day, 400 studenti in piazza: cartelli Pro-Pal con politici insanguinati, Schlein compresa</v>
       </c>
       <c r="B378" t="str">
-        <v>https://palermo.repubblica.it/cronaca/2024/09/22/news/movida_palermo_venti_norme_violate-423514067/?ref=-BH-I0-P-S1-T1</v>
+        <v>https://torino.repubblica.it/cronaca/2024/11/15/news/no_meloni_day_400_studenti_in_piazza_cartelli_pro-pal_con_politici_insanguinati_schlein_compresa-423629284/?ref=-BH-I0-P-S1-T1</v>
       </c>
       <c r="C378" t="str">
-        <v>di Francesco Patanè</v>
+        <v>a cura della redazione Repubblica Torino</v>
       </c>
     </row>
     <row r="379">
@@ -4565,21 +4565,21 @@
         <v/>
       </c>
       <c r="B379" t="str">
-        <v>https://torino.repubblica.it/cronaca/2024/09/22/news/ius_scholae_il_pd_sfida_cirio_ma_lui_non_molla_gli_alleati-423514283/?ref=-BH-I0-P-S1-F</v>
+        <v>https://www.repubblica.it/cronaca/2024/11/15/news/orsa_f36_abbattuta_consiglio_di_stato-423629300/?ref=-BH-I0-P-S1-F</v>
       </c>
       <c r="C379" t="str">
-        <v>Andrea Gatta</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="str">
-        <v>Sullo Ius scholae il Pd sfida Cirio, ma lui non molla gli alleati</v>
+        <v>L’orsa F36 non doveva essere abbattuta. Per il Consiglio di Stato l’ordine era illegittimo</v>
       </c>
       <c r="B380" t="str">
-        <v>https://torino.repubblica.it/cronaca/2024/09/22/news/ius_scholae_il_pd_sfida_cirio_ma_lui_non_molla_gli_alleati-423514283/?ref=-BH-I0-P-S1-T1</v>
+        <v>https://www.repubblica.it/cronaca/2024/11/15/news/orsa_f36_abbattuta_consiglio_di_stato-423629300/?ref=-BH-I0-P-S1-T1</v>
       </c>
       <c r="C380" t="str">
-        <v>Andrea Gatta</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="381">
@@ -4587,21 +4587,21 @@
         <v/>
       </c>
       <c r="B381" t="str">
-        <v>https://www.repubblica.it/cronaca/2024/09/22/news/bolzano_rifugio_santner_svenduto_indagine-423514548/?ref=-BH-I0-P-S1-F</v>
+        <v>https://milano.repubblica.it/cronaca/2024/11/15/news/atm_pensiline_violenza_donne_femminicidi_campagna-423629237/?ref=-BH-I0-P-S1-F</v>
       </c>
       <c r="C381" t="str">
-        <v>a cura della redazione Cronaca nazionale</v>
+        <v>di Miriam Romano</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>Bolzano, indagine sul rifugio Santner svenduto: “Danno per 600mila euro”</v>
+        <v>La campagna di Atm alle pensiline contro i femminicidi: “Riconosci la violenza prima che sia tardi”</v>
       </c>
       <c r="B382" t="str">
-        <v>https://www.repubblica.it/cronaca/2024/09/22/news/bolzano_rifugio_santner_svenduto_indagine-423514548/?ref=-BH-I0-P-S1-T1</v>
+        <v>https://milano.repubblica.it/cronaca/2024/11/15/news/atm_pensiline_violenza_donne_femminicidi_campagna-423629237/?ref=-BH-I0-P-S1-T1</v>
       </c>
       <c r="C382" t="str">
-        <v>a cura della redazione Cronaca nazionale</v>
+        <v>di Miriam Romano</v>
       </c>
     </row>
     <row r="383">
@@ -4609,21 +4609,21 @@
         <v/>
       </c>
       <c r="B383" t="str">
-        <v>https://milano.repubblica.it/cronaca/2024/09/22/news/stipendi_quanto_si_guadagna_a_milano_classifica_lombardia-423514455/?ref=-BH-I0-P-S1-F</v>
+        <v>https://roma.repubblica.it/cronaca/2024/11/15/news/manifestazione_studenti_roma_antifascisti_antisionisti-423629311/?ref=-BH-I0-P-S1-F</v>
       </c>
       <c r="C383" t="str">
-        <v>a cura di Raffaele Ricciardi</v>
+        <v>di Valentina Lupia</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="str">
-        <v>Milano stabile in vetta. Salgono Sondrio e Brescia, giù Lecco: la classifica degli stipendi in Lombardia</v>
+        <v>Manifestazione degli studenti a Roma, doppio corteo: “Siamo tutte antifasciste e antisioniste”</v>
       </c>
       <c r="B384" t="str">
-        <v>https://milano.repubblica.it/cronaca/2024/09/22/news/stipendi_quanto_si_guadagna_a_milano_classifica_lombardia-423514455/?ref=-BH-I0-P-S1-T1</v>
+        <v>https://roma.repubblica.it/cronaca/2024/11/15/news/manifestazione_studenti_roma_antifascisti_antisionisti-423629311/?ref=-BH-I0-P-S1-T1</v>
       </c>
       <c r="C384" t="str">
-        <v>a cura di Raffaele Ricciardi</v>
+        <v>di Valentina Lupia</v>
       </c>
     </row>
     <row r="385">
@@ -4631,21 +4631,21 @@
         <v/>
       </c>
       <c r="B385" t="str">
-        <v>https://roma.repubblica.it/cronaca/2024/09/22/news/a_casa_di_simone_cristicchi-423514528/?ref=-BH-I0-P-S1-F</v>
+        <v>https://bari.repubblica.it/cronaca/2024/11/15/news/leporano_uccisa_silvana_la_rocca_73_anni_indagini-423629227/?ref=-BH-I0-P-S1-F</v>
       </c>
       <c r="C385" t="str">
-        <v>di Vania Colasanti</v>
+        <v>di Pierfrancesco Albanese e Francesco Oliva</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="str">
-        <v>A casa di Simone Cristicchi: “La mia radice di vita tra il casale e una grotta. Qui per incantesimo nascono canzoni”</v>
+        <v>Leporano, uccisa Silvana La Rocca: insegnante in pensione di 73 anni, il marito era morto all’Ilva</v>
       </c>
       <c r="B386" t="str">
-        <v>https://roma.repubblica.it/cronaca/2024/09/22/news/a_casa_di_simone_cristicchi-423514528/?ref=-BH-I0-P-S1-T1</v>
+        <v>https://bari.repubblica.it/cronaca/2024/11/15/news/leporano_uccisa_silvana_la_rocca_73_anni_indagini-423629227/?ref=-BH-I0-P-S1-T1</v>
       </c>
       <c r="C386" t="str">
-        <v>di Vania Colasanti</v>
+        <v>di Pierfrancesco Albanese e Francesco Oliva</v>
       </c>
     </row>
     <row r="387">
@@ -4653,21 +4653,21 @@
         <v/>
       </c>
       <c r="B387" t="str">
-        <v>https://bari.repubblica.it/cronaca/2024/09/22/news/l_arresto_a_bari_vecchia_di_sabino_capriati_nipote_del_boss_in_diretta_sui_social_il_video_diventa_virale-423514545/?ref=-BH-I0-P-S1-F</v>
+        <v>https://bologna.repubblica.it/cronaca/2024/11/15/news/scuole_besta_parco_don_bosco_comitato_matteo_lepore-423629036/?ref=-BH-I0-P-S1-F</v>
       </c>
       <c r="C387" t="str">
-        <v>di Chiara Spagnolo</v>
+        <v>di Micol Lavinia Lundari Perini</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="str">
-        <v>L’arresto a Bari vecchia di Sabino Capriati (nipote del boss) in diretta sui social: il video diventa virale</v>
+        <v>Besta senza pace. Il Comune: “Via parte dell’edificio, più spazio al verde”. Ma il comitato dice no</v>
       </c>
       <c r="B388" t="str">
-        <v>https://bari.repubblica.it/cronaca/2024/09/22/news/l_arresto_a_bari_vecchia_di_sabino_capriati_nipote_del_boss_in_diretta_sui_social_il_video_diventa_virale-423514545/?ref=-BH-I0-P-S1-T1</v>
+        <v>https://bologna.repubblica.it/cronaca/2024/11/15/news/scuole_besta_parco_don_bosco_comitato_matteo_lepore-423629036/?ref=-BH-I0-P-S1-T1</v>
       </c>
       <c r="C388" t="str">
-        <v>di Chiara Spagnolo</v>
+        <v>di Micol Lavinia Lundari Perini</v>
       </c>
     </row>
     <row r="389">
@@ -4675,21 +4675,21 @@
         <v/>
       </c>
       <c r="B389" t="str">
-        <v>https://bologna.repubblica.it/cronaca/2024/09/22/news/arteterapia_rizzoli_bologna_infermieri_bambini_tumori_ossei-423514492/?ref=-BH-I0-P-S1-F</v>
+        <v>https://firenze.repubblica.it/cronaca/2024/11/15/news/lunigiana_bergugliara_gelateria_cono_spopolamento_borgo-423629130/?ref=-BH-I0-P-S1-F</v>
       </c>
       <c r="C389" t="str">
-        <v>di Micol Lavinia Lundari Perini</v>
+        <v>di Antonino Palumbo</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="str">
-        <v>Arteterapia per gli infermieri che seguono i bambini con tumori ossei: “Con i colori, ci prendiamo cura di chi cura”</v>
+        <v>Barbara Conti, un cono contro lo spopolamento in Lunigiana: “Con un gelato ho salvato il mio borgo”</v>
       </c>
       <c r="B390" t="str">
-        <v>https://bologna.repubblica.it/cronaca/2024/09/22/news/arteterapia_rizzoli_bologna_infermieri_bambini_tumori_ossei-423514492/?ref=-BH-I0-P-S1-T1</v>
+        <v>https://firenze.repubblica.it/cronaca/2024/11/15/news/lunigiana_bergugliara_gelateria_cono_spopolamento_borgo-423629130/?ref=-BH-I0-P-S1-T1</v>
       </c>
       <c r="C390" t="str">
-        <v>di Micol Lavinia Lundari Perini</v>
+        <v>di Antonino Palumbo</v>
       </c>
     </row>
     <row r="391">
@@ -4697,21 +4697,21 @@
         <v/>
       </c>
       <c r="B391" t="str">
-        <v>https://firenze.repubblica.it/cronaca/2024/09/22/news/fiorentina_esame_lazio_palladino_cambia-423513841/?ref=-BH-I0-P-S1-F</v>
+        <v>https://genova.repubblica.it/cronaca/2024/11/15/news/no_meloni_day_a_genova_in_corteo_anche_le_universitarie_per_lo_sportello_anti_violenza-423629259/?ref=-BH-I0-P-S1-F</v>
       </c>
       <c r="C391" t="str">
-        <v>di Matteo Dovellini</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="str">
-        <v>Fiorentina, esame Lazio al Franchi (ore 12,30). Gudmundsson verso l’esordio</v>
+        <v>“No Meloni Day” a Genova: in corteo anche le universitarie per lo sportello anti violenza</v>
       </c>
       <c r="B392" t="str">
-        <v>https://firenze.repubblica.it/cronaca/2024/09/22/news/fiorentina_esame_lazio_palladino_cambia-423513841/?ref=-BH-I0-P-S1-T1</v>
+        <v>https://genova.repubblica.it/cronaca/2024/11/15/news/no_meloni_day_a_genova_in_corteo_anche_le_universitarie_per_lo_sportello_anti_violenza-423629259/?ref=-BH-I0-P-S1-T1</v>
       </c>
       <c r="C392" t="str">
-        <v>di Matteo Dovellini</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="393">
@@ -4719,7 +4719,7 @@
         <v/>
       </c>
       <c r="B393" t="str">
-        <v>https://genova.repubblica.it/cronaca/2024/09/22/news/elezioni_liguria_nasce_la_seconda_lista_centrista_per_orlando_dentro_italia_viva_psi_e_europa_peccato_che_azione_non_a-423514508/?ref=-BH-I0-P-S1-F</v>
+        <v>https://napoli.repubblica.it/cronaca/2024/11/15/news/tra_la_movida_con_una_pistola_giocattolo_pronta_a_sparare-423629250/?ref=-BH-I0-P-S1-F</v>
       </c>
       <c r="C393" t="str">
         <v>Не найден</v>
@@ -4727,10 +4727,10 @@
     </row>
     <row r="394">
       <c r="A394" t="str">
-        <v>Elezioni Liguria, nasce la seconda lista centrista per Orlando. Dentro Italia Viva, Psi e +Europa: “Peccato che azione non abbia voluto stare con noi”</v>
+        <v>Castellammare, 19enne con una pistola giocattolo modificata pronta a sparare</v>
       </c>
       <c r="B394" t="str">
-        <v>https://genova.repubblica.it/cronaca/2024/09/22/news/elezioni_liguria_nasce_la_seconda_lista_centrista_per_orlando_dentro_italia_viva_psi_e_europa_peccato_che_azione_non_a-423514508/?ref=-BH-I0-P-S1-T1</v>
+        <v>https://napoli.repubblica.it/cronaca/2024/11/15/news/tra_la_movida_con_una_pistola_giocattolo_pronta_a_sparare-423629250/?ref=-BH-I0-P-S1-T1</v>
       </c>
       <c r="C394" t="str">
         <v>Не найден</v>
@@ -4741,7 +4741,7 @@
         <v/>
       </c>
       <c r="B395" t="str">
-        <v>https://napoli.repubblica.it/cronaca/2024/09/22/news/il_soprano_maria_grazia_schiavo_per_l_omaggio_a_niccolo_jommelli-423514466/?ref=-BH-I0-P-S1-F</v>
+        <v>https://palermo.repubblica.it/cronaca/2024/11/15/news/l_assoluzione_dell_editore_mario_ciancio_la_procura_di_catania_ricorre_in_appello-423629296/?ref=-BH-I0-P-S1-F</v>
       </c>
       <c r="C395" t="str">
         <v>Не найден</v>
@@ -4749,10 +4749,10 @@
     </row>
     <row r="396">
       <c r="A396" t="str">
-        <v>Il soprano Maria Grazia Schiavo a Napoli per l’omaggio a Niccolò Jommelli</v>
+        <v>L’assoluzione dell’editore Mario Ciancio, la procura di Catania ricorre in appello</v>
       </c>
       <c r="B396" t="str">
-        <v>https://napoli.repubblica.it/cronaca/2024/09/22/news/il_soprano_maria_grazia_schiavo_per_l_omaggio_a_niccolo_jommelli-423514466/?ref=-BH-I0-P-S1-T1</v>
+        <v>https://palermo.repubblica.it/cronaca/2024/11/15/news/l_assoluzione_dell_editore_mario_ciancio_la_procura_di_catania_ricorre_in_appello-423629296/?ref=-BH-I0-P-S1-T1</v>
       </c>
       <c r="C396" t="str">
         <v>Не найден</v>
@@ -4763,21 +4763,21 @@
         <v/>
       </c>
       <c r="B397" t="str">
-        <v>https://palermo.repubblica.it/cronaca/2024/09/22/news/intervista_jose_rallo_donnafugata-423514473/?ref=-BH-I0-P-S1-F</v>
+        <v>https://parma.repubblica.it/cronaca/2024/11/15/news/smog_stop_a_riscaldamento_a_legna_pellet_e_cippato_termo_accesi_massimo_13_ore-423629099/?ref=-BH-I0-P-S1-F</v>
       </c>
       <c r="C397" t="str">
-        <v>di Eleonora Lombardo</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="str">
-        <v>Josè Rallo: “Io, donna del vino, che Mattarella voleva ministra”</v>
+        <v>Smog, stop a riscaldamento a legna, pellet e cippato. Termo accesi massimo 13 ore</v>
       </c>
       <c r="B398" t="str">
-        <v>https://palermo.repubblica.it/cronaca/2024/09/22/news/intervista_jose_rallo_donnafugata-423514473/?ref=-BH-I0-P-S1-T1</v>
+        <v>https://parma.repubblica.it/cronaca/2024/11/15/news/smog_stop_a_riscaldamento_a_legna_pellet_e_cippato_termo_accesi_massimo_13_ore-423629099/?ref=-BH-I0-P-S1-T1</v>
       </c>
       <c r="C398" t="str">
-        <v>di Eleonora Lombardo</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="399">
@@ -4785,21 +4785,21 @@
         <v/>
       </c>
       <c r="B399" t="str">
-        <v>https://parma.repubblica.it/cronaca/2024/09/22/news/a_lemignano_il_nuovo_polo_logistico_di_casappa_l_investimento_piu_grande_dell_azienda-423514403/?ref=-BH-I0-P-S1-F</v>
+        <v>https://torino.repubblica.it/cronaca/2024/11/15/news/no_meloni_day_400_studenti_in_piazza_cartelli_pro-pal_con_politici_insanguinati_schlein_compresa-423629284/?ref=-BH-I0-P-S1-F</v>
       </c>
       <c r="C399" t="str">
-        <v>Не найден</v>
+        <v>a cura della redazione Repubblica Torino</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="str">
-        <v>A Lemignano il nuovo polo logistico di Casappa, l’investimento più grande dell’azienda</v>
+        <v>No Meloni day, 400 studenti in piazza: cartelli Pro-Pal con politici insanguinati, Schlein compresa</v>
       </c>
       <c r="B400" t="str">
-        <v>https://parma.repubblica.it/cronaca/2024/09/22/news/a_lemignano_il_nuovo_polo_logistico_di_casappa_l_investimento_piu_grande_dell_azienda-423514403/?ref=-BH-I0-P-S1-T1</v>
+        <v>https://torino.repubblica.it/cronaca/2024/11/15/news/no_meloni_day_400_studenti_in_piazza_cartelli_pro-pal_con_politici_insanguinati_schlein_compresa-423629284/?ref=-BH-I0-P-S1-T1</v>
       </c>
       <c r="C400" t="str">
-        <v>Не найден</v>
+        <v>a cura della redazione Repubblica Torino</v>
       </c>
     </row>
     <row r="401">
@@ -4807,54 +4807,54 @@
         <v/>
       </c>
       <c r="B401" t="str">
-        <v>https://torino.repubblica.it/cronaca/2024/09/22/news/il_cubo_di_rubik_rompicapo_pop_che_incanta_da_50_anni-423514370/?ref=-BH-I0-P-S1-F</v>
+        <v>https://quotidiano.repubblica.it/edicola/profilo/newsletter.jsp?where=newsletterpremium</v>
       </c>
       <c r="C401" t="str">
-        <v>Anna Cavallera</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="str">
-        <v>Il cubo di Rubik, rompicapo pop che incanta da 50 anni</v>
+        <v>Scopri tutte le newsletter per gli abbonati premium</v>
       </c>
       <c r="B402" t="str">
-        <v>https://torino.repubblica.it/cronaca/2024/09/22/news/il_cubo_di_rubik_rompicapo_pop_che_incanta_da_50_anni-423514370/?ref=-BH-I0-P-S1-T1</v>
+        <v>https://quotidiano.repubblica.it/edicola/profilo/newsletter.jsp?where=newsletterpremium</v>
       </c>
       <c r="C402" t="str">
-        <v>Anna Cavallera</v>
+        <v>Не найден</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="str">
-        <v/>
+        <v>Toghe</v>
       </c>
       <c r="B403" t="str">
-        <v>https://quotidiano.repubblica.it/edicola/profilo/newsletter.jsp?where=newsletterpremium</v>
+        <v>https://quotidiano.repubblica.it/edicola/profilo/newsletter.jsp</v>
       </c>
       <c r="C403" t="str">
-        <v>Не найден</v>
+        <v>di Liana Milella</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="str">
-        <v>Scopri tutte le newsletter per gli abbonati premium</v>
+        <v>Potete iscrivervi qui</v>
       </c>
       <c r="B404" t="str">
         <v>https://quotidiano.repubblica.it/edicola/profilo/newsletter.jsp?where=newsletterpremium</v>
       </c>
       <c r="C404" t="str">
-        <v>Не найден</v>
+        <v>di Liana Milella</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="str">
-        <v>Toghe</v>
+        <v>Outlook</v>
       </c>
       <c r="B405" t="str">
         <v>https://quotidiano.repubblica.it/edicola/profilo/newsletter.jsp</v>
       </c>
       <c r="C405" t="str">
-        <v>di Liana Milella</v>
+        <v>di Walter Galbiati</v>
       </c>
     </row>
     <row r="406">
@@ -4865,34 +4865,34 @@
         <v>https://quotidiano.repubblica.it/edicola/profilo/newsletter.jsp?where=newsletterpremium</v>
       </c>
       <c r="C406" t="str">
-        <v>di Liana Milella</v>
+        <v>di Walter Galbiati</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="str">
-        <v>Outlook</v>
+        <v>Storie di Storia</v>
       </c>
       <c r="B407" t="str">
-        <v>https://quotidiano.repubblica.it/edicola/profilo/newsletter.jsp</v>
+        <v>https://quotidiano.repubblica.it/edicola/profilo/newsletter.jsp?where=newsletterpremium</v>
       </c>
       <c r="C407" t="str">
-        <v>di Walter Galbiati</v>
+        <v>di Francesco De Leo</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="str">
-        <v>Potete iscrivervi qui</v>
+        <v>Le puntate precedenti</v>
       </c>
       <c r="B408" t="str">
-        <v>https://quotidiano.repubblica.it/edicola/profilo/newsletter.jsp?where=newsletterpremium</v>
+        <v>https://www.repubblica.it/argomenti/Storie_di_storia</v>
       </c>
       <c r="C408" t="str">
-        <v>di Walter Galbiati</v>
+        <v>di Francesco De Leo</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="str">
-        <v>Storie di Storia</v>
+        <v>Iscriviti</v>
       </c>
       <c r="B409" t="str">
         <v>https://quotidiano.repubblica.it/edicola/profilo/newsletter.jsp?where=newsletterpremium</v>
@@ -4903,24 +4903,24 @@
     </row>
     <row r="410">
       <c r="A410" t="str">
-        <v>Le puntate precedenti</v>
+        <v/>
       </c>
       <c r="B410" t="str">
-        <v>https://www.repubblica.it/argomenti/Storie_di_storia</v>
+        <v>https://www.repubblica.it/tecnologia/dossier/diventare-genitori-digitali/2024/11/12/news/controllo_e_personalizzazione_sui_social_gli_strumenti_per_guidare_i_ragazzi_sui_social_network-423616093/</v>
       </c>
       <c r="C410" t="str">
-        <v>di Francesco De Leo</v>
+        <v>di Giulia Cimpanelli</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="str">
-        <v>Iscriviti</v>
+        <v>Controllo e personalizzazione sui social: gli strumenti per guidare i ragazzi sui social network</v>
       </c>
       <c r="B411" t="str">
-        <v>https://quotidiano.repubblica.it/edicola/profilo/newsletter.jsp?where=newsletterpremium</v>
+        <v>https://www.repubblica.it/tecnologia/dossier/diventare-genitori-digitali/2024/11/12/news/controllo_e_personalizzazione_sui_social_gli_strumenti_per_guidare_i_ragazzi_sui_social_network-423616093/</v>
       </c>
       <c r="C411" t="str">
-        <v>di Francesco De Leo</v>
+        <v>di Giulia Cimpanelli</v>
       </c>
     </row>
     <row r="412">
@@ -4928,21 +4928,21 @@
         <v/>
       </c>
       <c r="B412" t="str">
-        <v>https://www.repubblica.it/green-and-blue/dossier/percorsi-sostenibili-la-via-del-riciclo/</v>
+        <v>https://www.repubblica.it/il-gusto/dossier/tutta-un-altra-birra-/2023/11/11/news/birra_e_lieviti_la_fermentazione_mista_e_spontanea-420133080/</v>
       </c>
       <c r="C412" t="str">
-        <v>Не найден</v>
+        <v>di Lara De Luna</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="str">
-        <v>La via del riciclo</v>
+        <v>Che sia mista o spontanea (la fermentazione) non chiamatele birre acide!</v>
       </c>
       <c r="B413" t="str">
-        <v>https://www.repubblica.it/green-and-blue/dossier/percorsi-sostenibili-la-via-del-riciclo/</v>
+        <v>https://www.repubblica.it/il-gusto/dossier/tutta-un-altra-birra-/2023/11/11/news/birra_e_lieviti_la_fermentazione_mista_e_spontanea-420133080/</v>
       </c>
       <c r="C413" t="str">
-        <v>Не найден</v>
+        <v>di Lara De Luna</v>
       </c>
     </row>
     <row r="414">
@@ -4950,21 +4950,21 @@
         <v/>
       </c>
       <c r="B414" t="str">
-        <v>https://www.repubblica.it/salute/dossier/labrevolution/2024/09/05/news/pelle_trasparente_colorante_tartrazina_science-423480783/</v>
+        <v>https://www.repubblica.it/salute/dossier/sportello-cuore/2024/11/13/news/sindrome_cardio-reno-metabolica_cos_e_perche_nasce_e_come_affrontarla-423612401/</v>
       </c>
       <c r="C414" t="str">
-        <v>di Sara Carmignani</v>
+        <v>di Federico Mereta</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="str">
-        <v>La pelle diventa trasparente. Con un colorante alimentare</v>
+        <v>Sindrome cardio-reno-metabolica, cos’è, perché nasce e come affrontarla</v>
       </c>
       <c r="B415" t="str">
-        <v>https://www.repubblica.it/salute/dossier/labrevolution/2024/09/05/news/pelle_trasparente_colorante_tartrazina_science-423480783/</v>
+        <v>https://www.repubblica.it/salute/dossier/sportello-cuore/2024/11/13/news/sindrome_cardio-reno-metabolica_cos_e_perche_nasce_e_come_affrontarla-423612401/</v>
       </c>
       <c r="C415" t="str">
-        <v>di Sara Carmignani</v>
+        <v>di Federico Mereta</v>
       </c>
     </row>
     <row r="416">
@@ -4972,21 +4972,21 @@
         <v/>
       </c>
       <c r="B416" t="str">
-        <v>https://www.repubblica.it/salute/dossier/labrevolution/2024/09/06/news/allergie_alimentari_bambini_intolleranze_pediatria_alimentazione-423483111/</v>
+        <v>https://www.repubblica.it/salute/dossier/ospedali-di-eccellenza/2024/11/11/news/tumore_testicolo_autopalpazione_screening-423610302/</v>
       </c>
       <c r="C416" t="str">
-        <v>di Mara Magistroni</v>
+        <v>di Sara Carmignani</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="str">
-        <v>Allergie alimentari nei bambini: trend in crescita, soprattutto sotto i 3 anni</v>
+        <v>Tumore del testicolo, come scoprirlo in tempo</v>
       </c>
       <c r="B417" t="str">
-        <v>https://www.repubblica.it/salute/dossier/labrevolution/2024/09/06/news/allergie_alimentari_bambini_intolleranze_pediatria_alimentazione-423483111/</v>
+        <v>https://www.repubblica.it/salute/dossier/ospedali-di-eccellenza/2024/11/11/news/tumore_testicolo_autopalpazione_screening-423610302/</v>
       </c>
       <c r="C417" t="str">
-        <v>di Mara Magistroni</v>
+        <v>di Sara Carmignani</v>
       </c>
     </row>
     <row r="418">
@@ -4994,21 +4994,21 @@
         <v/>
       </c>
       <c r="B418" t="str">
-        <v>https://www.repubblica.it/salute/dossier/sportello-cuore/2024/09/06/news/ipertensione_resistente_pillola_quattro_in_uno_aiuta_a_seguire_cura-423480465/</v>
+        <v>https://www.repubblica.it/salute/dossier/labrevolution/2024/11/12/news/migrazione_sanitaria_alloggi_casamica_tumori-423614482/</v>
       </c>
       <c r="C418" t="str">
-        <v>di Federico Mereta</v>
+        <v>di Mara Magistroni</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="str">
-        <v>Ipertensione resistente, la pillola “quattro in uno” aiuta ad abbassare la pressione e a seguire la cura</v>
+        <v>Un milione di persone in 3 anni in viaggio per curarsi</v>
       </c>
       <c r="B419" t="str">
-        <v>https://www.repubblica.it/salute/dossier/sportello-cuore/2024/09/06/news/ipertensione_resistente_pillola_quattro_in_uno_aiuta_a_seguire_cura-423480465/</v>
+        <v>https://www.repubblica.it/salute/dossier/labrevolution/2024/11/12/news/migrazione_sanitaria_alloggi_casamica_tumori-423614482/</v>
       </c>
       <c r="C419" t="str">
-        <v>di Federico Mereta</v>
+        <v>di Mara Magistroni</v>
       </c>
     </row>
     <row r="420">
@@ -5016,21 +5016,21 @@
         <v/>
       </c>
       <c r="B420" t="str">
-        <v>https://www.repubblica.it/dossier/economia/transizione-sostenibile/2024/09/06/news/citta_italiane_270_miliardi_di_investimenti_per_dimezzare_le_emissioni_entro_il_2050-423483005/</v>
+        <v>https://www.repubblica.it/salute/dossier/frontiere/2024/11/11/news/firenze-campagna-cardiomiopatia-ipertrofica-ostruttiva--423611112/</v>
       </c>
       <c r="C420" t="str">
-        <v>Не найден</v>
+        <v>di Dario Rubino</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="str">
-        <v>Città italiane: 270 miliardi di investimenti per dimezzare le emissioni entro il 2050</v>
+        <v>“Fai posto al cuore”, la campagna sulla cardiomiopatia ipertrofica ostruttiva arriva a Firenze</v>
       </c>
       <c r="B421" t="str">
-        <v>https://www.repubblica.it/dossier/economia/transizione-sostenibile/2024/09/06/news/citta_italiane_270_miliardi_di_investimenti_per_dimezzare_le_emissioni_entro_il_2050-423483005/</v>
+        <v>https://www.repubblica.it/salute/dossier/frontiere/2024/11/11/news/firenze-campagna-cardiomiopatia-ipertrofica-ostruttiva--423611112/</v>
       </c>
       <c r="C421" t="str">
-        <v>Не найден</v>
+        <v>di Dario Rubino</v>
       </c>
     </row>
     <row r="422">
@@ -5038,21 +5038,21 @@
         <v/>
       </c>
       <c r="B422" t="str">
-        <v>https://www.repubblica.it/dossier/economia/transizione-sostenibile/2024/07/30/news/energia_idroelettrica_cose_come_funziona_produzione_pro_e_contro-423421783/</v>
+        <v>https://www.repubblica.it/salute/dossier/vaccini/2024/11/11/news/fuoco_sant_antonio_quando_dove_fare_vaccino-423611107/</v>
       </c>
       <c r="C422" t="str">
-        <v>Не найден</v>
+        <v>Risponde Claudio Mastroianni*</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="str">
-        <v>Energia idroelettrica: come funziona, pro e contro. Il suo contributo è quasi raddoppiato nel 2024</v>
+        <v>Fuoco di Sant’Antonio, quando e dove si può fare il vaccino?</v>
       </c>
       <c r="B423" t="str">
-        <v>https://www.repubblica.it/dossier/economia/transizione-sostenibile/2024/07/30/news/energia_idroelettrica_cose_come_funziona_produzione_pro_e_contro-423421783/</v>
+        <v>https://www.repubblica.it/salute/dossier/vaccini/2024/11/11/news/fuoco_sant_antonio_quando_dove_fare_vaccino-423611107/</v>
       </c>
       <c r="C423" t="str">
-        <v>Не найден</v>
+        <v>Risponde Claudio Mastroianni*</v>
       </c>
     </row>
     <row r="424">
@@ -5060,37 +5060,70 @@
         <v/>
       </c>
       <c r="B424" t="str">
-        <v>https://www.formulapassion.it/editoriale/salita-rossa</v>
+        <v>https://www.repubblica.it/dossier/economia/transizione-sostenibile/2024/11/04/news/domotica_e_tecnologie_per_ridurre_bollette_e_consumi_elettrici_e_riscaldamento-423596878/</v>
       </c>
       <c r="C424" t="str">
-        <v>di Vincenzo Borgomeo</v>
+        <v>di Marco Cimminella</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="str">
-        <v>Salita rossa</v>
+        <v>Domotica e tecnologie smart riducono bollette e inquinamento</v>
       </c>
       <c r="B425" t="str">
-        <v>https://www.formulapassion.it/editoriale/salita-rossa</v>
+        <v>https://www.repubblica.it/dossier/economia/transizione-sostenibile/2024/11/04/news/domotica_e_tecnologie_per_ridurre_bollette_e_consumi_elettrici_e_riscaldamento-423596878/</v>
       </c>
       <c r="C425" t="str">
-        <v>di Vincenzo Borgomeo</v>
+        <v>di Marco Cimminella</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="str">
-        <v>Leclerc nono e Sainz decimo in griglia di partenza. Il Gp di Singapore partirà nel peggiore dei modi</v>
+        <v/>
       </c>
       <c r="B426" t="str">
-        <v>https://www.formulapassion.it/editoriale/salita-rossa</v>
+        <v>https://www.repubblica.it/salute/dossier/oncoline/2024/11/10/news/tumore_seno_osservatorio_test_genomici_aumento_sopravvivenza-423609242/</v>
       </c>
       <c r="C426" t="str">
+        <v>di Irma D'Aria</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v>Tumore del seno, Fondazione Aiom lancia l’Osservatorio sui test genomici</v>
+      </c>
+      <c r="B427" t="str">
+        <v>https://www.repubblica.it/salute/dossier/oncoline/2024/11/10/news/tumore_seno_osservatorio_test_genomici_aumento_sopravvivenza-423609242/</v>
+      </c>
+      <c r="C427" t="str">
+        <v>di Irma D'Aria</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v/>
+      </c>
+      <c r="B428" t="str">
+        <v>http://formulapassion-pro.ey.r.appspot.com/editoriale/f1-antico-e-moderno</v>
+      </c>
+      <c r="C428" t="str">
+        <v>di Vincenzo Borgomeo</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v>F1, antico e moderno</v>
+      </c>
+      <c r="B429" t="str">
+        <v>http://formulapassion-pro.ey.r.appspot.com/editoriale/f1-antico-e-moderno</v>
+      </c>
+      <c r="C429" t="str">
         <v>di Vincenzo Borgomeo</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C426"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C429"/>
   </ignoredErrors>
 </worksheet>
 </file>